--- a/output/tuckepj01.xlsx
+++ b/output/tuckepj01.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="103">
   <si>
     <t>Season</t>
   </si>
@@ -263,12 +263,6 @@
   </si>
   <si>
     <t>PS</t>
-  </si>
-  <si>
-    <t>ORtg</t>
-  </si>
-  <si>
-    <t>DRtg</t>
   </si>
   <si>
     <t>PER</t>
@@ -3950,6303 +3944,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE42"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:31">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2">
-        <v>17</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>83</v>
-      </c>
-      <c r="J2">
-        <v>4.8</v>
-      </c>
-      <c r="K2">
-        <v>9.5</v>
-      </c>
-      <c r="L2">
-        <v>0.5</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>4.8</v>
-      </c>
-      <c r="Q2">
-        <v>9.5</v>
-      </c>
-      <c r="R2">
-        <v>0.5</v>
-      </c>
-      <c r="S2">
-        <v>3.5</v>
-      </c>
-      <c r="T2">
-        <v>6.1</v>
-      </c>
-      <c r="U2">
-        <v>0.5710000000000001</v>
-      </c>
-      <c r="V2">
-        <v>4.8</v>
-      </c>
-      <c r="W2">
-        <v>5.2</v>
-      </c>
-      <c r="X2">
-        <v>10</v>
-      </c>
-      <c r="Y2">
-        <v>1.3</v>
-      </c>
-      <c r="Z2">
-        <v>0.9</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>2.6</v>
-      </c>
-      <c r="AC2">
-        <v>5.2</v>
-      </c>
-      <c r="AD2">
-        <v>13</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G4">
-        <v>79</v>
-      </c>
-      <c r="H4">
-        <v>45</v>
-      </c>
-      <c r="I4">
-        <v>1910</v>
-      </c>
-      <c r="J4">
-        <v>4</v>
-      </c>
-      <c r="K4">
-        <v>8.4</v>
-      </c>
-      <c r="L4">
-        <v>0.473</v>
-      </c>
-      <c r="M4">
-        <v>0.4</v>
-      </c>
-      <c r="N4">
-        <v>1.3</v>
-      </c>
-      <c r="O4">
-        <v>0.314</v>
-      </c>
-      <c r="P4">
-        <v>3.5</v>
-      </c>
-      <c r="Q4">
-        <v>7</v>
-      </c>
-      <c r="R4">
-        <v>0.503</v>
-      </c>
-      <c r="S4">
-        <v>1.2</v>
-      </c>
-      <c r="T4">
-        <v>1.6</v>
-      </c>
-      <c r="U4">
-        <v>0.7440000000000001</v>
-      </c>
-      <c r="V4">
-        <v>2.5</v>
-      </c>
-      <c r="W4">
-        <v>4.1</v>
-      </c>
-      <c r="X4">
-        <v>6.6</v>
-      </c>
-      <c r="Y4">
-        <v>2.1</v>
-      </c>
-      <c r="Z4">
-        <v>1.2</v>
-      </c>
-      <c r="AA4">
-        <v>0.4</v>
-      </c>
-      <c r="AB4">
-        <v>1.3</v>
-      </c>
-      <c r="AC4">
-        <v>2.7</v>
-      </c>
-      <c r="AD4">
-        <v>9.5</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G6">
-        <v>81</v>
-      </c>
-      <c r="H6">
-        <v>81</v>
-      </c>
-      <c r="I6">
-        <v>2490</v>
-      </c>
-      <c r="J6">
-        <v>3.8</v>
-      </c>
-      <c r="K6">
-        <v>8.9</v>
-      </c>
-      <c r="L6">
-        <v>0.431</v>
-      </c>
-      <c r="M6">
-        <v>1.1</v>
-      </c>
-      <c r="N6">
-        <v>2.8</v>
-      </c>
-      <c r="O6">
-        <v>0.387</v>
-      </c>
-      <c r="P6">
-        <v>2.8</v>
-      </c>
-      <c r="Q6">
-        <v>6.1</v>
-      </c>
-      <c r="R6">
-        <v>0.45</v>
-      </c>
-      <c r="S6">
-        <v>2.3</v>
-      </c>
-      <c r="T6">
-        <v>2.9</v>
-      </c>
-      <c r="U6">
-        <v>0.7759999999999999</v>
-      </c>
-      <c r="V6">
-        <v>2.3</v>
-      </c>
-      <c r="W6">
-        <v>5.3</v>
-      </c>
-      <c r="X6">
-        <v>7.6</v>
-      </c>
-      <c r="Y6">
-        <v>2</v>
-      </c>
-      <c r="Z6">
-        <v>1.6</v>
-      </c>
-      <c r="AA6">
-        <v>0.3</v>
-      </c>
-      <c r="AB6">
-        <v>1.5</v>
-      </c>
-      <c r="AC6">
-        <v>2.9</v>
-      </c>
-      <c r="AD6">
-        <v>11</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E8" t="s">
-        <v>77</v>
-      </c>
-      <c r="F8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G8">
-        <v>78</v>
-      </c>
-      <c r="H8">
-        <v>63</v>
-      </c>
-      <c r="I8">
-        <v>2383</v>
-      </c>
-      <c r="J8">
-        <v>3.9</v>
-      </c>
-      <c r="K8">
-        <v>9</v>
-      </c>
-      <c r="L8">
-        <v>0.4379999999999999</v>
-      </c>
-      <c r="M8">
-        <v>1.3</v>
-      </c>
-      <c r="N8">
-        <v>3.8</v>
-      </c>
-      <c r="O8">
-        <v>0.345</v>
-      </c>
-      <c r="P8">
-        <v>2.6</v>
-      </c>
-      <c r="Q8">
-        <v>5.2</v>
-      </c>
-      <c r="R8">
-        <v>0.506</v>
-      </c>
-      <c r="S8">
-        <v>1.6</v>
-      </c>
-      <c r="T8">
-        <v>2.2</v>
-      </c>
-      <c r="U8">
-        <v>0.727</v>
-      </c>
-      <c r="V8">
-        <v>1.7</v>
-      </c>
-      <c r="W8">
-        <v>5.9</v>
-      </c>
-      <c r="X8">
-        <v>7.6</v>
-      </c>
-      <c r="Y8">
-        <v>1.8</v>
-      </c>
-      <c r="Z8">
-        <v>1.6</v>
-      </c>
-      <c r="AA8">
-        <v>0.3</v>
-      </c>
-      <c r="AB8">
-        <v>1.5</v>
-      </c>
-      <c r="AC8">
-        <v>2.7</v>
-      </c>
-      <c r="AD8">
-        <v>10.8</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" t="s">
-        <v>77</v>
-      </c>
-      <c r="F10" t="s">
-        <v>78</v>
-      </c>
-      <c r="G10">
-        <v>82</v>
-      </c>
-      <c r="H10">
-        <v>80</v>
-      </c>
-      <c r="I10">
-        <v>2540</v>
-      </c>
-      <c r="J10">
-        <v>3.4</v>
-      </c>
-      <c r="K10">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="L10">
-        <v>0.411</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="N10">
-        <v>2.9</v>
-      </c>
-      <c r="O10">
-        <v>0.33</v>
-      </c>
-      <c r="P10">
-        <v>2.4</v>
-      </c>
-      <c r="Q10">
-        <v>5.3</v>
-      </c>
-      <c r="R10">
-        <v>0.455</v>
-      </c>
-      <c r="S10">
-        <v>1.5</v>
-      </c>
-      <c r="T10">
-        <v>2</v>
-      </c>
-      <c r="U10">
-        <v>0.746</v>
-      </c>
-      <c r="V10">
-        <v>2.3</v>
-      </c>
-      <c r="W10">
-        <v>4.9</v>
-      </c>
-      <c r="X10">
-        <v>7.3</v>
-      </c>
-      <c r="Y10">
-        <v>2.5</v>
-      </c>
-      <c r="Z10">
-        <v>1.5</v>
-      </c>
-      <c r="AA10">
-        <v>0.3</v>
-      </c>
-      <c r="AB10">
-        <v>1.6</v>
-      </c>
-      <c r="AC10">
-        <v>2.9</v>
-      </c>
-      <c r="AD10">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F12" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12">
-        <v>81</v>
-      </c>
-      <c r="H12">
-        <v>21</v>
-      </c>
-      <c r="I12">
-        <v>2236</v>
-      </c>
-      <c r="J12">
-        <v>3.2</v>
-      </c>
-      <c r="K12">
-        <v>7.8</v>
-      </c>
-      <c r="L12">
-        <v>0.413</v>
-      </c>
-      <c r="M12">
-        <v>1.1</v>
-      </c>
-      <c r="N12">
-        <v>3.2</v>
-      </c>
-      <c r="O12">
-        <v>0.357</v>
-      </c>
-      <c r="P12">
-        <v>2.1</v>
-      </c>
-      <c r="Q12">
-        <v>4.6</v>
-      </c>
-      <c r="R12">
-        <v>0.451</v>
-      </c>
-      <c r="S12">
-        <v>1.2</v>
-      </c>
-      <c r="T12">
-        <v>1.5</v>
-      </c>
-      <c r="U12">
-        <v>0.774</v>
-      </c>
-      <c r="V12">
-        <v>1.9</v>
-      </c>
-      <c r="W12">
-        <v>5.7</v>
-      </c>
-      <c r="X12">
-        <v>7.6</v>
-      </c>
-      <c r="Y12">
-        <v>1.6</v>
-      </c>
-      <c r="Z12">
-        <v>1.9</v>
-      </c>
-      <c r="AA12">
-        <v>0.3</v>
-      </c>
-      <c r="AB12">
-        <v>1.1</v>
-      </c>
-      <c r="AC12">
-        <v>3.2</v>
-      </c>
-      <c r="AD12">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" t="s">
-        <v>73</v>
-      </c>
-      <c r="E13" t="s">
-        <v>77</v>
-      </c>
-      <c r="F13" t="s">
-        <v>78</v>
-      </c>
-      <c r="G13">
-        <v>57</v>
-      </c>
-      <c r="H13">
-        <v>17</v>
-      </c>
-      <c r="I13">
-        <v>1627</v>
-      </c>
-      <c r="J13">
-        <v>3.3</v>
-      </c>
-      <c r="K13">
-        <v>7.8</v>
-      </c>
-      <c r="L13">
-        <v>0.415</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="N13">
-        <v>3</v>
-      </c>
-      <c r="O13">
-        <v>0.338</v>
-      </c>
-      <c r="P13">
-        <v>2.2</v>
-      </c>
-      <c r="Q13">
-        <v>4.8</v>
-      </c>
-      <c r="R13">
-        <v>0.463</v>
-      </c>
-      <c r="S13">
-        <v>1.3</v>
-      </c>
-      <c r="T13">
-        <v>1.7</v>
-      </c>
-      <c r="U13">
-        <v>0.792</v>
-      </c>
-      <c r="V13">
-        <v>2.1</v>
-      </c>
-      <c r="W13">
-        <v>5.5</v>
-      </c>
-      <c r="X13">
-        <v>7.6</v>
-      </c>
-      <c r="Y13">
-        <v>1.6</v>
-      </c>
-      <c r="Z13">
-        <v>1.9</v>
-      </c>
-      <c r="AA13">
-        <v>0.3</v>
-      </c>
-      <c r="AB13">
-        <v>1.2</v>
-      </c>
-      <c r="AC13">
-        <v>3.2</v>
-      </c>
-      <c r="AD13">
-        <v>8.9</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" t="s">
-        <v>77</v>
-      </c>
-      <c r="F14" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14">
-        <v>24</v>
-      </c>
-      <c r="H14">
-        <v>4</v>
-      </c>
-      <c r="I14">
-        <v>609</v>
-      </c>
-      <c r="J14">
-        <v>3.1</v>
-      </c>
-      <c r="K14">
-        <v>7.6</v>
-      </c>
-      <c r="L14">
-        <v>0.406</v>
-      </c>
-      <c r="M14">
-        <v>1.4</v>
-      </c>
-      <c r="N14">
-        <v>3.5</v>
-      </c>
-      <c r="O14">
-        <v>0.4</v>
-      </c>
-      <c r="P14">
-        <v>1.7</v>
-      </c>
-      <c r="Q14">
-        <v>4</v>
-      </c>
-      <c r="R14">
-        <v>0.412</v>
-      </c>
-      <c r="S14">
-        <v>0.7</v>
-      </c>
-      <c r="T14">
-        <v>0.9</v>
-      </c>
-      <c r="U14">
-        <v>0.6879999999999999</v>
-      </c>
-      <c r="V14">
-        <v>1.4</v>
-      </c>
-      <c r="W14">
-        <v>6.3</v>
-      </c>
-      <c r="X14">
-        <v>7.6</v>
-      </c>
-      <c r="Y14">
-        <v>1.5</v>
-      </c>
-      <c r="Z14">
-        <v>1.8</v>
-      </c>
-      <c r="AA14">
-        <v>0.3</v>
-      </c>
-      <c r="AB14">
-        <v>0.8</v>
-      </c>
-      <c r="AC14">
-        <v>3.1</v>
-      </c>
-      <c r="AD14">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" t="s">
-        <v>77</v>
-      </c>
-      <c r="F15" t="s">
-        <v>78</v>
-      </c>
-      <c r="G15">
-        <v>10</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>251</v>
-      </c>
-      <c r="J15">
-        <v>2.6</v>
-      </c>
-      <c r="K15">
-        <v>7</v>
-      </c>
-      <c r="L15">
-        <v>0.367</v>
-      </c>
-      <c r="M15">
-        <v>1.3</v>
-      </c>
-      <c r="N15">
-        <v>4</v>
-      </c>
-      <c r="O15">
-        <v>0.321</v>
-      </c>
-      <c r="P15">
-        <v>1.3</v>
-      </c>
-      <c r="Q15">
-        <v>3</v>
-      </c>
-      <c r="R15">
-        <v>0.429</v>
-      </c>
-      <c r="S15">
-        <v>0.7</v>
-      </c>
-      <c r="T15">
-        <v>1.1</v>
-      </c>
-      <c r="U15">
-        <v>0.625</v>
-      </c>
-      <c r="V15">
-        <v>2.2</v>
-      </c>
-      <c r="W15">
-        <v>6</v>
-      </c>
-      <c r="X15">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="Y15">
-        <v>1.6</v>
-      </c>
-      <c r="Z15">
-        <v>0.9</v>
-      </c>
-      <c r="AA15">
-        <v>0.4</v>
-      </c>
-      <c r="AB15">
-        <v>1.1</v>
-      </c>
-      <c r="AC15">
-        <v>3.9</v>
-      </c>
-      <c r="AD15">
-        <v>7.2</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="I16">
-        <v>-1985</v>
-      </c>
-      <c r="J16">
-        <v>-0.6000000000000001</v>
-      </c>
-      <c r="K16">
-        <v>-0.7999999999999998</v>
-      </c>
-      <c r="L16">
-        <v>-0.04599999999999993</v>
-      </c>
-      <c r="M16">
-        <v>0.2</v>
-      </c>
-      <c r="N16">
-        <v>0.7999999999999998</v>
-      </c>
-      <c r="O16">
-        <v>-0.03600000000000003</v>
-      </c>
-      <c r="P16">
-        <v>-0.8</v>
-      </c>
-      <c r="Q16">
-        <v>-1.6</v>
-      </c>
-      <c r="R16">
-        <v>-0.02200000000000002</v>
-      </c>
-      <c r="S16">
-        <v>-0.5</v>
-      </c>
-      <c r="T16">
-        <v>-0.3999999999999999</v>
-      </c>
-      <c r="U16">
-        <v>-0.149</v>
-      </c>
-      <c r="V16">
-        <v>0.3000000000000003</v>
-      </c>
-      <c r="W16">
-        <v>0.2999999999999998</v>
-      </c>
-      <c r="X16">
-        <v>0.5999999999999996</v>
-      </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
-      <c r="Z16">
-        <v>-0.9999999999999999</v>
-      </c>
-      <c r="AA16">
-        <v>0.1</v>
-      </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <v>0.6999999999999997</v>
-      </c>
-      <c r="AD16">
-        <v>-1.499999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" t="s">
-        <v>77</v>
-      </c>
-      <c r="F17" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17">
-        <v>82</v>
-      </c>
-      <c r="H17">
-        <v>34</v>
-      </c>
-      <c r="I17">
-        <v>2281</v>
-      </c>
-      <c r="J17">
-        <v>2.7</v>
-      </c>
-      <c r="K17">
-        <v>7</v>
-      </c>
-      <c r="L17">
-        <v>0.39</v>
-      </c>
-      <c r="M17">
-        <v>1.8</v>
-      </c>
-      <c r="N17">
-        <v>4.9</v>
-      </c>
-      <c r="O17">
-        <v>0.371</v>
-      </c>
-      <c r="P17">
-        <v>0.9</v>
-      </c>
-      <c r="Q17">
-        <v>2.1</v>
-      </c>
-      <c r="R17">
-        <v>0.435</v>
-      </c>
-      <c r="S17">
-        <v>0.7</v>
-      </c>
-      <c r="T17">
-        <v>0.9</v>
-      </c>
-      <c r="U17">
-        <v>0.7170000000000001</v>
-      </c>
-      <c r="V17">
-        <v>1.5</v>
-      </c>
-      <c r="W17">
-        <v>5.7</v>
-      </c>
-      <c r="X17">
-        <v>7.2</v>
-      </c>
-      <c r="Y17">
-        <v>1.2</v>
-      </c>
-      <c r="Z17">
-        <v>1.2</v>
-      </c>
-      <c r="AA17">
-        <v>0.4</v>
-      </c>
-      <c r="AB17">
-        <v>1.2</v>
-      </c>
-      <c r="AC17">
-        <v>3.2</v>
-      </c>
-      <c r="AD17">
-        <v>7.9</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" t="s">
-        <v>75</v>
-      </c>
-      <c r="E18" t="s">
-        <v>77</v>
-      </c>
-      <c r="F18" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18">
-        <v>17</v>
-      </c>
-      <c r="H18">
-        <v>17</v>
-      </c>
-      <c r="I18">
-        <v>569</v>
-      </c>
-      <c r="J18">
-        <v>3.3</v>
-      </c>
-      <c r="K18">
-        <v>6.8</v>
-      </c>
-      <c r="L18">
-        <v>0.481</v>
-      </c>
-      <c r="M18">
-        <v>2.2</v>
-      </c>
-      <c r="N18">
-        <v>4.7</v>
-      </c>
-      <c r="O18">
-        <v>0.467</v>
-      </c>
-      <c r="P18">
-        <v>1.1</v>
-      </c>
-      <c r="Q18">
-        <v>2.1</v>
-      </c>
-      <c r="R18">
-        <v>0.515</v>
-      </c>
-      <c r="S18">
-        <v>0.8</v>
-      </c>
-      <c r="T18">
-        <v>1.1</v>
-      </c>
-      <c r="U18">
-        <v>0.667</v>
-      </c>
-      <c r="V18">
-        <v>1.5</v>
-      </c>
-      <c r="W18">
-        <v>5.6</v>
-      </c>
-      <c r="X18">
-        <v>7</v>
-      </c>
-      <c r="Y18">
-        <v>1.4</v>
-      </c>
-      <c r="Z18">
-        <v>0.7</v>
-      </c>
-      <c r="AA18">
-        <v>0.8</v>
-      </c>
-      <c r="AB18">
-        <v>0.9</v>
-      </c>
-      <c r="AC18">
-        <v>2.9</v>
-      </c>
-      <c r="AD18">
-        <v>9.6</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="I19">
-        <v>-1712</v>
-      </c>
-      <c r="J19">
-        <v>0.5999999999999996</v>
-      </c>
-      <c r="K19">
-        <v>-0.2000000000000002</v>
-      </c>
-      <c r="L19">
-        <v>0.09100000000000003</v>
-      </c>
-      <c r="M19">
-        <v>0.4000000000000001</v>
-      </c>
-      <c r="N19">
-        <v>-0.2000000000000002</v>
-      </c>
-      <c r="O19">
-        <v>0.09600000000000003</v>
-      </c>
-      <c r="P19">
-        <v>0.2000000000000001</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0.08000000000000002</v>
-      </c>
-      <c r="S19">
-        <v>0.1000000000000001</v>
-      </c>
-      <c r="T19">
-        <v>0.2000000000000001</v>
-      </c>
-      <c r="U19">
-        <v>-0.05000000000000004</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>-0.1000000000000005</v>
-      </c>
-      <c r="X19">
-        <v>-0.2000000000000002</v>
-      </c>
-      <c r="Y19">
-        <v>0.2</v>
-      </c>
-      <c r="Z19">
-        <v>-0.5</v>
-      </c>
-      <c r="AA19">
-        <v>0.4</v>
-      </c>
-      <c r="AB19">
-        <v>-0.2999999999999999</v>
-      </c>
-      <c r="AC19">
-        <v>-0.3000000000000003</v>
-      </c>
-      <c r="AD19">
-        <v>1.699999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" t="s">
-        <v>77</v>
-      </c>
-      <c r="F20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20">
-        <v>82</v>
-      </c>
-      <c r="H20">
-        <v>82</v>
-      </c>
-      <c r="I20">
-        <v>2802</v>
-      </c>
-      <c r="J20">
-        <v>2.7</v>
-      </c>
-      <c r="K20">
-        <v>6.7</v>
-      </c>
-      <c r="L20">
-        <v>0.396</v>
-      </c>
-      <c r="M20">
-        <v>1.9</v>
-      </c>
-      <c r="N20">
-        <v>5</v>
-      </c>
-      <c r="O20">
-        <v>0.377</v>
-      </c>
-      <c r="P20">
-        <v>0.8</v>
-      </c>
-      <c r="Q20">
-        <v>1.7</v>
-      </c>
-      <c r="R20">
-        <v>0.449</v>
-      </c>
-      <c r="S20">
-        <v>0.5</v>
-      </c>
-      <c r="T20">
-        <v>0.8</v>
-      </c>
-      <c r="U20">
-        <v>0.695</v>
-      </c>
-      <c r="V20">
-        <v>1.6</v>
-      </c>
-      <c r="W20">
-        <v>4.6</v>
-      </c>
-      <c r="X20">
-        <v>6.2</v>
-      </c>
-      <c r="Y20">
-        <v>1.2</v>
-      </c>
-      <c r="Z20">
-        <v>1.7</v>
-      </c>
-      <c r="AA20">
-        <v>0.5</v>
-      </c>
-      <c r="AB20">
-        <v>0.8</v>
-      </c>
-      <c r="AC20">
-        <v>3.2</v>
-      </c>
-      <c r="AD20">
-        <v>7.7</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" t="s">
-        <v>77</v>
-      </c>
-      <c r="F21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21">
-        <v>11</v>
-      </c>
-      <c r="H21">
-        <v>11</v>
-      </c>
-      <c r="I21">
-        <v>426</v>
-      </c>
-      <c r="J21">
-        <v>3.4</v>
-      </c>
-      <c r="K21">
-        <v>7.4</v>
-      </c>
-      <c r="L21">
-        <v>0.455</v>
-      </c>
-      <c r="M21">
-        <v>2.2</v>
-      </c>
-      <c r="N21">
-        <v>4.8</v>
-      </c>
-      <c r="O21">
-        <v>0.456</v>
-      </c>
-      <c r="P21">
-        <v>1.2</v>
-      </c>
-      <c r="Q21">
-        <v>2.6</v>
-      </c>
-      <c r="R21">
-        <v>0.452</v>
-      </c>
-      <c r="S21">
-        <v>1.6</v>
-      </c>
-      <c r="T21">
-        <v>1.9</v>
-      </c>
-      <c r="U21">
-        <v>0.826</v>
-      </c>
-      <c r="V21">
-        <v>1.6</v>
-      </c>
-      <c r="W21">
-        <v>5.3</v>
-      </c>
-      <c r="X21">
-        <v>6.9</v>
-      </c>
-      <c r="Y21">
-        <v>1.6</v>
-      </c>
-      <c r="Z21">
-        <v>1.6</v>
-      </c>
-      <c r="AA21">
-        <v>0.7</v>
-      </c>
-      <c r="AB21">
-        <v>0.7</v>
-      </c>
-      <c r="AC21">
-        <v>3</v>
-      </c>
-      <c r="AD21">
-        <v>10.6</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="I22">
-        <v>-2376</v>
-      </c>
-      <c r="J22">
-        <v>0.6999999999999997</v>
-      </c>
-      <c r="K22">
-        <v>0.7000000000000002</v>
-      </c>
-      <c r="L22">
-        <v>0.059</v>
-      </c>
-      <c r="M22">
-        <v>0.3000000000000003</v>
-      </c>
-      <c r="N22">
-        <v>-0.2000000000000002</v>
-      </c>
-      <c r="O22">
-        <v>0.07900000000000001</v>
-      </c>
-      <c r="P22">
-        <v>0.3999999999999999</v>
-      </c>
-      <c r="Q22">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="R22">
-        <v>0.003000000000000003</v>
-      </c>
-      <c r="S22">
-        <v>1.1</v>
-      </c>
-      <c r="T22">
-        <v>1.1</v>
-      </c>
-      <c r="U22">
-        <v>0.131</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>0.7000000000000002</v>
-      </c>
-      <c r="X22">
-        <v>0.7000000000000002</v>
-      </c>
-      <c r="Y22">
-        <v>0.4000000000000001</v>
-      </c>
-      <c r="Z22">
-        <v>-0.09999999999999987</v>
-      </c>
-      <c r="AA22">
-        <v>0.2</v>
-      </c>
-      <c r="AB22">
-        <v>-0.1000000000000001</v>
-      </c>
-      <c r="AC22">
-        <v>-0.2000000000000002</v>
-      </c>
-      <c r="AD22">
-        <v>2.899999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" t="s">
-        <v>75</v>
-      </c>
-      <c r="E23" t="s">
-        <v>77</v>
-      </c>
-      <c r="F23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23">
-        <v>72</v>
-      </c>
-      <c r="H23">
-        <v>72</v>
-      </c>
-      <c r="I23">
-        <v>2467</v>
-      </c>
-      <c r="J23">
-        <v>2.6</v>
-      </c>
-      <c r="K23">
-        <v>6.2</v>
-      </c>
-      <c r="L23">
-        <v>0.415</v>
-      </c>
-      <c r="M23">
-        <v>1.6</v>
-      </c>
-      <c r="N23">
-        <v>4.4</v>
-      </c>
-      <c r="O23">
-        <v>0.358</v>
-      </c>
-      <c r="P23">
-        <v>1</v>
-      </c>
-      <c r="Q23">
-        <v>1.9</v>
-      </c>
-      <c r="R23">
-        <v>0.551</v>
-      </c>
-      <c r="S23">
-        <v>0.6</v>
-      </c>
-      <c r="T23">
-        <v>0.7</v>
-      </c>
-      <c r="U23">
-        <v>0.8129999999999999</v>
-      </c>
-      <c r="V23">
-        <v>1.6</v>
-      </c>
-      <c r="W23">
-        <v>5.3</v>
-      </c>
-      <c r="X23">
-        <v>6.9</v>
-      </c>
-      <c r="Y23">
-        <v>1.7</v>
-      </c>
-      <c r="Z23">
-        <v>1.1</v>
-      </c>
-      <c r="AA23">
-        <v>0.5</v>
-      </c>
-      <c r="AB23">
-        <v>1.1</v>
-      </c>
-      <c r="AC23">
-        <v>3.3</v>
-      </c>
-      <c r="AD23">
-        <v>7.3</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" t="s">
-        <v>75</v>
-      </c>
-      <c r="E24" t="s">
-        <v>77</v>
-      </c>
-      <c r="F24" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24">
-        <v>12</v>
-      </c>
-      <c r="H24">
-        <v>12</v>
-      </c>
-      <c r="I24">
-        <v>414</v>
-      </c>
-      <c r="J24">
-        <v>3</v>
-      </c>
-      <c r="K24">
-        <v>7.7</v>
-      </c>
-      <c r="L24">
-        <v>0.398</v>
-      </c>
-      <c r="M24">
-        <v>2.2</v>
-      </c>
-      <c r="N24">
-        <v>5.8</v>
-      </c>
-      <c r="O24">
-        <v>0.373</v>
-      </c>
-      <c r="P24">
-        <v>0.9</v>
-      </c>
-      <c r="Q24">
-        <v>1.8</v>
-      </c>
-      <c r="R24">
-        <v>0.476</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>2</v>
-      </c>
-      <c r="W24">
-        <v>5.5</v>
-      </c>
-      <c r="X24">
-        <v>7.5</v>
-      </c>
-      <c r="Y24">
-        <v>1.6</v>
-      </c>
-      <c r="Z24">
-        <v>1.1</v>
-      </c>
-      <c r="AA24">
-        <v>0.3</v>
-      </c>
-      <c r="AB24">
-        <v>1</v>
-      </c>
-      <c r="AC24">
-        <v>4.1</v>
-      </c>
-      <c r="AD24">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="I25">
-        <v>-2053</v>
-      </c>
-      <c r="J25">
-        <v>0.3999999999999999</v>
-      </c>
-      <c r="K25">
-        <v>1.5</v>
-      </c>
-      <c r="L25">
-        <v>-0.01700000000000002</v>
-      </c>
-      <c r="M25">
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="N25">
-        <v>1.399999999999999</v>
-      </c>
-      <c r="O25">
-        <v>0.01500000000000001</v>
-      </c>
-      <c r="P25">
-        <v>-0.09999999999999998</v>
-      </c>
-      <c r="Q25">
-        <v>-0.09999999999999987</v>
-      </c>
-      <c r="R25">
-        <v>-0.07500000000000001</v>
-      </c>
-      <c r="S25">
-        <v>-0.6</v>
-      </c>
-      <c r="T25">
-        <v>-0.7</v>
-      </c>
-      <c r="V25">
-        <v>0.3999999999999999</v>
-      </c>
-      <c r="W25">
-        <v>0.2000000000000002</v>
-      </c>
-      <c r="X25">
-        <v>0.5999999999999996</v>
-      </c>
-      <c r="Y25">
-        <v>-0.09999999999999987</v>
-      </c>
-      <c r="Z25">
-        <v>0</v>
-      </c>
-      <c r="AA25">
-        <v>-0.2</v>
-      </c>
-      <c r="AB25">
-        <v>-0.1000000000000001</v>
-      </c>
-      <c r="AC25">
-        <v>0.7999999999999998</v>
-      </c>
-      <c r="AD25">
-        <v>1.000000000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:31">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" t="s">
-        <v>74</v>
-      </c>
-      <c r="E26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26">
-        <v>47</v>
-      </c>
-      <c r="H26">
-        <v>33</v>
-      </c>
-      <c r="I26">
-        <v>1254</v>
-      </c>
-      <c r="J26">
-        <v>1.8</v>
-      </c>
-      <c r="K26">
-        <v>4.7</v>
-      </c>
-      <c r="L26">
-        <v>0.382</v>
-      </c>
-      <c r="M26">
-        <v>1.1</v>
-      </c>
-      <c r="N26">
-        <v>3.2</v>
-      </c>
-      <c r="O26">
-        <v>0.345</v>
-      </c>
-      <c r="P26">
-        <v>0.7</v>
-      </c>
-      <c r="Q26">
-        <v>1.6</v>
-      </c>
-      <c r="R26">
-        <v>0.455</v>
-      </c>
-      <c r="S26">
-        <v>0.5</v>
-      </c>
-      <c r="T26">
-        <v>0.7</v>
-      </c>
-      <c r="U26">
-        <v>0.75</v>
-      </c>
-      <c r="V26">
-        <v>1.4</v>
-      </c>
-      <c r="W26">
-        <v>4.1</v>
-      </c>
-      <c r="X26">
-        <v>5.5</v>
-      </c>
-      <c r="Y26">
-        <v>1.6</v>
-      </c>
-      <c r="Z26">
-        <v>1.1</v>
-      </c>
-      <c r="AA26">
-        <v>0.6</v>
-      </c>
-      <c r="AB26">
-        <v>1.1</v>
-      </c>
-      <c r="AC26">
-        <v>3.4</v>
-      </c>
-      <c r="AD26">
-        <v>5.2</v>
-      </c>
-      <c r="AE26" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" t="s">
-        <v>75</v>
-      </c>
-      <c r="E27" t="s">
-        <v>77</v>
-      </c>
-      <c r="F27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G27">
-        <v>32</v>
-      </c>
-      <c r="H27">
-        <v>32</v>
-      </c>
-      <c r="I27">
-        <v>959</v>
-      </c>
-      <c r="J27">
-        <v>1.8</v>
-      </c>
-      <c r="K27">
-        <v>4.9</v>
-      </c>
-      <c r="L27">
-        <v>0.366</v>
-      </c>
-      <c r="M27">
-        <v>1</v>
-      </c>
-      <c r="N27">
-        <v>3.2</v>
-      </c>
-      <c r="O27">
-        <v>0.314</v>
-      </c>
-      <c r="P27">
-        <v>0.8</v>
-      </c>
-      <c r="Q27">
-        <v>1.7</v>
-      </c>
-      <c r="R27">
-        <v>0.467</v>
-      </c>
-      <c r="S27">
-        <v>0.7</v>
-      </c>
-      <c r="T27">
-        <v>0.9</v>
-      </c>
-      <c r="U27">
-        <v>0.7829999999999999</v>
-      </c>
-      <c r="V27">
-        <v>1.2</v>
-      </c>
-      <c r="W27">
-        <v>4.3</v>
-      </c>
-      <c r="X27">
-        <v>5.6</v>
-      </c>
-      <c r="Y27">
-        <v>1.7</v>
-      </c>
-      <c r="Z27">
-        <v>1.1</v>
-      </c>
-      <c r="AA27">
-        <v>0.7</v>
-      </c>
-      <c r="AB27">
-        <v>1.2</v>
-      </c>
-      <c r="AC27">
-        <v>3.4</v>
-      </c>
-      <c r="AD27">
-        <v>5.3</v>
-      </c>
-      <c r="AE27" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:31">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" t="s">
-        <v>76</v>
-      </c>
-      <c r="E28" t="s">
-        <v>77</v>
-      </c>
-      <c r="F28" t="s">
-        <v>28</v>
-      </c>
-      <c r="G28">
-        <v>15</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28">
-        <v>295</v>
-      </c>
-      <c r="J28">
-        <v>1.8</v>
-      </c>
-      <c r="K28">
-        <v>4.1</v>
-      </c>
-      <c r="L28">
-        <v>0.441</v>
-      </c>
-      <c r="M28">
-        <v>1.3</v>
-      </c>
-      <c r="N28">
-        <v>2.9</v>
-      </c>
-      <c r="O28">
-        <v>0.458</v>
-      </c>
-      <c r="P28">
-        <v>0.5</v>
-      </c>
-      <c r="Q28">
-        <v>1.2</v>
-      </c>
-      <c r="R28">
-        <v>0.4</v>
-      </c>
-      <c r="S28">
-        <v>0</v>
-      </c>
-      <c r="T28">
-        <v>0.1</v>
-      </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
-      <c r="V28">
-        <v>2</v>
-      </c>
-      <c r="W28">
-        <v>3.5</v>
-      </c>
-      <c r="X28">
-        <v>5.5</v>
-      </c>
-      <c r="Y28">
-        <v>1.1</v>
-      </c>
-      <c r="Z28">
-        <v>1.1</v>
-      </c>
-      <c r="AA28">
-        <v>0.2</v>
-      </c>
-      <c r="AB28">
-        <v>0.7</v>
-      </c>
-      <c r="AC28">
-        <v>3.5</v>
-      </c>
-      <c r="AD28">
-        <v>5</v>
-      </c>
-      <c r="AE28" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:31">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" t="s">
-        <v>75</v>
-      </c>
-      <c r="E30" t="s">
-        <v>77</v>
-      </c>
-      <c r="G30">
-        <v>268</v>
-      </c>
-      <c r="H30">
-        <v>220</v>
-      </c>
-      <c r="I30">
-        <v>8509</v>
-      </c>
-      <c r="J30">
-        <v>2.6</v>
-      </c>
-      <c r="K30">
-        <v>6.4</v>
-      </c>
-      <c r="L30">
-        <v>0.397</v>
-      </c>
-      <c r="M30">
-        <v>1.7</v>
-      </c>
-      <c r="N30">
-        <v>4.6</v>
-      </c>
-      <c r="O30">
-        <v>0.365</v>
-      </c>
-      <c r="P30">
-        <v>0.9</v>
-      </c>
-      <c r="Q30">
-        <v>1.9</v>
-      </c>
-      <c r="R30">
-        <v>0.476</v>
-      </c>
-      <c r="S30">
-        <v>0.6</v>
-      </c>
-      <c r="T30">
-        <v>0.8</v>
-      </c>
-      <c r="U30">
-        <v>0.742</v>
-      </c>
-      <c r="V30">
-        <v>1.5</v>
-      </c>
-      <c r="W30">
-        <v>5.1</v>
-      </c>
-      <c r="X30">
-        <v>6.6</v>
-      </c>
-      <c r="Y30">
-        <v>1.4</v>
-      </c>
-      <c r="Z30">
-        <v>1.3</v>
-      </c>
-      <c r="AA30">
-        <v>0.5</v>
-      </c>
-      <c r="AB30">
-        <v>1</v>
-      </c>
-      <c r="AC30">
-        <v>3.3</v>
-      </c>
-      <c r="AD30">
-        <v>7.4</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" t="s">
-        <v>75</v>
-      </c>
-      <c r="E31" t="s">
-        <v>77</v>
-      </c>
-      <c r="G31">
-        <v>40</v>
-      </c>
-      <c r="H31">
-        <v>40</v>
-      </c>
-      <c r="I31">
-        <v>1409</v>
-      </c>
-      <c r="J31">
-        <v>3.2</v>
-      </c>
-      <c r="K31">
-        <v>7.3</v>
-      </c>
-      <c r="L31">
-        <v>0.447</v>
-      </c>
-      <c r="M31">
-        <v>2.2</v>
-      </c>
-      <c r="N31">
-        <v>5.1</v>
-      </c>
-      <c r="O31">
-        <v>0.4320000000000001</v>
-      </c>
-      <c r="P31">
-        <v>1</v>
-      </c>
-      <c r="Q31">
-        <v>2.2</v>
-      </c>
-      <c r="R31">
-        <v>0.482</v>
-      </c>
-      <c r="S31">
-        <v>0.8</v>
-      </c>
-      <c r="T31">
-        <v>1</v>
-      </c>
-      <c r="U31">
-        <v>0.7559999999999999</v>
-      </c>
-      <c r="V31">
-        <v>1.7</v>
-      </c>
-      <c r="W31">
-        <v>5.5</v>
-      </c>
-      <c r="X31">
-        <v>7.1</v>
-      </c>
-      <c r="Y31">
-        <v>1.5</v>
-      </c>
-      <c r="Z31">
-        <v>1.1</v>
-      </c>
-      <c r="AA31">
-        <v>0.6</v>
-      </c>
-      <c r="AB31">
-        <v>0.9</v>
-      </c>
-      <c r="AC31">
-        <v>3.3</v>
-      </c>
-      <c r="AD31">
-        <v>9.5</v>
-      </c>
-      <c r="AE31" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32" spans="1:31">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="I32">
-        <v>-7100</v>
-      </c>
-      <c r="J32">
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="K32">
-        <v>0.8999999999999995</v>
-      </c>
-      <c r="L32">
-        <v>0.04999999999999999</v>
-      </c>
-      <c r="M32">
-        <v>0.5000000000000002</v>
-      </c>
-      <c r="N32">
-        <v>0.5</v>
-      </c>
-      <c r="O32">
-        <v>0.06700000000000006</v>
-      </c>
-      <c r="P32">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="Q32">
-        <v>0.3000000000000003</v>
-      </c>
-      <c r="R32">
-        <v>0.006000000000000005</v>
-      </c>
-      <c r="S32">
-        <v>0.2000000000000001</v>
-      </c>
-      <c r="T32">
-        <v>0.2</v>
-      </c>
-      <c r="U32">
-        <v>0.0139999999999999</v>
-      </c>
-      <c r="V32">
-        <v>0.2</v>
-      </c>
-      <c r="W32">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="X32">
-        <v>0.5</v>
-      </c>
-      <c r="Y32">
-        <v>0.1000000000000001</v>
-      </c>
-      <c r="Z32">
-        <v>-0.2</v>
-      </c>
-      <c r="AA32">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="AB32">
-        <v>-0.09999999999999998</v>
-      </c>
-      <c r="AC32">
-        <v>0</v>
-      </c>
-      <c r="AD32">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:31">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33" t="s">
-        <v>76</v>
-      </c>
-      <c r="E33" t="s">
-        <v>77</v>
-      </c>
-      <c r="G33">
-        <v>15</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="I33">
-        <v>295</v>
-      </c>
-      <c r="J33">
-        <v>1.8</v>
-      </c>
-      <c r="K33">
-        <v>4.1</v>
-      </c>
-      <c r="L33">
-        <v>0.441</v>
-      </c>
-      <c r="M33">
-        <v>1.3</v>
-      </c>
-      <c r="N33">
-        <v>2.9</v>
-      </c>
-      <c r="O33">
-        <v>0.458</v>
-      </c>
-      <c r="P33">
-        <v>0.5</v>
-      </c>
-      <c r="Q33">
-        <v>1.2</v>
-      </c>
-      <c r="R33">
-        <v>0.4</v>
-      </c>
-      <c r="S33">
-        <v>0</v>
-      </c>
-      <c r="T33">
-        <v>0.1</v>
-      </c>
-      <c r="U33">
-        <v>0</v>
-      </c>
-      <c r="V33">
-        <v>2</v>
-      </c>
-      <c r="W33">
-        <v>3.5</v>
-      </c>
-      <c r="X33">
-        <v>5.5</v>
-      </c>
-      <c r="Y33">
-        <v>1.1</v>
-      </c>
-      <c r="Z33">
-        <v>1.1</v>
-      </c>
-      <c r="AA33">
-        <v>0.2</v>
-      </c>
-      <c r="AB33">
-        <v>0.7</v>
-      </c>
-      <c r="AC33">
-        <v>3.5</v>
-      </c>
-      <c r="AD33">
-        <v>5</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" spans="1:31">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:31">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35" t="s">
-        <v>73</v>
-      </c>
-      <c r="E35" t="s">
-        <v>77</v>
-      </c>
-      <c r="G35">
-        <v>377</v>
-      </c>
-      <c r="H35">
-        <v>286</v>
-      </c>
-      <c r="I35">
-        <v>10950</v>
-      </c>
-      <c r="J35">
-        <v>3.7</v>
-      </c>
-      <c r="K35">
-        <v>8.5</v>
-      </c>
-      <c r="L35">
-        <v>0.433</v>
-      </c>
-      <c r="M35">
-        <v>1</v>
-      </c>
-      <c r="N35">
-        <v>2.8</v>
-      </c>
-      <c r="O35">
-        <v>0.347</v>
-      </c>
-      <c r="P35">
-        <v>2.7</v>
-      </c>
-      <c r="Q35">
-        <v>5.7</v>
-      </c>
-      <c r="R35">
-        <v>0.475</v>
-      </c>
-      <c r="S35">
-        <v>1.6</v>
-      </c>
-      <c r="T35">
-        <v>2.1</v>
-      </c>
-      <c r="U35">
-        <v>0.757</v>
-      </c>
-      <c r="V35">
-        <v>2.2</v>
-      </c>
-      <c r="W35">
-        <v>5.2</v>
-      </c>
-      <c r="X35">
-        <v>7.3</v>
-      </c>
-      <c r="Y35">
-        <v>2</v>
-      </c>
-      <c r="Z35">
-        <v>1.5</v>
-      </c>
-      <c r="AA35">
-        <v>0.3</v>
-      </c>
-      <c r="AB35">
-        <v>1.4</v>
-      </c>
-      <c r="AC35">
-        <v>2.9</v>
-      </c>
-      <c r="AD35">
-        <v>10</v>
-      </c>
-      <c r="AE35" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:31">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:31">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>50</v>
-      </c>
-      <c r="D37" t="s">
-        <v>67</v>
-      </c>
-      <c r="E37" t="s">
-        <v>77</v>
-      </c>
-      <c r="G37">
-        <v>41</v>
-      </c>
-      <c r="H37">
-        <v>4</v>
-      </c>
-      <c r="I37">
-        <v>692</v>
-      </c>
-      <c r="J37">
-        <v>3.3</v>
-      </c>
-      <c r="K37">
-        <v>7.8</v>
-      </c>
-      <c r="L37">
-        <v>0.42</v>
-      </c>
-      <c r="M37">
-        <v>1.2</v>
-      </c>
-      <c r="N37">
-        <v>3.1</v>
-      </c>
-      <c r="O37">
-        <v>0.4</v>
-      </c>
-      <c r="P37">
-        <v>2</v>
-      </c>
-      <c r="Q37">
-        <v>4.7</v>
-      </c>
-      <c r="R37">
-        <v>0.433</v>
-      </c>
-      <c r="S37">
-        <v>1</v>
-      </c>
-      <c r="T37">
-        <v>1.6</v>
-      </c>
-      <c r="U37">
-        <v>0.633</v>
-      </c>
-      <c r="V37">
-        <v>1.8</v>
-      </c>
-      <c r="W37">
-        <v>6.1</v>
-      </c>
-      <c r="X37">
-        <v>7.9</v>
-      </c>
-      <c r="Y37">
-        <v>1.5</v>
-      </c>
-      <c r="Z37">
-        <v>1.7</v>
-      </c>
-      <c r="AA37">
-        <v>0.3</v>
-      </c>
-      <c r="AB37">
-        <v>1</v>
-      </c>
-      <c r="AC37">
-        <v>3.4</v>
-      </c>
-      <c r="AD37">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AE37" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="38" spans="1:31">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" t="s">
-        <v>67</v>
-      </c>
-      <c r="E38" t="s">
-        <v>77</v>
-      </c>
-      <c r="G38">
-        <v>10</v>
-      </c>
-      <c r="H38">
-        <v>1</v>
-      </c>
-      <c r="I38">
-        <v>251</v>
-      </c>
-      <c r="J38">
-        <v>2.6</v>
-      </c>
-      <c r="K38">
-        <v>7</v>
-      </c>
-      <c r="L38">
-        <v>0.367</v>
-      </c>
-      <c r="M38">
-        <v>1.3</v>
-      </c>
-      <c r="N38">
-        <v>4</v>
-      </c>
-      <c r="O38">
-        <v>0.321</v>
-      </c>
-      <c r="P38">
-        <v>1.3</v>
-      </c>
-      <c r="Q38">
-        <v>3</v>
-      </c>
-      <c r="R38">
-        <v>0.429</v>
-      </c>
-      <c r="S38">
-        <v>0.7</v>
-      </c>
-      <c r="T38">
-        <v>1.1</v>
-      </c>
-      <c r="U38">
-        <v>0.625</v>
-      </c>
-      <c r="V38">
-        <v>2.2</v>
-      </c>
-      <c r="W38">
-        <v>6</v>
-      </c>
-      <c r="X38">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="Y38">
-        <v>1.6</v>
-      </c>
-      <c r="Z38">
-        <v>0.9</v>
-      </c>
-      <c r="AA38">
-        <v>0.4</v>
-      </c>
-      <c r="AB38">
-        <v>1.1</v>
-      </c>
-      <c r="AC38">
-        <v>3.9</v>
-      </c>
-      <c r="AD38">
-        <v>7.2</v>
-      </c>
-      <c r="AE38" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="39" spans="1:31">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="I39">
-        <v>-441</v>
-      </c>
-      <c r="J39">
-        <v>-0.6999999999999997</v>
-      </c>
-      <c r="K39">
-        <v>-0.7999999999999998</v>
-      </c>
-      <c r="L39">
-        <v>-0.05299999999999994</v>
-      </c>
-      <c r="M39">
-        <v>0.1000000000000001</v>
-      </c>
-      <c r="N39">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="O39">
-        <v>-0.07900000000000001</v>
-      </c>
-      <c r="P39">
-        <v>-0.7</v>
-      </c>
-      <c r="Q39">
-        <v>-1.7</v>
-      </c>
-      <c r="R39">
-        <v>-0.004000000000000004</v>
-      </c>
-      <c r="S39">
-        <v>-0.3</v>
-      </c>
-      <c r="T39">
-        <v>-0.5</v>
-      </c>
-      <c r="U39">
-        <v>-0.008000000000000007</v>
-      </c>
-      <c r="V39">
-        <v>0.4000000000000001</v>
-      </c>
-      <c r="W39">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="X39">
-        <v>0.2999999999999989</v>
-      </c>
-      <c r="Y39">
-        <v>0.1000000000000001</v>
-      </c>
-      <c r="Z39">
-        <v>-0.7999999999999999</v>
-      </c>
-      <c r="AA39">
-        <v>0.1</v>
-      </c>
-      <c r="AB39">
-        <v>0.1000000000000001</v>
-      </c>
-      <c r="AC39">
-        <v>0.5</v>
-      </c>
-      <c r="AD39">
-        <v>-1.600000000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:31">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>51</v>
-      </c>
-      <c r="E40" t="s">
-        <v>77</v>
-      </c>
-      <c r="G40">
-        <v>701</v>
-      </c>
-      <c r="H40">
-        <v>511</v>
-      </c>
-      <c r="I40">
-        <v>20446</v>
-      </c>
-      <c r="J40">
-        <v>3.2</v>
-      </c>
-      <c r="K40">
-        <v>7.6</v>
-      </c>
-      <c r="L40">
-        <v>0.42</v>
-      </c>
-      <c r="M40">
-        <v>1.3</v>
-      </c>
-      <c r="N40">
-        <v>3.6</v>
-      </c>
-      <c r="O40">
-        <v>0.36</v>
-      </c>
-      <c r="P40">
-        <v>1.9</v>
-      </c>
-      <c r="Q40">
-        <v>4</v>
-      </c>
-      <c r="R40">
-        <v>0.473</v>
-      </c>
-      <c r="S40">
-        <v>1.1</v>
-      </c>
-      <c r="T40">
-        <v>1.5</v>
-      </c>
-      <c r="U40">
-        <v>0.748</v>
-      </c>
-      <c r="V40">
-        <v>1.9</v>
-      </c>
-      <c r="W40">
-        <v>5.1</v>
-      </c>
-      <c r="X40">
-        <v>7</v>
-      </c>
-      <c r="Y40">
-        <v>1.7</v>
-      </c>
-      <c r="Z40">
-        <v>1.5</v>
-      </c>
-      <c r="AA40">
-        <v>0.4</v>
-      </c>
-      <c r="AB40">
-        <v>1.2</v>
-      </c>
-      <c r="AC40">
-        <v>3.1</v>
-      </c>
-      <c r="AD40">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AE40" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" spans="1:31">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>51</v>
-      </c>
-      <c r="E41" t="s">
-        <v>77</v>
-      </c>
-      <c r="G41">
-        <v>50</v>
-      </c>
-      <c r="H41">
-        <v>41</v>
-      </c>
-      <c r="I41">
-        <v>1660</v>
-      </c>
-      <c r="J41">
-        <v>3.1</v>
-      </c>
-      <c r="K41">
-        <v>7.2</v>
-      </c>
-      <c r="L41">
-        <v>0.435</v>
-      </c>
-      <c r="M41">
-        <v>2.1</v>
-      </c>
-      <c r="N41">
-        <v>4.9</v>
-      </c>
-      <c r="O41">
-        <v>0.419</v>
-      </c>
-      <c r="P41">
-        <v>1.1</v>
-      </c>
-      <c r="Q41">
-        <v>2.3</v>
-      </c>
-      <c r="R41">
-        <v>0.472</v>
-      </c>
-      <c r="S41">
-        <v>0.8</v>
-      </c>
-      <c r="T41">
-        <v>1.1</v>
-      </c>
-      <c r="U41">
-        <v>0.735</v>
-      </c>
-      <c r="V41">
-        <v>1.7</v>
-      </c>
-      <c r="W41">
-        <v>5.6</v>
-      </c>
-      <c r="X41">
-        <v>7.3</v>
-      </c>
-      <c r="Y41">
-        <v>1.5</v>
-      </c>
-      <c r="Z41">
-        <v>1.1</v>
-      </c>
-      <c r="AA41">
-        <v>0.6</v>
-      </c>
-      <c r="AB41">
-        <v>0.9</v>
-      </c>
-      <c r="AC41">
-        <v>3.4</v>
-      </c>
-      <c r="AD41">
-        <v>9.1</v>
-      </c>
-      <c r="AE41" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" spans="1:31">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="I42">
-        <v>-18786</v>
-      </c>
-      <c r="J42">
-        <v>-0.1000000000000001</v>
-      </c>
-      <c r="K42">
-        <v>-0.3999999999999995</v>
-      </c>
-      <c r="L42">
-        <v>0.01500000000000001</v>
-      </c>
-      <c r="M42">
-        <v>0.8</v>
-      </c>
-      <c r="N42">
-        <v>1.3</v>
-      </c>
-      <c r="O42">
-        <v>0.059</v>
-      </c>
-      <c r="P42">
-        <v>-0.7999999999999998</v>
-      </c>
-      <c r="Q42">
-        <v>-1.7</v>
-      </c>
-      <c r="R42">
-        <v>-0.0009999999999999454</v>
-      </c>
-      <c r="S42">
-        <v>-0.3</v>
-      </c>
-      <c r="T42">
-        <v>-0.3999999999999999</v>
-      </c>
-      <c r="U42">
-        <v>-0.01300000000000001</v>
-      </c>
-      <c r="V42">
-        <v>-0.2</v>
-      </c>
-      <c r="W42">
-        <v>0.5</v>
-      </c>
-      <c r="X42">
-        <v>0.2999999999999998</v>
-      </c>
-      <c r="Y42">
-        <v>-0.2</v>
-      </c>
-      <c r="Z42">
-        <v>-0.3999999999999999</v>
-      </c>
-      <c r="AA42">
-        <v>0.2</v>
-      </c>
-      <c r="AB42">
-        <v>-0.2999999999999999</v>
-      </c>
-      <c r="AC42">
-        <v>0.2999999999999998</v>
-      </c>
-      <c r="AD42">
-        <v>0.2999999999999989</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH42"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:34">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2">
-        <v>17</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>83</v>
-      </c>
-      <c r="J2">
-        <v>6.9</v>
-      </c>
-      <c r="K2">
-        <v>13.7</v>
-      </c>
-      <c r="L2">
-        <v>0.5</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>6.9</v>
-      </c>
-      <c r="Q2">
-        <v>13.7</v>
-      </c>
-      <c r="R2">
-        <v>0.5</v>
-      </c>
-      <c r="S2">
-        <v>5</v>
-      </c>
-      <c r="T2">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="U2">
-        <v>0.5710000000000001</v>
-      </c>
-      <c r="V2">
-        <v>6.9</v>
-      </c>
-      <c r="W2">
-        <v>7.5</v>
-      </c>
-      <c r="X2">
-        <v>14.4</v>
-      </c>
-      <c r="Y2">
-        <v>1.9</v>
-      </c>
-      <c r="Z2">
-        <v>1.2</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>3.7</v>
-      </c>
-      <c r="AC2">
-        <v>7.5</v>
-      </c>
-      <c r="AD2">
-        <v>18.7</v>
-      </c>
-      <c r="AF2">
-        <v>104</v>
-      </c>
-      <c r="AG2">
-        <v>107</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G4">
-        <v>79</v>
-      </c>
-      <c r="H4">
-        <v>45</v>
-      </c>
-      <c r="I4">
-        <v>1910</v>
-      </c>
-      <c r="J4">
-        <v>5.6</v>
-      </c>
-      <c r="K4">
-        <v>11.9</v>
-      </c>
-      <c r="L4">
-        <v>0.473</v>
-      </c>
-      <c r="M4">
-        <v>0.6</v>
-      </c>
-      <c r="N4">
-        <v>1.9</v>
-      </c>
-      <c r="O4">
-        <v>0.314</v>
-      </c>
-      <c r="P4">
-        <v>5.1</v>
-      </c>
-      <c r="Q4">
-        <v>10.1</v>
-      </c>
-      <c r="R4">
-        <v>0.503</v>
-      </c>
-      <c r="S4">
-        <v>1.7</v>
-      </c>
-      <c r="T4">
-        <v>2.3</v>
-      </c>
-      <c r="U4">
-        <v>0.7440000000000001</v>
-      </c>
-      <c r="V4">
-        <v>3.5</v>
-      </c>
-      <c r="W4">
-        <v>5.9</v>
-      </c>
-      <c r="X4">
-        <v>9.4</v>
-      </c>
-      <c r="Y4">
-        <v>2.9</v>
-      </c>
-      <c r="Z4">
-        <v>1.7</v>
-      </c>
-      <c r="AA4">
-        <v>0.5</v>
-      </c>
-      <c r="AB4">
-        <v>1.8</v>
-      </c>
-      <c r="AC4">
-        <v>3.9</v>
-      </c>
-      <c r="AD4">
-        <v>13.6</v>
-      </c>
-      <c r="AF4">
-        <v>109</v>
-      </c>
-      <c r="AG4">
-        <v>109</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G6">
-        <v>81</v>
-      </c>
-      <c r="H6">
-        <v>81</v>
-      </c>
-      <c r="I6">
-        <v>2490</v>
-      </c>
-      <c r="J6">
-        <v>5.3</v>
-      </c>
-      <c r="K6">
-        <v>12.4</v>
-      </c>
-      <c r="L6">
-        <v>0.431</v>
-      </c>
-      <c r="M6">
-        <v>1.5</v>
-      </c>
-      <c r="N6">
-        <v>3.8</v>
-      </c>
-      <c r="O6">
-        <v>0.387</v>
-      </c>
-      <c r="P6">
-        <v>3.8</v>
-      </c>
-      <c r="Q6">
-        <v>8.5</v>
-      </c>
-      <c r="R6">
-        <v>0.45</v>
-      </c>
-      <c r="S6">
-        <v>3.1</v>
-      </c>
-      <c r="T6">
-        <v>4</v>
-      </c>
-      <c r="U6">
-        <v>0.7759999999999999</v>
-      </c>
-      <c r="V6">
-        <v>3.2</v>
-      </c>
-      <c r="W6">
-        <v>7.4</v>
-      </c>
-      <c r="X6">
-        <v>10.6</v>
-      </c>
-      <c r="Y6">
-        <v>2.8</v>
-      </c>
-      <c r="Z6">
-        <v>2.2</v>
-      </c>
-      <c r="AA6">
-        <v>0.5</v>
-      </c>
-      <c r="AB6">
-        <v>2.1</v>
-      </c>
-      <c r="AC6">
-        <v>4.1</v>
-      </c>
-      <c r="AD6">
-        <v>15.3</v>
-      </c>
-      <c r="AF6">
-        <v>113</v>
-      </c>
-      <c r="AG6">
-        <v>106</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E8" t="s">
-        <v>77</v>
-      </c>
-      <c r="F8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G8">
-        <v>78</v>
-      </c>
-      <c r="H8">
-        <v>63</v>
-      </c>
-      <c r="I8">
-        <v>2383</v>
-      </c>
-      <c r="J8">
-        <v>5.5</v>
-      </c>
-      <c r="K8">
-        <v>12.5</v>
-      </c>
-      <c r="L8">
-        <v>0.4379999999999999</v>
-      </c>
-      <c r="M8">
-        <v>1.8</v>
-      </c>
-      <c r="N8">
-        <v>5.3</v>
-      </c>
-      <c r="O8">
-        <v>0.345</v>
-      </c>
-      <c r="P8">
-        <v>3.6</v>
-      </c>
-      <c r="Q8">
-        <v>7.2</v>
-      </c>
-      <c r="R8">
-        <v>0.506</v>
-      </c>
-      <c r="S8">
-        <v>2.2</v>
-      </c>
-      <c r="T8">
-        <v>3</v>
-      </c>
-      <c r="U8">
-        <v>0.727</v>
-      </c>
-      <c r="V8">
-        <v>2.4</v>
-      </c>
-      <c r="W8">
-        <v>8.1</v>
-      </c>
-      <c r="X8">
-        <v>10.5</v>
-      </c>
-      <c r="Y8">
-        <v>2.6</v>
-      </c>
-      <c r="Z8">
-        <v>2.2</v>
-      </c>
-      <c r="AA8">
-        <v>0.5</v>
-      </c>
-      <c r="AB8">
-        <v>2</v>
-      </c>
-      <c r="AC8">
-        <v>3.7</v>
-      </c>
-      <c r="AD8">
-        <v>14.9</v>
-      </c>
-      <c r="AF8">
-        <v>108</v>
-      </c>
-      <c r="AG8">
-        <v>105</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" t="s">
-        <v>77</v>
-      </c>
-      <c r="F10" t="s">
-        <v>78</v>
-      </c>
-      <c r="G10">
-        <v>82</v>
-      </c>
-      <c r="H10">
-        <v>80</v>
-      </c>
-      <c r="I10">
-        <v>2540</v>
-      </c>
-      <c r="J10">
-        <v>4.6</v>
-      </c>
-      <c r="K10">
-        <v>11.2</v>
-      </c>
-      <c r="L10">
-        <v>0.411</v>
-      </c>
-      <c r="M10">
-        <v>1.3</v>
-      </c>
-      <c r="N10">
-        <v>4</v>
-      </c>
-      <c r="O10">
-        <v>0.33</v>
-      </c>
-      <c r="P10">
-        <v>3.3</v>
-      </c>
-      <c r="Q10">
-        <v>7.2</v>
-      </c>
-      <c r="R10">
-        <v>0.455</v>
-      </c>
-      <c r="S10">
-        <v>2</v>
-      </c>
-      <c r="T10">
-        <v>2.7</v>
-      </c>
-      <c r="U10">
-        <v>0.746</v>
-      </c>
-      <c r="V10">
-        <v>3.2</v>
-      </c>
-      <c r="W10">
-        <v>6.7</v>
-      </c>
-      <c r="X10">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Y10">
-        <v>3.4</v>
-      </c>
-      <c r="Z10">
-        <v>2</v>
-      </c>
-      <c r="AA10">
-        <v>0.4</v>
-      </c>
-      <c r="AB10">
-        <v>2.1</v>
-      </c>
-      <c r="AC10">
-        <v>3.9</v>
-      </c>
-      <c r="AD10">
-        <v>12.5</v>
-      </c>
-      <c r="AF10">
-        <v>105</v>
-      </c>
-      <c r="AG10">
-        <v>109</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F12" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12">
-        <v>81</v>
-      </c>
-      <c r="H12">
-        <v>21</v>
-      </c>
-      <c r="I12">
-        <v>2236</v>
-      </c>
-      <c r="J12">
-        <v>4.3</v>
-      </c>
-      <c r="K12">
-        <v>10.5</v>
-      </c>
-      <c r="L12">
-        <v>0.413</v>
-      </c>
-      <c r="M12">
-        <v>1.5</v>
-      </c>
-      <c r="N12">
-        <v>4.3</v>
-      </c>
-      <c r="O12">
-        <v>0.357</v>
-      </c>
-      <c r="P12">
-        <v>2.8</v>
-      </c>
-      <c r="Q12">
-        <v>6.2</v>
-      </c>
-      <c r="R12">
-        <v>0.451</v>
-      </c>
-      <c r="S12">
-        <v>1.6</v>
-      </c>
-      <c r="T12">
-        <v>2</v>
-      </c>
-      <c r="U12">
-        <v>0.774</v>
-      </c>
-      <c r="V12">
-        <v>2.5</v>
-      </c>
-      <c r="W12">
-        <v>7.7</v>
-      </c>
-      <c r="X12">
-        <v>10.2</v>
-      </c>
-      <c r="Y12">
-        <v>2.2</v>
-      </c>
-      <c r="Z12">
-        <v>2.5</v>
-      </c>
-      <c r="AA12">
-        <v>0.4</v>
-      </c>
-      <c r="AB12">
-        <v>1.4</v>
-      </c>
-      <c r="AC12">
-        <v>4.3</v>
-      </c>
-      <c r="AD12">
-        <v>11.7</v>
-      </c>
-      <c r="AF12">
-        <v>109</v>
-      </c>
-      <c r="AG12">
-        <v>109</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" t="s">
-        <v>73</v>
-      </c>
-      <c r="E13" t="s">
-        <v>77</v>
-      </c>
-      <c r="F13" t="s">
-        <v>78</v>
-      </c>
-      <c r="G13">
-        <v>57</v>
-      </c>
-      <c r="H13">
-        <v>17</v>
-      </c>
-      <c r="I13">
-        <v>1627</v>
-      </c>
-      <c r="J13">
-        <v>4.3</v>
-      </c>
-      <c r="K13">
-        <v>10.4</v>
-      </c>
-      <c r="L13">
-        <v>0.415</v>
-      </c>
-      <c r="M13">
-        <v>1.4</v>
-      </c>
-      <c r="N13">
-        <v>4</v>
-      </c>
-      <c r="O13">
-        <v>0.338</v>
-      </c>
-      <c r="P13">
-        <v>3</v>
-      </c>
-      <c r="Q13">
-        <v>6.4</v>
-      </c>
-      <c r="R13">
-        <v>0.463</v>
-      </c>
-      <c r="S13">
-        <v>1.8</v>
-      </c>
-      <c r="T13">
-        <v>2.3</v>
-      </c>
-      <c r="U13">
-        <v>0.792</v>
-      </c>
-      <c r="V13">
-        <v>2.8</v>
-      </c>
-      <c r="W13">
-        <v>7.3</v>
-      </c>
-      <c r="X13">
-        <v>10.1</v>
-      </c>
-      <c r="Y13">
-        <v>2.1</v>
-      </c>
-      <c r="Z13">
-        <v>2.5</v>
-      </c>
-      <c r="AA13">
-        <v>0.4</v>
-      </c>
-      <c r="AB13">
-        <v>1.5</v>
-      </c>
-      <c r="AC13">
-        <v>4.2</v>
-      </c>
-      <c r="AD13">
-        <v>11.8</v>
-      </c>
-      <c r="AF13">
-        <v>109</v>
-      </c>
-      <c r="AG13">
-        <v>111</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" t="s">
-        <v>77</v>
-      </c>
-      <c r="F14" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14">
-        <v>24</v>
-      </c>
-      <c r="H14">
-        <v>4</v>
-      </c>
-      <c r="I14">
-        <v>609</v>
-      </c>
-      <c r="J14">
-        <v>4.3</v>
-      </c>
-      <c r="K14">
-        <v>10.7</v>
-      </c>
-      <c r="L14">
-        <v>0.406</v>
-      </c>
-      <c r="M14">
-        <v>2</v>
-      </c>
-      <c r="N14">
-        <v>5</v>
-      </c>
-      <c r="O14">
-        <v>0.4</v>
-      </c>
-      <c r="P14">
-        <v>2.3</v>
-      </c>
-      <c r="Q14">
-        <v>5.7</v>
-      </c>
-      <c r="R14">
-        <v>0.412</v>
-      </c>
-      <c r="S14">
-        <v>0.9</v>
-      </c>
-      <c r="T14">
-        <v>1.3</v>
-      </c>
-      <c r="U14">
-        <v>0.6879999999999999</v>
-      </c>
-      <c r="V14">
-        <v>1.9</v>
-      </c>
-      <c r="W14">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="X14">
-        <v>10.7</v>
-      </c>
-      <c r="Y14">
-        <v>2.2</v>
-      </c>
-      <c r="Z14">
-        <v>2.6</v>
-      </c>
-      <c r="AA14">
-        <v>0.4</v>
-      </c>
-      <c r="AB14">
-        <v>1.2</v>
-      </c>
-      <c r="AC14">
-        <v>4.4</v>
-      </c>
-      <c r="AD14">
-        <v>11.6</v>
-      </c>
-      <c r="AF14">
-        <v>110</v>
-      </c>
-      <c r="AG14">
-        <v>106</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" t="s">
-        <v>77</v>
-      </c>
-      <c r="F15" t="s">
-        <v>78</v>
-      </c>
-      <c r="G15">
-        <v>10</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>251</v>
-      </c>
-      <c r="J15">
-        <v>3.7</v>
-      </c>
-      <c r="K15">
-        <v>10.1</v>
-      </c>
-      <c r="L15">
-        <v>0.367</v>
-      </c>
-      <c r="M15">
-        <v>1.8</v>
-      </c>
-      <c r="N15">
-        <v>5.7</v>
-      </c>
-      <c r="O15">
-        <v>0.321</v>
-      </c>
-      <c r="P15">
-        <v>1.8</v>
-      </c>
-      <c r="Q15">
-        <v>4.3</v>
-      </c>
-      <c r="R15">
-        <v>0.429</v>
-      </c>
-      <c r="S15">
-        <v>1</v>
-      </c>
-      <c r="T15">
-        <v>1.6</v>
-      </c>
-      <c r="U15">
-        <v>0.625</v>
-      </c>
-      <c r="V15">
-        <v>3.1</v>
-      </c>
-      <c r="W15">
-        <v>8.6</v>
-      </c>
-      <c r="X15">
-        <v>11.7</v>
-      </c>
-      <c r="Y15">
-        <v>2.3</v>
-      </c>
-      <c r="Z15">
-        <v>1.2</v>
-      </c>
-      <c r="AA15">
-        <v>0.6</v>
-      </c>
-      <c r="AB15">
-        <v>1.6</v>
-      </c>
-      <c r="AC15">
-        <v>5.5</v>
-      </c>
-      <c r="AD15">
-        <v>10.3</v>
-      </c>
-      <c r="AF15">
-        <v>100</v>
-      </c>
-      <c r="AG15">
-        <v>111</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="I16">
-        <v>-1985</v>
-      </c>
-      <c r="J16">
-        <v>-0.5999999999999996</v>
-      </c>
-      <c r="K16">
-        <v>-0.4000000000000004</v>
-      </c>
-      <c r="L16">
-        <v>-0.04599999999999993</v>
-      </c>
-      <c r="M16">
-        <v>0.3</v>
-      </c>
-      <c r="N16">
-        <v>1.4</v>
-      </c>
-      <c r="O16">
-        <v>-0.03600000000000003</v>
-      </c>
-      <c r="P16">
-        <v>-0.9999999999999998</v>
-      </c>
-      <c r="Q16">
-        <v>-1.9</v>
-      </c>
-      <c r="R16">
-        <v>-0.02200000000000002</v>
-      </c>
-      <c r="S16">
-        <v>-0.6000000000000001</v>
-      </c>
-      <c r="T16">
-        <v>-0.3999999999999999</v>
-      </c>
-      <c r="U16">
-        <v>-0.149</v>
-      </c>
-      <c r="V16">
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="W16">
-        <v>0.8999999999999995</v>
-      </c>
-      <c r="X16">
-        <v>1.5</v>
-      </c>
-      <c r="Y16">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="Z16">
-        <v>-1.3</v>
-      </c>
-      <c r="AA16">
-        <v>0.2</v>
-      </c>
-      <c r="AB16">
-        <v>0.2000000000000002</v>
-      </c>
-      <c r="AC16">
-        <v>1.2</v>
-      </c>
-      <c r="AD16">
-        <v>-1.399999999999999</v>
-      </c>
-      <c r="AF16">
-        <v>-9</v>
-      </c>
-      <c r="AG16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" t="s">
-        <v>77</v>
-      </c>
-      <c r="F17" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17">
-        <v>82</v>
-      </c>
-      <c r="H17">
-        <v>34</v>
-      </c>
-      <c r="I17">
-        <v>2281</v>
-      </c>
-      <c r="J17">
-        <v>3.7</v>
-      </c>
-      <c r="K17">
-        <v>9.5</v>
-      </c>
-      <c r="L17">
-        <v>0.39</v>
-      </c>
-      <c r="M17">
-        <v>2.5</v>
-      </c>
-      <c r="N17">
-        <v>6.7</v>
-      </c>
-      <c r="O17">
-        <v>0.371</v>
-      </c>
-      <c r="P17">
-        <v>1.2</v>
-      </c>
-      <c r="Q17">
-        <v>2.8</v>
-      </c>
-      <c r="R17">
-        <v>0.435</v>
-      </c>
-      <c r="S17">
-        <v>0.9</v>
-      </c>
-      <c r="T17">
-        <v>1.3</v>
-      </c>
-      <c r="U17">
-        <v>0.7170000000000001</v>
-      </c>
-      <c r="V17">
-        <v>2</v>
-      </c>
-      <c r="W17">
-        <v>7.9</v>
-      </c>
-      <c r="X17">
-        <v>9.9</v>
-      </c>
-      <c r="Y17">
-        <v>1.7</v>
-      </c>
-      <c r="Z17">
-        <v>1.7</v>
-      </c>
-      <c r="AA17">
-        <v>0.6</v>
-      </c>
-      <c r="AB17">
-        <v>1.6</v>
-      </c>
-      <c r="AC17">
-        <v>4.4</v>
-      </c>
-      <c r="AD17">
-        <v>10.8</v>
-      </c>
-      <c r="AF17">
-        <v>107</v>
-      </c>
-      <c r="AG17">
-        <v>106</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" t="s">
-        <v>75</v>
-      </c>
-      <c r="E18" t="s">
-        <v>77</v>
-      </c>
-      <c r="F18" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18">
-        <v>17</v>
-      </c>
-      <c r="H18">
-        <v>17</v>
-      </c>
-      <c r="I18">
-        <v>569</v>
-      </c>
-      <c r="J18">
-        <v>4.6</v>
-      </c>
-      <c r="K18">
-        <v>9.5</v>
-      </c>
-      <c r="L18">
-        <v>0.481</v>
-      </c>
-      <c r="M18">
-        <v>3.1</v>
-      </c>
-      <c r="N18">
-        <v>6.6</v>
-      </c>
-      <c r="O18">
-        <v>0.467</v>
-      </c>
-      <c r="P18">
-        <v>1.5</v>
-      </c>
-      <c r="Q18">
-        <v>2.9</v>
-      </c>
-      <c r="R18">
-        <v>0.515</v>
-      </c>
-      <c r="S18">
-        <v>1.1</v>
-      </c>
-      <c r="T18">
-        <v>1.6</v>
-      </c>
-      <c r="U18">
-        <v>0.667</v>
-      </c>
-      <c r="V18">
-        <v>2</v>
-      </c>
-      <c r="W18">
-        <v>7.8</v>
-      </c>
-      <c r="X18">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Y18">
-        <v>1.9</v>
-      </c>
-      <c r="Z18">
-        <v>1</v>
-      </c>
-      <c r="AA18">
-        <v>1.1</v>
-      </c>
-      <c r="AB18">
-        <v>1.2</v>
-      </c>
-      <c r="AC18">
-        <v>4.1</v>
-      </c>
-      <c r="AD18">
-        <v>13.3</v>
-      </c>
-      <c r="AF18">
-        <v>126</v>
-      </c>
-      <c r="AG18">
-        <v>109</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="I19">
-        <v>-1712</v>
-      </c>
-      <c r="J19">
-        <v>0.8999999999999995</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0.09100000000000003</v>
-      </c>
-      <c r="M19">
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="N19">
-        <v>-0.1000000000000005</v>
-      </c>
-      <c r="O19">
-        <v>0.09600000000000003</v>
-      </c>
-      <c r="P19">
-        <v>0.3</v>
-      </c>
-      <c r="Q19">
-        <v>0.1000000000000001</v>
-      </c>
-      <c r="R19">
-        <v>0.08000000000000002</v>
-      </c>
-      <c r="S19">
-        <v>0.2000000000000001</v>
-      </c>
-      <c r="T19">
-        <v>0.3</v>
-      </c>
-      <c r="U19">
-        <v>-0.05000000000000004</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>-0.1000000000000005</v>
-      </c>
-      <c r="X19">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="Y19">
-        <v>0.2</v>
-      </c>
-      <c r="Z19">
-        <v>-0.7</v>
-      </c>
-      <c r="AA19">
-        <v>0.5000000000000001</v>
-      </c>
-      <c r="AB19">
-        <v>-0.4000000000000001</v>
-      </c>
-      <c r="AC19">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="AD19">
-        <v>2.5</v>
-      </c>
-      <c r="AF19">
-        <v>19</v>
-      </c>
-      <c r="AG19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" t="s">
-        <v>77</v>
-      </c>
-      <c r="F20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20">
-        <v>82</v>
-      </c>
-      <c r="H20">
-        <v>82</v>
-      </c>
-      <c r="I20">
-        <v>2802</v>
-      </c>
-      <c r="J20">
-        <v>3.6</v>
-      </c>
-      <c r="K20">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="L20">
-        <v>0.396</v>
-      </c>
-      <c r="M20">
-        <v>2.6</v>
-      </c>
-      <c r="N20">
-        <v>6.8</v>
-      </c>
-      <c r="O20">
-        <v>0.377</v>
-      </c>
-      <c r="P20">
-        <v>1.1</v>
-      </c>
-      <c r="Q20">
-        <v>2.4</v>
-      </c>
-      <c r="R20">
-        <v>0.449</v>
-      </c>
-      <c r="S20">
-        <v>0.7</v>
-      </c>
-      <c r="T20">
-        <v>1</v>
-      </c>
-      <c r="U20">
-        <v>0.695</v>
-      </c>
-      <c r="V20">
-        <v>2.1</v>
-      </c>
-      <c r="W20">
-        <v>6.3</v>
-      </c>
-      <c r="X20">
-        <v>8.4</v>
-      </c>
-      <c r="Y20">
-        <v>1.7</v>
-      </c>
-      <c r="Z20">
-        <v>2.3</v>
-      </c>
-      <c r="AA20">
-        <v>0.7</v>
-      </c>
-      <c r="AB20">
-        <v>1.1</v>
-      </c>
-      <c r="AC20">
-        <v>4.4</v>
-      </c>
-      <c r="AD20">
-        <v>10.5</v>
-      </c>
-      <c r="AF20">
-        <v>114</v>
-      </c>
-      <c r="AG20">
-        <v>110</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:34">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" t="s">
-        <v>77</v>
-      </c>
-      <c r="F21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21">
-        <v>11</v>
-      </c>
-      <c r="H21">
-        <v>11</v>
-      </c>
-      <c r="I21">
-        <v>426</v>
-      </c>
-      <c r="J21">
-        <v>4.6</v>
-      </c>
-      <c r="K21">
-        <v>10.2</v>
-      </c>
-      <c r="L21">
-        <v>0.455</v>
-      </c>
-      <c r="M21">
-        <v>3</v>
-      </c>
-      <c r="N21">
-        <v>6.6</v>
-      </c>
-      <c r="O21">
-        <v>0.456</v>
-      </c>
-      <c r="P21">
-        <v>1.6</v>
-      </c>
-      <c r="Q21">
-        <v>3.6</v>
-      </c>
-      <c r="R21">
-        <v>0.452</v>
-      </c>
-      <c r="S21">
-        <v>2.2</v>
-      </c>
-      <c r="T21">
-        <v>2.7</v>
-      </c>
-      <c r="U21">
-        <v>0.826</v>
-      </c>
-      <c r="V21">
-        <v>2.2</v>
-      </c>
-      <c r="W21">
-        <v>7.3</v>
-      </c>
-      <c r="X21">
-        <v>9.5</v>
-      </c>
-      <c r="Y21">
-        <v>2.2</v>
-      </c>
-      <c r="Z21">
-        <v>2.2</v>
-      </c>
-      <c r="AA21">
-        <v>0.9</v>
-      </c>
-      <c r="AB21">
-        <v>0.9</v>
-      </c>
-      <c r="AC21">
-        <v>4.1</v>
-      </c>
-      <c r="AD21">
-        <v>14.5</v>
-      </c>
-      <c r="AF21">
-        <v>133</v>
-      </c>
-      <c r="AG21">
-        <v>107</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:34">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="I22">
-        <v>-2376</v>
-      </c>
-      <c r="J22">
-        <v>0.9999999999999996</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>0.059</v>
-      </c>
-      <c r="M22">
-        <v>0.3999999999999999</v>
-      </c>
-      <c r="N22">
-        <v>-0.2000000000000002</v>
-      </c>
-      <c r="O22">
-        <v>0.07900000000000001</v>
-      </c>
-      <c r="P22">
-        <v>0.5</v>
-      </c>
-      <c r="Q22">
-        <v>1.2</v>
-      </c>
-      <c r="R22">
-        <v>0.003000000000000003</v>
-      </c>
-      <c r="S22">
-        <v>1.5</v>
-      </c>
-      <c r="T22">
-        <v>1.7</v>
-      </c>
-      <c r="U22">
-        <v>0.131</v>
-      </c>
-      <c r="V22">
-        <v>0.1000000000000001</v>
-      </c>
-      <c r="W22">
-        <v>1</v>
-      </c>
-      <c r="X22">
-        <v>1.1</v>
-      </c>
-      <c r="Y22">
-        <v>0.5000000000000002</v>
-      </c>
-      <c r="Z22">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="AA22">
-        <v>0.2000000000000001</v>
-      </c>
-      <c r="AB22">
-        <v>-0.2000000000000001</v>
-      </c>
-      <c r="AC22">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="AD22">
-        <v>4</v>
-      </c>
-      <c r="AF22">
-        <v>19</v>
-      </c>
-      <c r="AG22">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:34">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" t="s">
-        <v>75</v>
-      </c>
-      <c r="E23" t="s">
-        <v>77</v>
-      </c>
-      <c r="F23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23">
-        <v>72</v>
-      </c>
-      <c r="H23">
-        <v>72</v>
-      </c>
-      <c r="I23">
-        <v>2467</v>
-      </c>
-      <c r="J23">
-        <v>3.3</v>
-      </c>
-      <c r="K23">
-        <v>8</v>
-      </c>
-      <c r="L23">
-        <v>0.415</v>
-      </c>
-      <c r="M23">
-        <v>2</v>
-      </c>
-      <c r="N23">
-        <v>5.6</v>
-      </c>
-      <c r="O23">
-        <v>0.358</v>
-      </c>
-      <c r="P23">
-        <v>1.3</v>
-      </c>
-      <c r="Q23">
-        <v>2.4</v>
-      </c>
-      <c r="R23">
-        <v>0.551</v>
-      </c>
-      <c r="S23">
-        <v>0.7</v>
-      </c>
-      <c r="T23">
-        <v>0.9</v>
-      </c>
-      <c r="U23">
-        <v>0.8129999999999999</v>
-      </c>
-      <c r="V23">
-        <v>2.1</v>
-      </c>
-      <c r="W23">
-        <v>6.8</v>
-      </c>
-      <c r="X23">
-        <v>8.9</v>
-      </c>
-      <c r="Y23">
-        <v>2.2</v>
-      </c>
-      <c r="Z23">
-        <v>1.4</v>
-      </c>
-      <c r="AA23">
-        <v>0.7</v>
-      </c>
-      <c r="AB23">
-        <v>1.4</v>
-      </c>
-      <c r="AC23">
-        <v>4.3</v>
-      </c>
-      <c r="AD23">
-        <v>9.4</v>
-      </c>
-      <c r="AF23">
-        <v>114</v>
-      </c>
-      <c r="AG23">
-        <v>111</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:34">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" t="s">
-        <v>75</v>
-      </c>
-      <c r="E24" t="s">
-        <v>77</v>
-      </c>
-      <c r="F24" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24">
-        <v>12</v>
-      </c>
-      <c r="H24">
-        <v>12</v>
-      </c>
-      <c r="I24">
-        <v>414</v>
-      </c>
-      <c r="J24">
-        <v>4.1</v>
-      </c>
-      <c r="K24">
-        <v>10.3</v>
-      </c>
-      <c r="L24">
-        <v>0.398</v>
-      </c>
-      <c r="M24">
-        <v>2.9</v>
-      </c>
-      <c r="N24">
-        <v>7.9</v>
-      </c>
-      <c r="O24">
-        <v>0.373</v>
-      </c>
-      <c r="P24">
-        <v>1.2</v>
-      </c>
-      <c r="Q24">
-        <v>2.5</v>
-      </c>
-      <c r="R24">
-        <v>0.476</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>2.7</v>
-      </c>
-      <c r="W24">
-        <v>7.4</v>
-      </c>
-      <c r="X24">
-        <v>10.1</v>
-      </c>
-      <c r="Y24">
-        <v>2.1</v>
-      </c>
-      <c r="Z24">
-        <v>1.5</v>
-      </c>
-      <c r="AA24">
-        <v>0.4</v>
-      </c>
-      <c r="AB24">
-        <v>1.4</v>
-      </c>
-      <c r="AC24">
-        <v>5.5</v>
-      </c>
-      <c r="AD24">
-        <v>11.2</v>
-      </c>
-      <c r="AF24">
-        <v>109</v>
-      </c>
-      <c r="AG24">
-        <v>108</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:34">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="I25">
-        <v>-2053</v>
-      </c>
-      <c r="J25">
-        <v>0.7999999999999998</v>
-      </c>
-      <c r="K25">
-        <v>2.300000000000001</v>
-      </c>
-      <c r="L25">
-        <v>-0.01700000000000002</v>
-      </c>
-      <c r="M25">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="N25">
-        <v>2.300000000000001</v>
-      </c>
-      <c r="O25">
-        <v>0.01500000000000001</v>
-      </c>
-      <c r="P25">
-        <v>-0.1000000000000001</v>
-      </c>
-      <c r="Q25">
-        <v>0.1000000000000001</v>
-      </c>
-      <c r="R25">
-        <v>-0.07500000000000001</v>
-      </c>
-      <c r="S25">
-        <v>-0.7</v>
-      </c>
-      <c r="T25">
-        <v>-0.9</v>
-      </c>
-      <c r="V25">
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="W25">
-        <v>0.6000000000000005</v>
-      </c>
-      <c r="X25">
-        <v>1.199999999999999</v>
-      </c>
-      <c r="Y25">
-        <v>-0.1000000000000001</v>
-      </c>
-      <c r="Z25">
-        <v>0.1000000000000001</v>
-      </c>
-      <c r="AA25">
-        <v>-0.2999999999999999</v>
-      </c>
-      <c r="AB25">
-        <v>0</v>
-      </c>
-      <c r="AC25">
-        <v>1.2</v>
-      </c>
-      <c r="AD25">
-        <v>1.799999999999999</v>
-      </c>
-      <c r="AF25">
-        <v>-5</v>
-      </c>
-      <c r="AG25">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:34">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" t="s">
-        <v>74</v>
-      </c>
-      <c r="E26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26">
-        <v>47</v>
-      </c>
-      <c r="H26">
-        <v>33</v>
-      </c>
-      <c r="I26">
-        <v>1254</v>
-      </c>
-      <c r="J26">
-        <v>2.4</v>
-      </c>
-      <c r="K26">
-        <v>6.2</v>
-      </c>
-      <c r="L26">
-        <v>0.382</v>
-      </c>
-      <c r="M26">
-        <v>1.4</v>
-      </c>
-      <c r="N26">
-        <v>4.2</v>
-      </c>
-      <c r="O26">
-        <v>0.345</v>
-      </c>
-      <c r="P26">
-        <v>0.9</v>
-      </c>
-      <c r="Q26">
-        <v>2.1</v>
-      </c>
-      <c r="R26">
-        <v>0.455</v>
-      </c>
-      <c r="S26">
-        <v>0.7</v>
-      </c>
-      <c r="T26">
-        <v>0.9</v>
-      </c>
-      <c r="U26">
-        <v>0.75</v>
-      </c>
-      <c r="V26">
-        <v>1.8</v>
-      </c>
-      <c r="W26">
-        <v>5.4</v>
-      </c>
-      <c r="X26">
-        <v>7.3</v>
-      </c>
-      <c r="Y26">
-        <v>2</v>
-      </c>
-      <c r="Z26">
-        <v>1.4</v>
-      </c>
-      <c r="AA26">
-        <v>0.8</v>
-      </c>
-      <c r="AB26">
-        <v>1.5</v>
-      </c>
-      <c r="AC26">
-        <v>4.5</v>
-      </c>
-      <c r="AD26">
-        <v>6.9</v>
-      </c>
-      <c r="AF26">
-        <v>104</v>
-      </c>
-      <c r="AG26">
-        <v>115</v>
-      </c>
-      <c r="AH26" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:34">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" t="s">
-        <v>75</v>
-      </c>
-      <c r="E27" t="s">
-        <v>77</v>
-      </c>
-      <c r="F27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G27">
-        <v>32</v>
-      </c>
-      <c r="H27">
-        <v>32</v>
-      </c>
-      <c r="I27">
-        <v>959</v>
-      </c>
-      <c r="J27">
-        <v>2.4</v>
-      </c>
-      <c r="K27">
-        <v>6.5</v>
-      </c>
-      <c r="L27">
-        <v>0.366</v>
-      </c>
-      <c r="M27">
-        <v>1.3</v>
-      </c>
-      <c r="N27">
-        <v>4.3</v>
-      </c>
-      <c r="O27">
-        <v>0.314</v>
-      </c>
-      <c r="P27">
-        <v>1</v>
-      </c>
-      <c r="Q27">
-        <v>2.2</v>
-      </c>
-      <c r="R27">
-        <v>0.467</v>
-      </c>
-      <c r="S27">
-        <v>0.9</v>
-      </c>
-      <c r="T27">
-        <v>1.1</v>
-      </c>
-      <c r="U27">
-        <v>0.7829999999999999</v>
-      </c>
-      <c r="V27">
-        <v>1.6</v>
-      </c>
-      <c r="W27">
-        <v>5.7</v>
-      </c>
-      <c r="X27">
-        <v>7.3</v>
-      </c>
-      <c r="Y27">
-        <v>2.2</v>
-      </c>
-      <c r="Z27">
-        <v>1.4</v>
-      </c>
-      <c r="AA27">
-        <v>0.9</v>
-      </c>
-      <c r="AB27">
-        <v>1.6</v>
-      </c>
-      <c r="AC27">
-        <v>4.5</v>
-      </c>
-      <c r="AD27">
-        <v>7</v>
-      </c>
-      <c r="AF27">
-        <v>99</v>
-      </c>
-      <c r="AG27">
-        <v>115</v>
-      </c>
-      <c r="AH27" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:34">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" t="s">
-        <v>76</v>
-      </c>
-      <c r="E28" t="s">
-        <v>77</v>
-      </c>
-      <c r="F28" t="s">
-        <v>28</v>
-      </c>
-      <c r="G28">
-        <v>15</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28">
-        <v>295</v>
-      </c>
-      <c r="J28">
-        <v>2.4</v>
-      </c>
-      <c r="K28">
-        <v>5.4</v>
-      </c>
-      <c r="L28">
-        <v>0.441</v>
-      </c>
-      <c r="M28">
-        <v>1.8</v>
-      </c>
-      <c r="N28">
-        <v>3.8</v>
-      </c>
-      <c r="O28">
-        <v>0.458</v>
-      </c>
-      <c r="P28">
-        <v>0.6</v>
-      </c>
-      <c r="Q28">
-        <v>1.6</v>
-      </c>
-      <c r="R28">
-        <v>0.4</v>
-      </c>
-      <c r="S28">
-        <v>0</v>
-      </c>
-      <c r="T28">
-        <v>0.2</v>
-      </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
-      <c r="V28">
-        <v>2.6</v>
-      </c>
-      <c r="W28">
-        <v>4.6</v>
-      </c>
-      <c r="X28">
-        <v>7.2</v>
-      </c>
-      <c r="Y28">
-        <v>1.4</v>
-      </c>
-      <c r="Z28">
-        <v>1.4</v>
-      </c>
-      <c r="AA28">
-        <v>0.3</v>
-      </c>
-      <c r="AB28">
-        <v>1</v>
-      </c>
-      <c r="AC28">
-        <v>4.6</v>
-      </c>
-      <c r="AD28">
-        <v>6.5</v>
-      </c>
-      <c r="AF28">
-        <v>124</v>
-      </c>
-      <c r="AG28">
-        <v>114</v>
-      </c>
-      <c r="AH28" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:34">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:34">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" t="s">
-        <v>75</v>
-      </c>
-      <c r="E30" t="s">
-        <v>77</v>
-      </c>
-      <c r="G30">
-        <v>268</v>
-      </c>
-      <c r="H30">
-        <v>220</v>
-      </c>
-      <c r="I30">
-        <v>8509</v>
-      </c>
-      <c r="J30">
-        <v>3.4</v>
-      </c>
-      <c r="K30">
-        <v>8.6</v>
-      </c>
-      <c r="L30">
-        <v>0.397</v>
-      </c>
-      <c r="M30">
-        <v>2.2</v>
-      </c>
-      <c r="N30">
-        <v>6.1</v>
-      </c>
-      <c r="O30">
-        <v>0.365</v>
-      </c>
-      <c r="P30">
-        <v>1.2</v>
-      </c>
-      <c r="Q30">
-        <v>2.5</v>
-      </c>
-      <c r="R30">
-        <v>0.476</v>
-      </c>
-      <c r="S30">
-        <v>0.8</v>
-      </c>
-      <c r="T30">
-        <v>1.1</v>
-      </c>
-      <c r="U30">
-        <v>0.742</v>
-      </c>
-      <c r="V30">
-        <v>2</v>
-      </c>
-      <c r="W30">
-        <v>6.8</v>
-      </c>
-      <c r="X30">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="Y30">
-        <v>1.9</v>
-      </c>
-      <c r="Z30">
-        <v>1.8</v>
-      </c>
-      <c r="AA30">
-        <v>0.7</v>
-      </c>
-      <c r="AB30">
-        <v>1.4</v>
-      </c>
-      <c r="AC30">
-        <v>4.4</v>
-      </c>
-      <c r="AD30">
-        <v>9.9</v>
-      </c>
-      <c r="AF30">
-        <v>110</v>
-      </c>
-      <c r="AG30">
-        <v>110</v>
-      </c>
-      <c r="AH30" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:34">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" t="s">
-        <v>75</v>
-      </c>
-      <c r="E31" t="s">
-        <v>77</v>
-      </c>
-      <c r="G31">
-        <v>40</v>
-      </c>
-      <c r="H31">
-        <v>40</v>
-      </c>
-      <c r="I31">
-        <v>1409</v>
-      </c>
-      <c r="J31">
-        <v>4.5</v>
-      </c>
-      <c r="K31">
-        <v>10</v>
-      </c>
-      <c r="L31">
-        <v>0.447</v>
-      </c>
-      <c r="M31">
-        <v>3</v>
-      </c>
-      <c r="N31">
-        <v>7</v>
-      </c>
-      <c r="O31">
-        <v>0.4320000000000001</v>
-      </c>
-      <c r="P31">
-        <v>1.4</v>
-      </c>
-      <c r="Q31">
-        <v>3</v>
-      </c>
-      <c r="R31">
-        <v>0.482</v>
-      </c>
-      <c r="S31">
-        <v>1.1</v>
-      </c>
-      <c r="T31">
-        <v>1.4</v>
-      </c>
-      <c r="U31">
-        <v>0.7559999999999999</v>
-      </c>
-      <c r="V31">
-        <v>2.3</v>
-      </c>
-      <c r="W31">
-        <v>7.5</v>
-      </c>
-      <c r="X31">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Y31">
-        <v>2.1</v>
-      </c>
-      <c r="Z31">
-        <v>1.5</v>
-      </c>
-      <c r="AA31">
-        <v>0.8</v>
-      </c>
-      <c r="AB31">
-        <v>1.2</v>
-      </c>
-      <c r="AC31">
-        <v>4.5</v>
-      </c>
-      <c r="AD31">
-        <v>13</v>
-      </c>
-      <c r="AF31">
-        <v>123</v>
-      </c>
-      <c r="AG31">
-        <v>108</v>
-      </c>
-      <c r="AH31" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32" spans="1:34">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="I32">
-        <v>-7100</v>
-      </c>
-      <c r="J32">
-        <v>1.1</v>
-      </c>
-      <c r="K32">
-        <v>1.4</v>
-      </c>
-      <c r="L32">
-        <v>0.04999999999999999</v>
-      </c>
-      <c r="M32">
-        <v>0.7999999999999998</v>
-      </c>
-      <c r="N32">
-        <v>0.9000000000000004</v>
-      </c>
-      <c r="O32">
-        <v>0.06700000000000006</v>
-      </c>
-      <c r="P32">
-        <v>0.2</v>
-      </c>
-      <c r="Q32">
-        <v>0.5</v>
-      </c>
-      <c r="R32">
-        <v>0.006000000000000005</v>
-      </c>
-      <c r="S32">
-        <v>0.3</v>
-      </c>
-      <c r="T32">
-        <v>0.2999999999999998</v>
-      </c>
-      <c r="U32">
-        <v>0.0139999999999999</v>
-      </c>
-      <c r="V32">
-        <v>0.2999999999999998</v>
-      </c>
-      <c r="W32">
-        <v>0.7000000000000002</v>
-      </c>
-      <c r="X32">
-        <v>1</v>
-      </c>
-      <c r="Y32">
-        <v>0.2000000000000002</v>
-      </c>
-      <c r="Z32">
-        <v>-0.3</v>
-      </c>
-      <c r="AA32">
-        <v>0.1000000000000001</v>
-      </c>
-      <c r="AB32">
-        <v>-0.2</v>
-      </c>
-      <c r="AC32">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="AD32">
-        <v>3.1</v>
-      </c>
-      <c r="AF32">
-        <v>13</v>
-      </c>
-      <c r="AG32">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:34">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33" t="s">
-        <v>76</v>
-      </c>
-      <c r="E33" t="s">
-        <v>77</v>
-      </c>
-      <c r="G33">
-        <v>15</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="I33">
-        <v>295</v>
-      </c>
-      <c r="J33">
-        <v>2.4</v>
-      </c>
-      <c r="K33">
-        <v>5.4</v>
-      </c>
-      <c r="L33">
-        <v>0.441</v>
-      </c>
-      <c r="M33">
-        <v>1.8</v>
-      </c>
-      <c r="N33">
-        <v>3.8</v>
-      </c>
-      <c r="O33">
-        <v>0.458</v>
-      </c>
-      <c r="P33">
-        <v>0.6</v>
-      </c>
-      <c r="Q33">
-        <v>1.6</v>
-      </c>
-      <c r="R33">
-        <v>0.4</v>
-      </c>
-      <c r="S33">
-        <v>0</v>
-      </c>
-      <c r="T33">
-        <v>0.2</v>
-      </c>
-      <c r="U33">
-        <v>0</v>
-      </c>
-      <c r="V33">
-        <v>2.6</v>
-      </c>
-      <c r="W33">
-        <v>4.6</v>
-      </c>
-      <c r="X33">
-        <v>7.2</v>
-      </c>
-      <c r="Y33">
-        <v>1.4</v>
-      </c>
-      <c r="Z33">
-        <v>1.4</v>
-      </c>
-      <c r="AA33">
-        <v>0.3</v>
-      </c>
-      <c r="AB33">
-        <v>1</v>
-      </c>
-      <c r="AC33">
-        <v>4.6</v>
-      </c>
-      <c r="AD33">
-        <v>6.5</v>
-      </c>
-      <c r="AF33">
-        <v>124</v>
-      </c>
-      <c r="AG33">
-        <v>114</v>
-      </c>
-      <c r="AH33" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" spans="1:34">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:34">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35" t="s">
-        <v>73</v>
-      </c>
-      <c r="E35" t="s">
-        <v>77</v>
-      </c>
-      <c r="G35">
-        <v>377</v>
-      </c>
-      <c r="H35">
-        <v>286</v>
-      </c>
-      <c r="I35">
-        <v>10950</v>
-      </c>
-      <c r="J35">
-        <v>5.1</v>
-      </c>
-      <c r="K35">
-        <v>11.7</v>
-      </c>
-      <c r="L35">
-        <v>0.433</v>
-      </c>
-      <c r="M35">
-        <v>1.3</v>
-      </c>
-      <c r="N35">
-        <v>3.9</v>
-      </c>
-      <c r="O35">
-        <v>0.347</v>
-      </c>
-      <c r="P35">
-        <v>3.7</v>
-      </c>
-      <c r="Q35">
-        <v>7.9</v>
-      </c>
-      <c r="R35">
-        <v>0.475</v>
-      </c>
-      <c r="S35">
-        <v>2.2</v>
-      </c>
-      <c r="T35">
-        <v>2.9</v>
-      </c>
-      <c r="U35">
-        <v>0.757</v>
-      </c>
-      <c r="V35">
-        <v>3</v>
-      </c>
-      <c r="W35">
-        <v>7.1</v>
-      </c>
-      <c r="X35">
-        <v>10.1</v>
-      </c>
-      <c r="Y35">
-        <v>2.8</v>
-      </c>
-      <c r="Z35">
-        <v>2.1</v>
-      </c>
-      <c r="AA35">
-        <v>0.4</v>
-      </c>
-      <c r="AB35">
-        <v>1.9</v>
-      </c>
-      <c r="AC35">
-        <v>4</v>
-      </c>
-      <c r="AD35">
-        <v>13.7</v>
-      </c>
-      <c r="AF35">
-        <v>109</v>
-      </c>
-      <c r="AG35">
-        <v>108</v>
-      </c>
-      <c r="AH35" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:34">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:34">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>50</v>
-      </c>
-      <c r="D37" t="s">
-        <v>67</v>
-      </c>
-      <c r="E37" t="s">
-        <v>77</v>
-      </c>
-      <c r="G37">
-        <v>41</v>
-      </c>
-      <c r="H37">
-        <v>4</v>
-      </c>
-      <c r="I37">
-        <v>692</v>
-      </c>
-      <c r="J37">
-        <v>4.6</v>
-      </c>
-      <c r="K37">
-        <v>11</v>
-      </c>
-      <c r="L37">
-        <v>0.42</v>
-      </c>
-      <c r="M37">
-        <v>1.8</v>
-      </c>
-      <c r="N37">
-        <v>4.4</v>
-      </c>
-      <c r="O37">
-        <v>0.4</v>
-      </c>
-      <c r="P37">
-        <v>2.9</v>
-      </c>
-      <c r="Q37">
-        <v>6.6</v>
-      </c>
-      <c r="R37">
-        <v>0.433</v>
-      </c>
-      <c r="S37">
-        <v>1.4</v>
-      </c>
-      <c r="T37">
-        <v>2.2</v>
-      </c>
-      <c r="U37">
-        <v>0.633</v>
-      </c>
-      <c r="V37">
-        <v>2.5</v>
-      </c>
-      <c r="W37">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="X37">
-        <v>11.2</v>
-      </c>
-      <c r="Y37">
-        <v>2.1</v>
-      </c>
-      <c r="Z37">
-        <v>2.4</v>
-      </c>
-      <c r="AA37">
-        <v>0.4</v>
-      </c>
-      <c r="AB37">
-        <v>1.5</v>
-      </c>
-      <c r="AC37">
-        <v>4.8</v>
-      </c>
-      <c r="AD37">
-        <v>12.4</v>
-      </c>
-      <c r="AF37">
-        <v>109</v>
-      </c>
-      <c r="AG37">
-        <v>106</v>
-      </c>
-      <c r="AH37" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="38" spans="1:34">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" t="s">
-        <v>67</v>
-      </c>
-      <c r="E38" t="s">
-        <v>77</v>
-      </c>
-      <c r="G38">
-        <v>10</v>
-      </c>
-      <c r="H38">
-        <v>1</v>
-      </c>
-      <c r="I38">
-        <v>251</v>
-      </c>
-      <c r="J38">
-        <v>3.7</v>
-      </c>
-      <c r="K38">
-        <v>10.1</v>
-      </c>
-      <c r="L38">
-        <v>0.367</v>
-      </c>
-      <c r="M38">
-        <v>1.8</v>
-      </c>
-      <c r="N38">
-        <v>5.7</v>
-      </c>
-      <c r="O38">
-        <v>0.321</v>
-      </c>
-      <c r="P38">
-        <v>1.8</v>
-      </c>
-      <c r="Q38">
-        <v>4.3</v>
-      </c>
-      <c r="R38">
-        <v>0.429</v>
-      </c>
-      <c r="S38">
-        <v>1</v>
-      </c>
-      <c r="T38">
-        <v>1.6</v>
-      </c>
-      <c r="U38">
-        <v>0.625</v>
-      </c>
-      <c r="V38">
-        <v>3.1</v>
-      </c>
-      <c r="W38">
-        <v>8.6</v>
-      </c>
-      <c r="X38">
-        <v>11.7</v>
-      </c>
-      <c r="Y38">
-        <v>2.3</v>
-      </c>
-      <c r="Z38">
-        <v>1.2</v>
-      </c>
-      <c r="AA38">
-        <v>0.6</v>
-      </c>
-      <c r="AB38">
-        <v>1.6</v>
-      </c>
-      <c r="AC38">
-        <v>5.5</v>
-      </c>
-      <c r="AD38">
-        <v>10.3</v>
-      </c>
-      <c r="AF38">
-        <v>100</v>
-      </c>
-      <c r="AG38">
-        <v>111</v>
-      </c>
-      <c r="AH38" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="39" spans="1:34">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="I39">
-        <v>-441</v>
-      </c>
-      <c r="J39">
-        <v>-0.8999999999999995</v>
-      </c>
-      <c r="K39">
-        <v>-0.9000000000000004</v>
-      </c>
-      <c r="L39">
-        <v>-0.05299999999999994</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <v>1.3</v>
-      </c>
-      <c r="O39">
-        <v>-0.07900000000000001</v>
-      </c>
-      <c r="P39">
-        <v>-1.1</v>
-      </c>
-      <c r="Q39">
-        <v>-2.3</v>
-      </c>
-      <c r="R39">
-        <v>-0.004000000000000004</v>
-      </c>
-      <c r="S39">
-        <v>-0.3999999999999999</v>
-      </c>
-      <c r="T39">
-        <v>-0.6000000000000001</v>
-      </c>
-      <c r="U39">
-        <v>-0.008000000000000007</v>
-      </c>
-      <c r="V39">
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="W39">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="X39">
-        <v>0.5</v>
-      </c>
-      <c r="Y39">
-        <v>0.1999999999999997</v>
-      </c>
-      <c r="Z39">
-        <v>-1.2</v>
-      </c>
-      <c r="AA39">
-        <v>0.2</v>
-      </c>
-      <c r="AB39">
-        <v>0.1000000000000001</v>
-      </c>
-      <c r="AC39">
-        <v>0.7000000000000002</v>
-      </c>
-      <c r="AD39">
-        <v>-2.1</v>
-      </c>
-      <c r="AF39">
-        <v>-9</v>
-      </c>
-      <c r="AG39">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:34">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>51</v>
-      </c>
-      <c r="E40" t="s">
-        <v>77</v>
-      </c>
-      <c r="G40">
-        <v>701</v>
-      </c>
-      <c r="H40">
-        <v>511</v>
-      </c>
-      <c r="I40">
-        <v>20446</v>
-      </c>
-      <c r="J40">
-        <v>4.3</v>
-      </c>
-      <c r="K40">
-        <v>10.3</v>
-      </c>
-      <c r="L40">
-        <v>0.42</v>
-      </c>
-      <c r="M40">
-        <v>1.7</v>
-      </c>
-      <c r="N40">
-        <v>4.8</v>
-      </c>
-      <c r="O40">
-        <v>0.36</v>
-      </c>
-      <c r="P40">
-        <v>2.6</v>
-      </c>
-      <c r="Q40">
-        <v>5.4</v>
-      </c>
-      <c r="R40">
-        <v>0.473</v>
-      </c>
-      <c r="S40">
-        <v>1.6</v>
-      </c>
-      <c r="T40">
-        <v>2.1</v>
-      </c>
-      <c r="U40">
-        <v>0.748</v>
-      </c>
-      <c r="V40">
-        <v>2.6</v>
-      </c>
-      <c r="W40">
-        <v>7</v>
-      </c>
-      <c r="X40">
-        <v>9.6</v>
-      </c>
-      <c r="Y40">
-        <v>2.4</v>
-      </c>
-      <c r="Z40">
-        <v>2</v>
-      </c>
-      <c r="AA40">
-        <v>0.5</v>
-      </c>
-      <c r="AB40">
-        <v>1.7</v>
-      </c>
-      <c r="AC40">
-        <v>4.2</v>
-      </c>
-      <c r="AD40">
-        <v>11.9</v>
-      </c>
-      <c r="AF40">
-        <v>110</v>
-      </c>
-      <c r="AG40">
-        <v>109</v>
-      </c>
-      <c r="AH40" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" spans="1:34">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>51</v>
-      </c>
-      <c r="E41" t="s">
-        <v>77</v>
-      </c>
-      <c r="G41">
-        <v>50</v>
-      </c>
-      <c r="H41">
-        <v>41</v>
-      </c>
-      <c r="I41">
-        <v>1660</v>
-      </c>
-      <c r="J41">
-        <v>4.4</v>
-      </c>
-      <c r="K41">
-        <v>10</v>
-      </c>
-      <c r="L41">
-        <v>0.435</v>
-      </c>
-      <c r="M41">
-        <v>2.9</v>
-      </c>
-      <c r="N41">
-        <v>6.8</v>
-      </c>
-      <c r="O41">
-        <v>0.419</v>
-      </c>
-      <c r="P41">
-        <v>1.5</v>
-      </c>
-      <c r="Q41">
-        <v>3.2</v>
-      </c>
-      <c r="R41">
-        <v>0.472</v>
-      </c>
-      <c r="S41">
-        <v>1.1</v>
-      </c>
-      <c r="T41">
-        <v>1.5</v>
-      </c>
-      <c r="U41">
-        <v>0.735</v>
-      </c>
-      <c r="V41">
-        <v>2.4</v>
-      </c>
-      <c r="W41">
-        <v>7.7</v>
-      </c>
-      <c r="X41">
-        <v>10.1</v>
-      </c>
-      <c r="Y41">
-        <v>2.1</v>
-      </c>
-      <c r="Z41">
-        <v>1.5</v>
-      </c>
-      <c r="AA41">
-        <v>0.8</v>
-      </c>
-      <c r="AB41">
-        <v>1.3</v>
-      </c>
-      <c r="AC41">
-        <v>4.7</v>
-      </c>
-      <c r="AD41">
-        <v>12.6</v>
-      </c>
-      <c r="AF41">
-        <v>119</v>
-      </c>
-      <c r="AG41">
-        <v>109</v>
-      </c>
-      <c r="AH41" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" spans="1:34">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="I42">
-        <v>-18786</v>
-      </c>
-      <c r="J42">
-        <v>0.1000000000000005</v>
-      </c>
-      <c r="K42">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="L42">
-        <v>0.01500000000000001</v>
-      </c>
-      <c r="M42">
-        <v>1.2</v>
-      </c>
-      <c r="N42">
-        <v>2</v>
-      </c>
-      <c r="O42">
-        <v>0.059</v>
-      </c>
-      <c r="P42">
-        <v>-1.1</v>
-      </c>
-      <c r="Q42">
-        <v>-2.2</v>
-      </c>
-      <c r="R42">
-        <v>-0.0009999999999999454</v>
-      </c>
-      <c r="S42">
-        <v>-0.5</v>
-      </c>
-      <c r="T42">
-        <v>-0.6000000000000001</v>
-      </c>
-      <c r="U42">
-        <v>-0.01300000000000001</v>
-      </c>
-      <c r="V42">
-        <v>-0.2000000000000002</v>
-      </c>
-      <c r="W42">
-        <v>0.7000000000000002</v>
-      </c>
-      <c r="X42">
-        <v>0.5</v>
-      </c>
-      <c r="Y42">
-        <v>-0.2999999999999998</v>
-      </c>
-      <c r="Z42">
-        <v>-0.5</v>
-      </c>
-      <c r="AA42">
-        <v>0.3</v>
-      </c>
-      <c r="AB42">
-        <v>-0.3999999999999999</v>
-      </c>
-      <c r="AC42">
-        <v>0.5</v>
-      </c>
-      <c r="AD42">
-        <v>0.6999999999999993</v>
-      </c>
-      <c r="AF42">
-        <v>9</v>
-      </c>
-      <c r="AG42">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10282,70 +3997,70 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>30</v>

--- a/output/tuckepj01.xlsx
+++ b/output/tuckepj01.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="105">
   <si>
     <t>Season</t>
   </si>
@@ -263,6 +263,12 @@
   </si>
   <si>
     <t>PS</t>
+  </si>
+  <si>
+    <t>ORtg</t>
+  </si>
+  <si>
+    <t>DRtg</t>
   </si>
   <si>
     <t>PER</t>
@@ -3944,24 +3950,6303 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AE42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:31">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2">
+        <v>17</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>83</v>
+      </c>
+      <c r="J2">
+        <v>4.8</v>
+      </c>
+      <c r="K2">
+        <v>9.5</v>
+      </c>
+      <c r="L2">
+        <v>0.5</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>4.8</v>
+      </c>
+      <c r="Q2">
+        <v>9.5</v>
+      </c>
+      <c r="R2">
+        <v>0.5</v>
+      </c>
+      <c r="S2">
+        <v>3.5</v>
+      </c>
+      <c r="T2">
+        <v>6.1</v>
+      </c>
+      <c r="U2">
+        <v>0.5710000000000001</v>
+      </c>
+      <c r="V2">
+        <v>4.8</v>
+      </c>
+      <c r="W2">
+        <v>5.2</v>
+      </c>
+      <c r="X2">
+        <v>10</v>
+      </c>
+      <c r="Y2">
+        <v>1.3</v>
+      </c>
+      <c r="Z2">
+        <v>0.9</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>2.6</v>
+      </c>
+      <c r="AC2">
+        <v>5.2</v>
+      </c>
+      <c r="AD2">
+        <v>13</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4">
+        <v>79</v>
+      </c>
+      <c r="H4">
+        <v>45</v>
+      </c>
+      <c r="I4">
+        <v>1910</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>8.4</v>
+      </c>
+      <c r="L4">
+        <v>0.473</v>
+      </c>
+      <c r="M4">
+        <v>0.4</v>
+      </c>
+      <c r="N4">
+        <v>1.3</v>
+      </c>
+      <c r="O4">
+        <v>0.314</v>
+      </c>
+      <c r="P4">
+        <v>3.5</v>
+      </c>
+      <c r="Q4">
+        <v>7</v>
+      </c>
+      <c r="R4">
+        <v>0.503</v>
+      </c>
+      <c r="S4">
+        <v>1.2</v>
+      </c>
+      <c r="T4">
+        <v>1.6</v>
+      </c>
+      <c r="U4">
+        <v>0.7440000000000001</v>
+      </c>
+      <c r="V4">
+        <v>2.5</v>
+      </c>
+      <c r="W4">
+        <v>4.1</v>
+      </c>
+      <c r="X4">
+        <v>6.6</v>
+      </c>
+      <c r="Y4">
+        <v>2.1</v>
+      </c>
+      <c r="Z4">
+        <v>1.2</v>
+      </c>
+      <c r="AA4">
+        <v>0.4</v>
+      </c>
+      <c r="AB4">
+        <v>1.3</v>
+      </c>
+      <c r="AC4">
+        <v>2.7</v>
+      </c>
+      <c r="AD4">
+        <v>9.5</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6">
+        <v>81</v>
+      </c>
+      <c r="H6">
+        <v>81</v>
+      </c>
+      <c r="I6">
+        <v>2490</v>
+      </c>
+      <c r="J6">
+        <v>3.8</v>
+      </c>
+      <c r="K6">
+        <v>8.9</v>
+      </c>
+      <c r="L6">
+        <v>0.431</v>
+      </c>
+      <c r="M6">
+        <v>1.1</v>
+      </c>
+      <c r="N6">
+        <v>2.8</v>
+      </c>
+      <c r="O6">
+        <v>0.387</v>
+      </c>
+      <c r="P6">
+        <v>2.8</v>
+      </c>
+      <c r="Q6">
+        <v>6.1</v>
+      </c>
+      <c r="R6">
+        <v>0.45</v>
+      </c>
+      <c r="S6">
+        <v>2.3</v>
+      </c>
+      <c r="T6">
+        <v>2.9</v>
+      </c>
+      <c r="U6">
+        <v>0.7759999999999999</v>
+      </c>
+      <c r="V6">
+        <v>2.3</v>
+      </c>
+      <c r="W6">
+        <v>5.3</v>
+      </c>
+      <c r="X6">
+        <v>7.6</v>
+      </c>
+      <c r="Y6">
+        <v>2</v>
+      </c>
+      <c r="Z6">
+        <v>1.6</v>
+      </c>
+      <c r="AA6">
+        <v>0.3</v>
+      </c>
+      <c r="AB6">
+        <v>1.5</v>
+      </c>
+      <c r="AC6">
+        <v>2.9</v>
+      </c>
+      <c r="AD6">
+        <v>11</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8">
+        <v>78</v>
+      </c>
+      <c r="H8">
+        <v>63</v>
+      </c>
+      <c r="I8">
+        <v>2383</v>
+      </c>
+      <c r="J8">
+        <v>3.9</v>
+      </c>
+      <c r="K8">
+        <v>9</v>
+      </c>
+      <c r="L8">
+        <v>0.4379999999999999</v>
+      </c>
+      <c r="M8">
+        <v>1.3</v>
+      </c>
+      <c r="N8">
+        <v>3.8</v>
+      </c>
+      <c r="O8">
+        <v>0.345</v>
+      </c>
+      <c r="P8">
+        <v>2.6</v>
+      </c>
+      <c r="Q8">
+        <v>5.2</v>
+      </c>
+      <c r="R8">
+        <v>0.506</v>
+      </c>
+      <c r="S8">
+        <v>1.6</v>
+      </c>
+      <c r="T8">
+        <v>2.2</v>
+      </c>
+      <c r="U8">
+        <v>0.727</v>
+      </c>
+      <c r="V8">
+        <v>1.7</v>
+      </c>
+      <c r="W8">
+        <v>5.9</v>
+      </c>
+      <c r="X8">
+        <v>7.6</v>
+      </c>
+      <c r="Y8">
+        <v>1.8</v>
+      </c>
+      <c r="Z8">
+        <v>1.6</v>
+      </c>
+      <c r="AA8">
+        <v>0.3</v>
+      </c>
+      <c r="AB8">
+        <v>1.5</v>
+      </c>
+      <c r="AC8">
+        <v>2.7</v>
+      </c>
+      <c r="AD8">
+        <v>10.8</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10">
+        <v>82</v>
+      </c>
+      <c r="H10">
+        <v>80</v>
+      </c>
+      <c r="I10">
+        <v>2540</v>
+      </c>
+      <c r="J10">
+        <v>3.4</v>
+      </c>
+      <c r="K10">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="L10">
+        <v>0.411</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>2.9</v>
+      </c>
+      <c r="O10">
+        <v>0.33</v>
+      </c>
+      <c r="P10">
+        <v>2.4</v>
+      </c>
+      <c r="Q10">
+        <v>5.3</v>
+      </c>
+      <c r="R10">
+        <v>0.455</v>
+      </c>
+      <c r="S10">
+        <v>1.5</v>
+      </c>
+      <c r="T10">
+        <v>2</v>
+      </c>
+      <c r="U10">
+        <v>0.746</v>
+      </c>
+      <c r="V10">
+        <v>2.3</v>
+      </c>
+      <c r="W10">
+        <v>4.9</v>
+      </c>
+      <c r="X10">
+        <v>7.3</v>
+      </c>
+      <c r="Y10">
+        <v>2.5</v>
+      </c>
+      <c r="Z10">
+        <v>1.5</v>
+      </c>
+      <c r="AA10">
+        <v>0.3</v>
+      </c>
+      <c r="AB10">
+        <v>1.6</v>
+      </c>
+      <c r="AC10">
+        <v>2.9</v>
+      </c>
+      <c r="AD10">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12">
+        <v>81</v>
+      </c>
+      <c r="H12">
+        <v>21</v>
+      </c>
+      <c r="I12">
+        <v>2236</v>
+      </c>
+      <c r="J12">
+        <v>3.2</v>
+      </c>
+      <c r="K12">
+        <v>7.8</v>
+      </c>
+      <c r="L12">
+        <v>0.413</v>
+      </c>
+      <c r="M12">
+        <v>1.1</v>
+      </c>
+      <c r="N12">
+        <v>3.2</v>
+      </c>
+      <c r="O12">
+        <v>0.357</v>
+      </c>
+      <c r="P12">
+        <v>2.1</v>
+      </c>
+      <c r="Q12">
+        <v>4.6</v>
+      </c>
+      <c r="R12">
+        <v>0.451</v>
+      </c>
+      <c r="S12">
+        <v>1.2</v>
+      </c>
+      <c r="T12">
+        <v>1.5</v>
+      </c>
+      <c r="U12">
+        <v>0.774</v>
+      </c>
+      <c r="V12">
+        <v>1.9</v>
+      </c>
+      <c r="W12">
+        <v>5.7</v>
+      </c>
+      <c r="X12">
+        <v>7.6</v>
+      </c>
+      <c r="Y12">
+        <v>1.6</v>
+      </c>
+      <c r="Z12">
+        <v>1.9</v>
+      </c>
+      <c r="AA12">
+        <v>0.3</v>
+      </c>
+      <c r="AB12">
+        <v>1.1</v>
+      </c>
+      <c r="AC12">
+        <v>3.2</v>
+      </c>
+      <c r="AD12">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13">
+        <v>57</v>
+      </c>
+      <c r="H13">
+        <v>17</v>
+      </c>
+      <c r="I13">
+        <v>1627</v>
+      </c>
+      <c r="J13">
+        <v>3.3</v>
+      </c>
+      <c r="K13">
+        <v>7.8</v>
+      </c>
+      <c r="L13">
+        <v>0.415</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>3</v>
+      </c>
+      <c r="O13">
+        <v>0.338</v>
+      </c>
+      <c r="P13">
+        <v>2.2</v>
+      </c>
+      <c r="Q13">
+        <v>4.8</v>
+      </c>
+      <c r="R13">
+        <v>0.463</v>
+      </c>
+      <c r="S13">
+        <v>1.3</v>
+      </c>
+      <c r="T13">
+        <v>1.7</v>
+      </c>
+      <c r="U13">
+        <v>0.792</v>
+      </c>
+      <c r="V13">
+        <v>2.1</v>
+      </c>
+      <c r="W13">
+        <v>5.5</v>
+      </c>
+      <c r="X13">
+        <v>7.6</v>
+      </c>
+      <c r="Y13">
+        <v>1.6</v>
+      </c>
+      <c r="Z13">
+        <v>1.9</v>
+      </c>
+      <c r="AA13">
+        <v>0.3</v>
+      </c>
+      <c r="AB13">
+        <v>1.2</v>
+      </c>
+      <c r="AC13">
+        <v>3.2</v>
+      </c>
+      <c r="AD13">
+        <v>8.9</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14">
+        <v>24</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>609</v>
+      </c>
+      <c r="J14">
+        <v>3.1</v>
+      </c>
+      <c r="K14">
+        <v>7.6</v>
+      </c>
+      <c r="L14">
+        <v>0.406</v>
+      </c>
+      <c r="M14">
+        <v>1.4</v>
+      </c>
+      <c r="N14">
+        <v>3.5</v>
+      </c>
+      <c r="O14">
+        <v>0.4</v>
+      </c>
+      <c r="P14">
+        <v>1.7</v>
+      </c>
+      <c r="Q14">
+        <v>4</v>
+      </c>
+      <c r="R14">
+        <v>0.412</v>
+      </c>
+      <c r="S14">
+        <v>0.7</v>
+      </c>
+      <c r="T14">
+        <v>0.9</v>
+      </c>
+      <c r="U14">
+        <v>0.6879999999999999</v>
+      </c>
+      <c r="V14">
+        <v>1.4</v>
+      </c>
+      <c r="W14">
+        <v>6.3</v>
+      </c>
+      <c r="X14">
+        <v>7.6</v>
+      </c>
+      <c r="Y14">
+        <v>1.5</v>
+      </c>
+      <c r="Z14">
+        <v>1.8</v>
+      </c>
+      <c r="AA14">
+        <v>0.3</v>
+      </c>
+      <c r="AB14">
+        <v>0.8</v>
+      </c>
+      <c r="AC14">
+        <v>3.1</v>
+      </c>
+      <c r="AD14">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>251</v>
+      </c>
+      <c r="J15">
+        <v>2.6</v>
+      </c>
+      <c r="K15">
+        <v>7</v>
+      </c>
+      <c r="L15">
+        <v>0.367</v>
+      </c>
+      <c r="M15">
+        <v>1.3</v>
+      </c>
+      <c r="N15">
+        <v>4</v>
+      </c>
+      <c r="O15">
+        <v>0.321</v>
+      </c>
+      <c r="P15">
+        <v>1.3</v>
+      </c>
+      <c r="Q15">
+        <v>3</v>
+      </c>
+      <c r="R15">
+        <v>0.429</v>
+      </c>
+      <c r="S15">
+        <v>0.7</v>
+      </c>
+      <c r="T15">
+        <v>1.1</v>
+      </c>
+      <c r="U15">
+        <v>0.625</v>
+      </c>
+      <c r="V15">
+        <v>2.2</v>
+      </c>
+      <c r="W15">
+        <v>6</v>
+      </c>
+      <c r="X15">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y15">
+        <v>1.6</v>
+      </c>
+      <c r="Z15">
+        <v>0.9</v>
+      </c>
+      <c r="AA15">
+        <v>0.4</v>
+      </c>
+      <c r="AB15">
+        <v>1.1</v>
+      </c>
+      <c r="AC15">
+        <v>3.9</v>
+      </c>
+      <c r="AD15">
+        <v>7.2</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="I16">
+        <v>-1985</v>
+      </c>
+      <c r="J16">
+        <v>-0.6000000000000001</v>
+      </c>
+      <c r="K16">
+        <v>-0.7999999999999998</v>
+      </c>
+      <c r="L16">
+        <v>-0.04599999999999993</v>
+      </c>
+      <c r="M16">
+        <v>0.2</v>
+      </c>
+      <c r="N16">
+        <v>0.7999999999999998</v>
+      </c>
+      <c r="O16">
+        <v>-0.03600000000000003</v>
+      </c>
+      <c r="P16">
+        <v>-0.8</v>
+      </c>
+      <c r="Q16">
+        <v>-1.6</v>
+      </c>
+      <c r="R16">
+        <v>-0.02200000000000002</v>
+      </c>
+      <c r="S16">
+        <v>-0.5</v>
+      </c>
+      <c r="T16">
+        <v>-0.3999999999999999</v>
+      </c>
+      <c r="U16">
+        <v>-0.149</v>
+      </c>
+      <c r="V16">
+        <v>0.3000000000000003</v>
+      </c>
+      <c r="W16">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="X16">
+        <v>0.5999999999999996</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>-0.9999999999999999</v>
+      </c>
+      <c r="AA16">
+        <v>0.1</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0.6999999999999997</v>
+      </c>
+      <c r="AD16">
+        <v>-1.499999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17">
+        <v>82</v>
+      </c>
+      <c r="H17">
+        <v>34</v>
+      </c>
+      <c r="I17">
+        <v>2281</v>
+      </c>
+      <c r="J17">
+        <v>2.7</v>
+      </c>
+      <c r="K17">
+        <v>7</v>
+      </c>
+      <c r="L17">
+        <v>0.39</v>
+      </c>
+      <c r="M17">
+        <v>1.8</v>
+      </c>
+      <c r="N17">
+        <v>4.9</v>
+      </c>
+      <c r="O17">
+        <v>0.371</v>
+      </c>
+      <c r="P17">
+        <v>0.9</v>
+      </c>
+      <c r="Q17">
+        <v>2.1</v>
+      </c>
+      <c r="R17">
+        <v>0.435</v>
+      </c>
+      <c r="S17">
+        <v>0.7</v>
+      </c>
+      <c r="T17">
+        <v>0.9</v>
+      </c>
+      <c r="U17">
+        <v>0.7170000000000001</v>
+      </c>
+      <c r="V17">
+        <v>1.5</v>
+      </c>
+      <c r="W17">
+        <v>5.7</v>
+      </c>
+      <c r="X17">
+        <v>7.2</v>
+      </c>
+      <c r="Y17">
+        <v>1.2</v>
+      </c>
+      <c r="Z17">
+        <v>1.2</v>
+      </c>
+      <c r="AA17">
+        <v>0.4</v>
+      </c>
+      <c r="AB17">
+        <v>1.2</v>
+      </c>
+      <c r="AC17">
+        <v>3.2</v>
+      </c>
+      <c r="AD17">
+        <v>7.9</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18">
+        <v>17</v>
+      </c>
+      <c r="H18">
+        <v>17</v>
+      </c>
+      <c r="I18">
+        <v>569</v>
+      </c>
+      <c r="J18">
+        <v>3.3</v>
+      </c>
+      <c r="K18">
+        <v>6.8</v>
+      </c>
+      <c r="L18">
+        <v>0.481</v>
+      </c>
+      <c r="M18">
+        <v>2.2</v>
+      </c>
+      <c r="N18">
+        <v>4.7</v>
+      </c>
+      <c r="O18">
+        <v>0.467</v>
+      </c>
+      <c r="P18">
+        <v>1.1</v>
+      </c>
+      <c r="Q18">
+        <v>2.1</v>
+      </c>
+      <c r="R18">
+        <v>0.515</v>
+      </c>
+      <c r="S18">
+        <v>0.8</v>
+      </c>
+      <c r="T18">
+        <v>1.1</v>
+      </c>
+      <c r="U18">
+        <v>0.667</v>
+      </c>
+      <c r="V18">
+        <v>1.5</v>
+      </c>
+      <c r="W18">
+        <v>5.6</v>
+      </c>
+      <c r="X18">
+        <v>7</v>
+      </c>
+      <c r="Y18">
+        <v>1.4</v>
+      </c>
+      <c r="Z18">
+        <v>0.7</v>
+      </c>
+      <c r="AA18">
+        <v>0.8</v>
+      </c>
+      <c r="AB18">
+        <v>0.9</v>
+      </c>
+      <c r="AC18">
+        <v>2.9</v>
+      </c>
+      <c r="AD18">
+        <v>9.6</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="I19">
+        <v>-1712</v>
+      </c>
+      <c r="J19">
+        <v>0.5999999999999996</v>
+      </c>
+      <c r="K19">
+        <v>-0.2000000000000002</v>
+      </c>
+      <c r="L19">
+        <v>0.09100000000000003</v>
+      </c>
+      <c r="M19">
+        <v>0.4000000000000001</v>
+      </c>
+      <c r="N19">
+        <v>-0.2000000000000002</v>
+      </c>
+      <c r="O19">
+        <v>0.09600000000000003</v>
+      </c>
+      <c r="P19">
+        <v>0.2000000000000001</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0.08000000000000002</v>
+      </c>
+      <c r="S19">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="T19">
+        <v>0.2000000000000001</v>
+      </c>
+      <c r="U19">
+        <v>-0.05000000000000004</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>-0.1000000000000005</v>
+      </c>
+      <c r="X19">
+        <v>-0.2000000000000002</v>
+      </c>
+      <c r="Y19">
+        <v>0.2</v>
+      </c>
+      <c r="Z19">
+        <v>-0.5</v>
+      </c>
+      <c r="AA19">
+        <v>0.4</v>
+      </c>
+      <c r="AB19">
+        <v>-0.2999999999999999</v>
+      </c>
+      <c r="AC19">
+        <v>-0.3000000000000003</v>
+      </c>
+      <c r="AD19">
+        <v>1.699999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20">
+        <v>82</v>
+      </c>
+      <c r="H20">
+        <v>82</v>
+      </c>
+      <c r="I20">
+        <v>2802</v>
+      </c>
+      <c r="J20">
+        <v>2.7</v>
+      </c>
+      <c r="K20">
+        <v>6.7</v>
+      </c>
+      <c r="L20">
+        <v>0.396</v>
+      </c>
+      <c r="M20">
+        <v>1.9</v>
+      </c>
+      <c r="N20">
+        <v>5</v>
+      </c>
+      <c r="O20">
+        <v>0.377</v>
+      </c>
+      <c r="P20">
+        <v>0.8</v>
+      </c>
+      <c r="Q20">
+        <v>1.7</v>
+      </c>
+      <c r="R20">
+        <v>0.449</v>
+      </c>
+      <c r="S20">
+        <v>0.5</v>
+      </c>
+      <c r="T20">
+        <v>0.8</v>
+      </c>
+      <c r="U20">
+        <v>0.695</v>
+      </c>
+      <c r="V20">
+        <v>1.6</v>
+      </c>
+      <c r="W20">
+        <v>4.6</v>
+      </c>
+      <c r="X20">
+        <v>6.2</v>
+      </c>
+      <c r="Y20">
+        <v>1.2</v>
+      </c>
+      <c r="Z20">
+        <v>1.7</v>
+      </c>
+      <c r="AA20">
+        <v>0.5</v>
+      </c>
+      <c r="AB20">
+        <v>0.8</v>
+      </c>
+      <c r="AC20">
+        <v>3.2</v>
+      </c>
+      <c r="AD20">
+        <v>7.7</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21">
+        <v>11</v>
+      </c>
+      <c r="H21">
+        <v>11</v>
+      </c>
+      <c r="I21">
+        <v>426</v>
+      </c>
+      <c r="J21">
+        <v>3.4</v>
+      </c>
+      <c r="K21">
+        <v>7.4</v>
+      </c>
+      <c r="L21">
+        <v>0.455</v>
+      </c>
+      <c r="M21">
+        <v>2.2</v>
+      </c>
+      <c r="N21">
+        <v>4.8</v>
+      </c>
+      <c r="O21">
+        <v>0.456</v>
+      </c>
+      <c r="P21">
+        <v>1.2</v>
+      </c>
+      <c r="Q21">
+        <v>2.6</v>
+      </c>
+      <c r="R21">
+        <v>0.452</v>
+      </c>
+      <c r="S21">
+        <v>1.6</v>
+      </c>
+      <c r="T21">
+        <v>1.9</v>
+      </c>
+      <c r="U21">
+        <v>0.826</v>
+      </c>
+      <c r="V21">
+        <v>1.6</v>
+      </c>
+      <c r="W21">
+        <v>5.3</v>
+      </c>
+      <c r="X21">
+        <v>6.9</v>
+      </c>
+      <c r="Y21">
+        <v>1.6</v>
+      </c>
+      <c r="Z21">
+        <v>1.6</v>
+      </c>
+      <c r="AA21">
+        <v>0.7</v>
+      </c>
+      <c r="AB21">
+        <v>0.7</v>
+      </c>
+      <c r="AC21">
+        <v>3</v>
+      </c>
+      <c r="AD21">
+        <v>10.6</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="I22">
+        <v>-2376</v>
+      </c>
+      <c r="J22">
+        <v>0.6999999999999997</v>
+      </c>
+      <c r="K22">
+        <v>0.7000000000000002</v>
+      </c>
+      <c r="L22">
+        <v>0.059</v>
+      </c>
+      <c r="M22">
+        <v>0.3000000000000003</v>
+      </c>
+      <c r="N22">
+        <v>-0.2000000000000002</v>
+      </c>
+      <c r="O22">
+        <v>0.07900000000000001</v>
+      </c>
+      <c r="P22">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="Q22">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="R22">
+        <v>0.003000000000000003</v>
+      </c>
+      <c r="S22">
+        <v>1.1</v>
+      </c>
+      <c r="T22">
+        <v>1.1</v>
+      </c>
+      <c r="U22">
+        <v>0.131</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0.7000000000000002</v>
+      </c>
+      <c r="X22">
+        <v>0.7000000000000002</v>
+      </c>
+      <c r="Y22">
+        <v>0.4000000000000001</v>
+      </c>
+      <c r="Z22">
+        <v>-0.09999999999999987</v>
+      </c>
+      <c r="AA22">
+        <v>0.2</v>
+      </c>
+      <c r="AB22">
+        <v>-0.1000000000000001</v>
+      </c>
+      <c r="AC22">
+        <v>-0.2000000000000002</v>
+      </c>
+      <c r="AD22">
+        <v>2.899999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23">
+        <v>72</v>
+      </c>
+      <c r="H23">
+        <v>72</v>
+      </c>
+      <c r="I23">
+        <v>2467</v>
+      </c>
+      <c r="J23">
+        <v>2.6</v>
+      </c>
+      <c r="K23">
+        <v>6.2</v>
+      </c>
+      <c r="L23">
+        <v>0.415</v>
+      </c>
+      <c r="M23">
+        <v>1.6</v>
+      </c>
+      <c r="N23">
+        <v>4.4</v>
+      </c>
+      <c r="O23">
+        <v>0.358</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>1.9</v>
+      </c>
+      <c r="R23">
+        <v>0.551</v>
+      </c>
+      <c r="S23">
+        <v>0.6</v>
+      </c>
+      <c r="T23">
+        <v>0.7</v>
+      </c>
+      <c r="U23">
+        <v>0.8129999999999999</v>
+      </c>
+      <c r="V23">
+        <v>1.6</v>
+      </c>
+      <c r="W23">
+        <v>5.3</v>
+      </c>
+      <c r="X23">
+        <v>6.9</v>
+      </c>
+      <c r="Y23">
+        <v>1.7</v>
+      </c>
+      <c r="Z23">
+        <v>1.1</v>
+      </c>
+      <c r="AA23">
+        <v>0.5</v>
+      </c>
+      <c r="AB23">
+        <v>1.1</v>
+      </c>
+      <c r="AC23">
+        <v>3.3</v>
+      </c>
+      <c r="AD23">
+        <v>7.3</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24">
+        <v>12</v>
+      </c>
+      <c r="H24">
+        <v>12</v>
+      </c>
+      <c r="I24">
+        <v>414</v>
+      </c>
+      <c r="J24">
+        <v>3</v>
+      </c>
+      <c r="K24">
+        <v>7.7</v>
+      </c>
+      <c r="L24">
+        <v>0.398</v>
+      </c>
+      <c r="M24">
+        <v>2.2</v>
+      </c>
+      <c r="N24">
+        <v>5.8</v>
+      </c>
+      <c r="O24">
+        <v>0.373</v>
+      </c>
+      <c r="P24">
+        <v>0.9</v>
+      </c>
+      <c r="Q24">
+        <v>1.8</v>
+      </c>
+      <c r="R24">
+        <v>0.476</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>2</v>
+      </c>
+      <c r="W24">
+        <v>5.5</v>
+      </c>
+      <c r="X24">
+        <v>7.5</v>
+      </c>
+      <c r="Y24">
+        <v>1.6</v>
+      </c>
+      <c r="Z24">
+        <v>1.1</v>
+      </c>
+      <c r="AA24">
+        <v>0.3</v>
+      </c>
+      <c r="AB24">
+        <v>1</v>
+      </c>
+      <c r="AC24">
+        <v>4.1</v>
+      </c>
+      <c r="AD24">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="I25">
+        <v>-2053</v>
+      </c>
+      <c r="J25">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="K25">
+        <v>1.5</v>
+      </c>
+      <c r="L25">
+        <v>-0.01700000000000002</v>
+      </c>
+      <c r="M25">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="N25">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="O25">
+        <v>0.01500000000000001</v>
+      </c>
+      <c r="P25">
+        <v>-0.09999999999999998</v>
+      </c>
+      <c r="Q25">
+        <v>-0.09999999999999987</v>
+      </c>
+      <c r="R25">
+        <v>-0.07500000000000001</v>
+      </c>
+      <c r="S25">
+        <v>-0.6</v>
+      </c>
+      <c r="T25">
+        <v>-0.7</v>
+      </c>
+      <c r="V25">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="W25">
+        <v>0.2000000000000002</v>
+      </c>
+      <c r="X25">
+        <v>0.5999999999999996</v>
+      </c>
+      <c r="Y25">
+        <v>-0.09999999999999987</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>-0.2</v>
+      </c>
+      <c r="AB25">
+        <v>-0.1000000000000001</v>
+      </c>
+      <c r="AC25">
+        <v>0.7999999999999998</v>
+      </c>
+      <c r="AD25">
+        <v>1.000000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26">
+        <v>47</v>
+      </c>
+      <c r="H26">
+        <v>33</v>
+      </c>
+      <c r="I26">
+        <v>1254</v>
+      </c>
+      <c r="J26">
+        <v>1.8</v>
+      </c>
+      <c r="K26">
+        <v>4.7</v>
+      </c>
+      <c r="L26">
+        <v>0.382</v>
+      </c>
+      <c r="M26">
+        <v>1.1</v>
+      </c>
+      <c r="N26">
+        <v>3.2</v>
+      </c>
+      <c r="O26">
+        <v>0.345</v>
+      </c>
+      <c r="P26">
+        <v>0.7</v>
+      </c>
+      <c r="Q26">
+        <v>1.6</v>
+      </c>
+      <c r="R26">
+        <v>0.455</v>
+      </c>
+      <c r="S26">
+        <v>0.5</v>
+      </c>
+      <c r="T26">
+        <v>0.7</v>
+      </c>
+      <c r="U26">
+        <v>0.75</v>
+      </c>
+      <c r="V26">
+        <v>1.4</v>
+      </c>
+      <c r="W26">
+        <v>4.1</v>
+      </c>
+      <c r="X26">
+        <v>5.5</v>
+      </c>
+      <c r="Y26">
+        <v>1.6</v>
+      </c>
+      <c r="Z26">
+        <v>1.1</v>
+      </c>
+      <c r="AA26">
+        <v>0.6</v>
+      </c>
+      <c r="AB26">
+        <v>1.1</v>
+      </c>
+      <c r="AC26">
+        <v>3.4</v>
+      </c>
+      <c r="AD26">
+        <v>5.2</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27">
+        <v>32</v>
+      </c>
+      <c r="H27">
+        <v>32</v>
+      </c>
+      <c r="I27">
+        <v>959</v>
+      </c>
+      <c r="J27">
+        <v>1.8</v>
+      </c>
+      <c r="K27">
+        <v>4.9</v>
+      </c>
+      <c r="L27">
+        <v>0.366</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>3.2</v>
+      </c>
+      <c r="O27">
+        <v>0.314</v>
+      </c>
+      <c r="P27">
+        <v>0.8</v>
+      </c>
+      <c r="Q27">
+        <v>1.7</v>
+      </c>
+      <c r="R27">
+        <v>0.467</v>
+      </c>
+      <c r="S27">
+        <v>0.7</v>
+      </c>
+      <c r="T27">
+        <v>0.9</v>
+      </c>
+      <c r="U27">
+        <v>0.7829999999999999</v>
+      </c>
+      <c r="V27">
+        <v>1.2</v>
+      </c>
+      <c r="W27">
+        <v>4.3</v>
+      </c>
+      <c r="X27">
+        <v>5.6</v>
+      </c>
+      <c r="Y27">
+        <v>1.7</v>
+      </c>
+      <c r="Z27">
+        <v>1.1</v>
+      </c>
+      <c r="AA27">
+        <v>0.7</v>
+      </c>
+      <c r="AB27">
+        <v>1.2</v>
+      </c>
+      <c r="AC27">
+        <v>3.4</v>
+      </c>
+      <c r="AD27">
+        <v>5.3</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" t="s">
+        <v>77</v>
+      </c>
+      <c r="F28" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28">
+        <v>15</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>295</v>
+      </c>
+      <c r="J28">
+        <v>1.8</v>
+      </c>
+      <c r="K28">
+        <v>4.1</v>
+      </c>
+      <c r="L28">
+        <v>0.441</v>
+      </c>
+      <c r="M28">
+        <v>1.3</v>
+      </c>
+      <c r="N28">
+        <v>2.9</v>
+      </c>
+      <c r="O28">
+        <v>0.458</v>
+      </c>
+      <c r="P28">
+        <v>0.5</v>
+      </c>
+      <c r="Q28">
+        <v>1.2</v>
+      </c>
+      <c r="R28">
+        <v>0.4</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0.1</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>2</v>
+      </c>
+      <c r="W28">
+        <v>3.5</v>
+      </c>
+      <c r="X28">
+        <v>5.5</v>
+      </c>
+      <c r="Y28">
+        <v>1.1</v>
+      </c>
+      <c r="Z28">
+        <v>1.1</v>
+      </c>
+      <c r="AA28">
+        <v>0.2</v>
+      </c>
+      <c r="AB28">
+        <v>0.7</v>
+      </c>
+      <c r="AC28">
+        <v>3.5</v>
+      </c>
+      <c r="AD28">
+        <v>5</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30">
+        <v>268</v>
+      </c>
+      <c r="H30">
+        <v>220</v>
+      </c>
+      <c r="I30">
+        <v>8509</v>
+      </c>
+      <c r="J30">
+        <v>2.6</v>
+      </c>
+      <c r="K30">
+        <v>6.4</v>
+      </c>
+      <c r="L30">
+        <v>0.397</v>
+      </c>
+      <c r="M30">
+        <v>1.7</v>
+      </c>
+      <c r="N30">
+        <v>4.6</v>
+      </c>
+      <c r="O30">
+        <v>0.365</v>
+      </c>
+      <c r="P30">
+        <v>0.9</v>
+      </c>
+      <c r="Q30">
+        <v>1.9</v>
+      </c>
+      <c r="R30">
+        <v>0.476</v>
+      </c>
+      <c r="S30">
+        <v>0.6</v>
+      </c>
+      <c r="T30">
+        <v>0.8</v>
+      </c>
+      <c r="U30">
+        <v>0.742</v>
+      </c>
+      <c r="V30">
+        <v>1.5</v>
+      </c>
+      <c r="W30">
+        <v>5.1</v>
+      </c>
+      <c r="X30">
+        <v>6.6</v>
+      </c>
+      <c r="Y30">
+        <v>1.4</v>
+      </c>
+      <c r="Z30">
+        <v>1.3</v>
+      </c>
+      <c r="AA30">
+        <v>0.5</v>
+      </c>
+      <c r="AB30">
+        <v>1</v>
+      </c>
+      <c r="AC30">
+        <v>3.3</v>
+      </c>
+      <c r="AD30">
+        <v>7.4</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" t="s">
+        <v>77</v>
+      </c>
+      <c r="G31">
+        <v>40</v>
+      </c>
+      <c r="H31">
+        <v>40</v>
+      </c>
+      <c r="I31">
+        <v>1409</v>
+      </c>
+      <c r="J31">
+        <v>3.2</v>
+      </c>
+      <c r="K31">
+        <v>7.3</v>
+      </c>
+      <c r="L31">
+        <v>0.447</v>
+      </c>
+      <c r="M31">
+        <v>2.2</v>
+      </c>
+      <c r="N31">
+        <v>5.1</v>
+      </c>
+      <c r="O31">
+        <v>0.4320000000000001</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>2.2</v>
+      </c>
+      <c r="R31">
+        <v>0.482</v>
+      </c>
+      <c r="S31">
+        <v>0.8</v>
+      </c>
+      <c r="T31">
+        <v>1</v>
+      </c>
+      <c r="U31">
+        <v>0.7559999999999999</v>
+      </c>
+      <c r="V31">
+        <v>1.7</v>
+      </c>
+      <c r="W31">
+        <v>5.5</v>
+      </c>
+      <c r="X31">
+        <v>7.1</v>
+      </c>
+      <c r="Y31">
+        <v>1.5</v>
+      </c>
+      <c r="Z31">
+        <v>1.1</v>
+      </c>
+      <c r="AA31">
+        <v>0.6</v>
+      </c>
+      <c r="AB31">
+        <v>0.9</v>
+      </c>
+      <c r="AC31">
+        <v>3.3</v>
+      </c>
+      <c r="AD31">
+        <v>9.5</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="I32">
+        <v>-7100</v>
+      </c>
+      <c r="J32">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="K32">
+        <v>0.8999999999999995</v>
+      </c>
+      <c r="L32">
+        <v>0.04999999999999999</v>
+      </c>
+      <c r="M32">
+        <v>0.5000000000000002</v>
+      </c>
+      <c r="N32">
+        <v>0.5</v>
+      </c>
+      <c r="O32">
+        <v>0.06700000000000006</v>
+      </c>
+      <c r="P32">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="Q32">
+        <v>0.3000000000000003</v>
+      </c>
+      <c r="R32">
+        <v>0.006000000000000005</v>
+      </c>
+      <c r="S32">
+        <v>0.2000000000000001</v>
+      </c>
+      <c r="T32">
+        <v>0.2</v>
+      </c>
+      <c r="U32">
+        <v>0.0139999999999999</v>
+      </c>
+      <c r="V32">
+        <v>0.2</v>
+      </c>
+      <c r="W32">
+        <v>0.4000000000000004</v>
+      </c>
+      <c r="X32">
+        <v>0.5</v>
+      </c>
+      <c r="Y32">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="Z32">
+        <v>-0.2</v>
+      </c>
+      <c r="AA32">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="AB32">
+        <v>-0.09999999999999998</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" t="s">
+        <v>77</v>
+      </c>
+      <c r="G33">
+        <v>15</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>295</v>
+      </c>
+      <c r="J33">
+        <v>1.8</v>
+      </c>
+      <c r="K33">
+        <v>4.1</v>
+      </c>
+      <c r="L33">
+        <v>0.441</v>
+      </c>
+      <c r="M33">
+        <v>1.3</v>
+      </c>
+      <c r="N33">
+        <v>2.9</v>
+      </c>
+      <c r="O33">
+        <v>0.458</v>
+      </c>
+      <c r="P33">
+        <v>0.5</v>
+      </c>
+      <c r="Q33">
+        <v>1.2</v>
+      </c>
+      <c r="R33">
+        <v>0.4</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0.1</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>2</v>
+      </c>
+      <c r="W33">
+        <v>3.5</v>
+      </c>
+      <c r="X33">
+        <v>5.5</v>
+      </c>
+      <c r="Y33">
+        <v>1.1</v>
+      </c>
+      <c r="Z33">
+        <v>1.1</v>
+      </c>
+      <c r="AA33">
+        <v>0.2</v>
+      </c>
+      <c r="AB33">
+        <v>0.7</v>
+      </c>
+      <c r="AC33">
+        <v>3.5</v>
+      </c>
+      <c r="AD33">
+        <v>5</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" t="s">
+        <v>77</v>
+      </c>
+      <c r="G35">
+        <v>377</v>
+      </c>
+      <c r="H35">
+        <v>286</v>
+      </c>
+      <c r="I35">
+        <v>10950</v>
+      </c>
+      <c r="J35">
+        <v>3.7</v>
+      </c>
+      <c r="K35">
+        <v>8.5</v>
+      </c>
+      <c r="L35">
+        <v>0.433</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>2.8</v>
+      </c>
+      <c r="O35">
+        <v>0.347</v>
+      </c>
+      <c r="P35">
+        <v>2.7</v>
+      </c>
+      <c r="Q35">
+        <v>5.7</v>
+      </c>
+      <c r="R35">
+        <v>0.475</v>
+      </c>
+      <c r="S35">
+        <v>1.6</v>
+      </c>
+      <c r="T35">
+        <v>2.1</v>
+      </c>
+      <c r="U35">
+        <v>0.757</v>
+      </c>
+      <c r="V35">
+        <v>2.2</v>
+      </c>
+      <c r="W35">
+        <v>5.2</v>
+      </c>
+      <c r="X35">
+        <v>7.3</v>
+      </c>
+      <c r="Y35">
+        <v>2</v>
+      </c>
+      <c r="Z35">
+        <v>1.5</v>
+      </c>
+      <c r="AA35">
+        <v>0.3</v>
+      </c>
+      <c r="AB35">
+        <v>1.4</v>
+      </c>
+      <c r="AC35">
+        <v>2.9</v>
+      </c>
+      <c r="AD35">
+        <v>10</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" t="s">
+        <v>67</v>
+      </c>
+      <c r="E37" t="s">
+        <v>77</v>
+      </c>
+      <c r="G37">
+        <v>41</v>
+      </c>
+      <c r="H37">
+        <v>4</v>
+      </c>
+      <c r="I37">
+        <v>692</v>
+      </c>
+      <c r="J37">
+        <v>3.3</v>
+      </c>
+      <c r="K37">
+        <v>7.8</v>
+      </c>
+      <c r="L37">
+        <v>0.42</v>
+      </c>
+      <c r="M37">
+        <v>1.2</v>
+      </c>
+      <c r="N37">
+        <v>3.1</v>
+      </c>
+      <c r="O37">
+        <v>0.4</v>
+      </c>
+      <c r="P37">
+        <v>2</v>
+      </c>
+      <c r="Q37">
+        <v>4.7</v>
+      </c>
+      <c r="R37">
+        <v>0.433</v>
+      </c>
+      <c r="S37">
+        <v>1</v>
+      </c>
+      <c r="T37">
+        <v>1.6</v>
+      </c>
+      <c r="U37">
+        <v>0.633</v>
+      </c>
+      <c r="V37">
+        <v>1.8</v>
+      </c>
+      <c r="W37">
+        <v>6.1</v>
+      </c>
+      <c r="X37">
+        <v>7.9</v>
+      </c>
+      <c r="Y37">
+        <v>1.5</v>
+      </c>
+      <c r="Z37">
+        <v>1.7</v>
+      </c>
+      <c r="AA37">
+        <v>0.3</v>
+      </c>
+      <c r="AB37">
+        <v>1</v>
+      </c>
+      <c r="AC37">
+        <v>3.4</v>
+      </c>
+      <c r="AD37">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38" t="s">
+        <v>77</v>
+      </c>
+      <c r="G38">
+        <v>10</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>251</v>
+      </c>
+      <c r="J38">
+        <v>2.6</v>
+      </c>
+      <c r="K38">
+        <v>7</v>
+      </c>
+      <c r="L38">
+        <v>0.367</v>
+      </c>
+      <c r="M38">
+        <v>1.3</v>
+      </c>
+      <c r="N38">
+        <v>4</v>
+      </c>
+      <c r="O38">
+        <v>0.321</v>
+      </c>
+      <c r="P38">
+        <v>1.3</v>
+      </c>
+      <c r="Q38">
+        <v>3</v>
+      </c>
+      <c r="R38">
+        <v>0.429</v>
+      </c>
+      <c r="S38">
+        <v>0.7</v>
+      </c>
+      <c r="T38">
+        <v>1.1</v>
+      </c>
+      <c r="U38">
+        <v>0.625</v>
+      </c>
+      <c r="V38">
+        <v>2.2</v>
+      </c>
+      <c r="W38">
+        <v>6</v>
+      </c>
+      <c r="X38">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y38">
+        <v>1.6</v>
+      </c>
+      <c r="Z38">
+        <v>0.9</v>
+      </c>
+      <c r="AA38">
+        <v>0.4</v>
+      </c>
+      <c r="AB38">
+        <v>1.1</v>
+      </c>
+      <c r="AC38">
+        <v>3.9</v>
+      </c>
+      <c r="AD38">
+        <v>7.2</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="I39">
+        <v>-441</v>
+      </c>
+      <c r="J39">
+        <v>-0.6999999999999997</v>
+      </c>
+      <c r="K39">
+        <v>-0.7999999999999998</v>
+      </c>
+      <c r="L39">
+        <v>-0.05299999999999994</v>
+      </c>
+      <c r="M39">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="N39">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="O39">
+        <v>-0.07900000000000001</v>
+      </c>
+      <c r="P39">
+        <v>-0.7</v>
+      </c>
+      <c r="Q39">
+        <v>-1.7</v>
+      </c>
+      <c r="R39">
+        <v>-0.004000000000000004</v>
+      </c>
+      <c r="S39">
+        <v>-0.3</v>
+      </c>
+      <c r="T39">
+        <v>-0.5</v>
+      </c>
+      <c r="U39">
+        <v>-0.008000000000000007</v>
+      </c>
+      <c r="V39">
+        <v>0.4000000000000001</v>
+      </c>
+      <c r="W39">
+        <v>-0.09999999999999964</v>
+      </c>
+      <c r="X39">
+        <v>0.2999999999999989</v>
+      </c>
+      <c r="Y39">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="Z39">
+        <v>-0.7999999999999999</v>
+      </c>
+      <c r="AA39">
+        <v>0.1</v>
+      </c>
+      <c r="AB39">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="AC39">
+        <v>0.5</v>
+      </c>
+      <c r="AD39">
+        <v>-1.600000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40" t="s">
+        <v>77</v>
+      </c>
+      <c r="G40">
+        <v>701</v>
+      </c>
+      <c r="H40">
+        <v>511</v>
+      </c>
+      <c r="I40">
+        <v>20446</v>
+      </c>
+      <c r="J40">
+        <v>3.2</v>
+      </c>
+      <c r="K40">
+        <v>7.6</v>
+      </c>
+      <c r="L40">
+        <v>0.42</v>
+      </c>
+      <c r="M40">
+        <v>1.3</v>
+      </c>
+      <c r="N40">
+        <v>3.6</v>
+      </c>
+      <c r="O40">
+        <v>0.36</v>
+      </c>
+      <c r="P40">
+        <v>1.9</v>
+      </c>
+      <c r="Q40">
+        <v>4</v>
+      </c>
+      <c r="R40">
+        <v>0.473</v>
+      </c>
+      <c r="S40">
+        <v>1.1</v>
+      </c>
+      <c r="T40">
+        <v>1.5</v>
+      </c>
+      <c r="U40">
+        <v>0.748</v>
+      </c>
+      <c r="V40">
+        <v>1.9</v>
+      </c>
+      <c r="W40">
+        <v>5.1</v>
+      </c>
+      <c r="X40">
+        <v>7</v>
+      </c>
+      <c r="Y40">
+        <v>1.7</v>
+      </c>
+      <c r="Z40">
+        <v>1.5</v>
+      </c>
+      <c r="AA40">
+        <v>0.4</v>
+      </c>
+      <c r="AB40">
+        <v>1.2</v>
+      </c>
+      <c r="AC40">
+        <v>3.1</v>
+      </c>
+      <c r="AD40">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" t="s">
+        <v>77</v>
+      </c>
+      <c r="G41">
+        <v>50</v>
+      </c>
+      <c r="H41">
+        <v>41</v>
+      </c>
+      <c r="I41">
+        <v>1660</v>
+      </c>
+      <c r="J41">
+        <v>3.1</v>
+      </c>
+      <c r="K41">
+        <v>7.2</v>
+      </c>
+      <c r="L41">
+        <v>0.435</v>
+      </c>
+      <c r="M41">
+        <v>2.1</v>
+      </c>
+      <c r="N41">
+        <v>4.9</v>
+      </c>
+      <c r="O41">
+        <v>0.419</v>
+      </c>
+      <c r="P41">
+        <v>1.1</v>
+      </c>
+      <c r="Q41">
+        <v>2.3</v>
+      </c>
+      <c r="R41">
+        <v>0.472</v>
+      </c>
+      <c r="S41">
+        <v>0.8</v>
+      </c>
+      <c r="T41">
+        <v>1.1</v>
+      </c>
+      <c r="U41">
+        <v>0.735</v>
+      </c>
+      <c r="V41">
+        <v>1.7</v>
+      </c>
+      <c r="W41">
+        <v>5.6</v>
+      </c>
+      <c r="X41">
+        <v>7.3</v>
+      </c>
+      <c r="Y41">
+        <v>1.5</v>
+      </c>
+      <c r="Z41">
+        <v>1.1</v>
+      </c>
+      <c r="AA41">
+        <v>0.6</v>
+      </c>
+      <c r="AB41">
+        <v>0.9</v>
+      </c>
+      <c r="AC41">
+        <v>3.4</v>
+      </c>
+      <c r="AD41">
+        <v>9.1</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="I42">
+        <v>-18786</v>
+      </c>
+      <c r="J42">
+        <v>-0.1000000000000001</v>
+      </c>
+      <c r="K42">
+        <v>-0.3999999999999995</v>
+      </c>
+      <c r="L42">
+        <v>0.01500000000000001</v>
+      </c>
+      <c r="M42">
+        <v>0.8</v>
+      </c>
+      <c r="N42">
+        <v>1.3</v>
+      </c>
+      <c r="O42">
+        <v>0.059</v>
+      </c>
+      <c r="P42">
+        <v>-0.7999999999999998</v>
+      </c>
+      <c r="Q42">
+        <v>-1.7</v>
+      </c>
+      <c r="R42">
+        <v>-0.0009999999999999454</v>
+      </c>
+      <c r="S42">
+        <v>-0.3</v>
+      </c>
+      <c r="T42">
+        <v>-0.3999999999999999</v>
+      </c>
+      <c r="U42">
+        <v>-0.01300000000000001</v>
+      </c>
+      <c r="V42">
+        <v>-0.2</v>
+      </c>
+      <c r="W42">
+        <v>0.5</v>
+      </c>
+      <c r="X42">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="Y42">
+        <v>-0.2</v>
+      </c>
+      <c r="Z42">
+        <v>-0.3999999999999999</v>
+      </c>
+      <c r="AA42">
+        <v>0.2</v>
+      </c>
+      <c r="AB42">
+        <v>-0.2999999999999999</v>
+      </c>
+      <c r="AC42">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="AD42">
+        <v>0.2999999999999989</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AH42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:34">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2">
+        <v>17</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>83</v>
+      </c>
+      <c r="J2">
+        <v>6.9</v>
+      </c>
+      <c r="K2">
+        <v>13.7</v>
+      </c>
+      <c r="L2">
+        <v>0.5</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>6.9</v>
+      </c>
+      <c r="Q2">
+        <v>13.7</v>
+      </c>
+      <c r="R2">
+        <v>0.5</v>
+      </c>
+      <c r="S2">
+        <v>5</v>
+      </c>
+      <c r="T2">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="U2">
+        <v>0.5710000000000001</v>
+      </c>
+      <c r="V2">
+        <v>6.9</v>
+      </c>
+      <c r="W2">
+        <v>7.5</v>
+      </c>
+      <c r="X2">
+        <v>14.4</v>
+      </c>
+      <c r="Y2">
+        <v>1.9</v>
+      </c>
+      <c r="Z2">
+        <v>1.2</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>3.7</v>
+      </c>
+      <c r="AC2">
+        <v>7.5</v>
+      </c>
+      <c r="AD2">
+        <v>18.7</v>
+      </c>
+      <c r="AF2">
+        <v>104</v>
+      </c>
+      <c r="AG2">
+        <v>107</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4">
+        <v>79</v>
+      </c>
+      <c r="H4">
+        <v>45</v>
+      </c>
+      <c r="I4">
+        <v>1910</v>
+      </c>
+      <c r="J4">
+        <v>5.6</v>
+      </c>
+      <c r="K4">
+        <v>11.9</v>
+      </c>
+      <c r="L4">
+        <v>0.473</v>
+      </c>
+      <c r="M4">
+        <v>0.6</v>
+      </c>
+      <c r="N4">
+        <v>1.9</v>
+      </c>
+      <c r="O4">
+        <v>0.314</v>
+      </c>
+      <c r="P4">
+        <v>5.1</v>
+      </c>
+      <c r="Q4">
+        <v>10.1</v>
+      </c>
+      <c r="R4">
+        <v>0.503</v>
+      </c>
+      <c r="S4">
+        <v>1.7</v>
+      </c>
+      <c r="T4">
+        <v>2.3</v>
+      </c>
+      <c r="U4">
+        <v>0.7440000000000001</v>
+      </c>
+      <c r="V4">
+        <v>3.5</v>
+      </c>
+      <c r="W4">
+        <v>5.9</v>
+      </c>
+      <c r="X4">
+        <v>9.4</v>
+      </c>
+      <c r="Y4">
+        <v>2.9</v>
+      </c>
+      <c r="Z4">
+        <v>1.7</v>
+      </c>
+      <c r="AA4">
+        <v>0.5</v>
+      </c>
+      <c r="AB4">
+        <v>1.8</v>
+      </c>
+      <c r="AC4">
+        <v>3.9</v>
+      </c>
+      <c r="AD4">
+        <v>13.6</v>
+      </c>
+      <c r="AF4">
+        <v>109</v>
+      </c>
+      <c r="AG4">
+        <v>109</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6">
+        <v>81</v>
+      </c>
+      <c r="H6">
+        <v>81</v>
+      </c>
+      <c r="I6">
+        <v>2490</v>
+      </c>
+      <c r="J6">
+        <v>5.3</v>
+      </c>
+      <c r="K6">
+        <v>12.4</v>
+      </c>
+      <c r="L6">
+        <v>0.431</v>
+      </c>
+      <c r="M6">
+        <v>1.5</v>
+      </c>
+      <c r="N6">
+        <v>3.8</v>
+      </c>
+      <c r="O6">
+        <v>0.387</v>
+      </c>
+      <c r="P6">
+        <v>3.8</v>
+      </c>
+      <c r="Q6">
+        <v>8.5</v>
+      </c>
+      <c r="R6">
+        <v>0.45</v>
+      </c>
+      <c r="S6">
+        <v>3.1</v>
+      </c>
+      <c r="T6">
+        <v>4</v>
+      </c>
+      <c r="U6">
+        <v>0.7759999999999999</v>
+      </c>
+      <c r="V6">
+        <v>3.2</v>
+      </c>
+      <c r="W6">
+        <v>7.4</v>
+      </c>
+      <c r="X6">
+        <v>10.6</v>
+      </c>
+      <c r="Y6">
+        <v>2.8</v>
+      </c>
+      <c r="Z6">
+        <v>2.2</v>
+      </c>
+      <c r="AA6">
+        <v>0.5</v>
+      </c>
+      <c r="AB6">
+        <v>2.1</v>
+      </c>
+      <c r="AC6">
+        <v>4.1</v>
+      </c>
+      <c r="AD6">
+        <v>15.3</v>
+      </c>
+      <c r="AF6">
+        <v>113</v>
+      </c>
+      <c r="AG6">
+        <v>106</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8">
+        <v>78</v>
+      </c>
+      <c r="H8">
+        <v>63</v>
+      </c>
+      <c r="I8">
+        <v>2383</v>
+      </c>
+      <c r="J8">
+        <v>5.5</v>
+      </c>
+      <c r="K8">
+        <v>12.5</v>
+      </c>
+      <c r="L8">
+        <v>0.4379999999999999</v>
+      </c>
+      <c r="M8">
+        <v>1.8</v>
+      </c>
+      <c r="N8">
+        <v>5.3</v>
+      </c>
+      <c r="O8">
+        <v>0.345</v>
+      </c>
+      <c r="P8">
+        <v>3.6</v>
+      </c>
+      <c r="Q8">
+        <v>7.2</v>
+      </c>
+      <c r="R8">
+        <v>0.506</v>
+      </c>
+      <c r="S8">
+        <v>2.2</v>
+      </c>
+      <c r="T8">
+        <v>3</v>
+      </c>
+      <c r="U8">
+        <v>0.727</v>
+      </c>
+      <c r="V8">
+        <v>2.4</v>
+      </c>
+      <c r="W8">
+        <v>8.1</v>
+      </c>
+      <c r="X8">
+        <v>10.5</v>
+      </c>
+      <c r="Y8">
+        <v>2.6</v>
+      </c>
+      <c r="Z8">
+        <v>2.2</v>
+      </c>
+      <c r="AA8">
+        <v>0.5</v>
+      </c>
+      <c r="AB8">
+        <v>2</v>
+      </c>
+      <c r="AC8">
+        <v>3.7</v>
+      </c>
+      <c r="AD8">
+        <v>14.9</v>
+      </c>
+      <c r="AF8">
+        <v>108</v>
+      </c>
+      <c r="AG8">
+        <v>105</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10">
+        <v>82</v>
+      </c>
+      <c r="H10">
+        <v>80</v>
+      </c>
+      <c r="I10">
+        <v>2540</v>
+      </c>
+      <c r="J10">
+        <v>4.6</v>
+      </c>
+      <c r="K10">
+        <v>11.2</v>
+      </c>
+      <c r="L10">
+        <v>0.411</v>
+      </c>
+      <c r="M10">
+        <v>1.3</v>
+      </c>
+      <c r="N10">
+        <v>4</v>
+      </c>
+      <c r="O10">
+        <v>0.33</v>
+      </c>
+      <c r="P10">
+        <v>3.3</v>
+      </c>
+      <c r="Q10">
+        <v>7.2</v>
+      </c>
+      <c r="R10">
+        <v>0.455</v>
+      </c>
+      <c r="S10">
+        <v>2</v>
+      </c>
+      <c r="T10">
+        <v>2.7</v>
+      </c>
+      <c r="U10">
+        <v>0.746</v>
+      </c>
+      <c r="V10">
+        <v>3.2</v>
+      </c>
+      <c r="W10">
+        <v>6.7</v>
+      </c>
+      <c r="X10">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y10">
+        <v>3.4</v>
+      </c>
+      <c r="Z10">
+        <v>2</v>
+      </c>
+      <c r="AA10">
+        <v>0.4</v>
+      </c>
+      <c r="AB10">
+        <v>2.1</v>
+      </c>
+      <c r="AC10">
+        <v>3.9</v>
+      </c>
+      <c r="AD10">
+        <v>12.5</v>
+      </c>
+      <c r="AF10">
+        <v>105</v>
+      </c>
+      <c r="AG10">
+        <v>109</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12">
+        <v>81</v>
+      </c>
+      <c r="H12">
+        <v>21</v>
+      </c>
+      <c r="I12">
+        <v>2236</v>
+      </c>
+      <c r="J12">
+        <v>4.3</v>
+      </c>
+      <c r="K12">
+        <v>10.5</v>
+      </c>
+      <c r="L12">
+        <v>0.413</v>
+      </c>
+      <c r="M12">
+        <v>1.5</v>
+      </c>
+      <c r="N12">
+        <v>4.3</v>
+      </c>
+      <c r="O12">
+        <v>0.357</v>
+      </c>
+      <c r="P12">
+        <v>2.8</v>
+      </c>
+      <c r="Q12">
+        <v>6.2</v>
+      </c>
+      <c r="R12">
+        <v>0.451</v>
+      </c>
+      <c r="S12">
+        <v>1.6</v>
+      </c>
+      <c r="T12">
+        <v>2</v>
+      </c>
+      <c r="U12">
+        <v>0.774</v>
+      </c>
+      <c r="V12">
+        <v>2.5</v>
+      </c>
+      <c r="W12">
+        <v>7.7</v>
+      </c>
+      <c r="X12">
+        <v>10.2</v>
+      </c>
+      <c r="Y12">
+        <v>2.2</v>
+      </c>
+      <c r="Z12">
+        <v>2.5</v>
+      </c>
+      <c r="AA12">
+        <v>0.4</v>
+      </c>
+      <c r="AB12">
+        <v>1.4</v>
+      </c>
+      <c r="AC12">
+        <v>4.3</v>
+      </c>
+      <c r="AD12">
+        <v>11.7</v>
+      </c>
+      <c r="AF12">
+        <v>109</v>
+      </c>
+      <c r="AG12">
+        <v>109</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13">
+        <v>57</v>
+      </c>
+      <c r="H13">
+        <v>17</v>
+      </c>
+      <c r="I13">
+        <v>1627</v>
+      </c>
+      <c r="J13">
+        <v>4.3</v>
+      </c>
+      <c r="K13">
+        <v>10.4</v>
+      </c>
+      <c r="L13">
+        <v>0.415</v>
+      </c>
+      <c r="M13">
+        <v>1.4</v>
+      </c>
+      <c r="N13">
+        <v>4</v>
+      </c>
+      <c r="O13">
+        <v>0.338</v>
+      </c>
+      <c r="P13">
+        <v>3</v>
+      </c>
+      <c r="Q13">
+        <v>6.4</v>
+      </c>
+      <c r="R13">
+        <v>0.463</v>
+      </c>
+      <c r="S13">
+        <v>1.8</v>
+      </c>
+      <c r="T13">
+        <v>2.3</v>
+      </c>
+      <c r="U13">
+        <v>0.792</v>
+      </c>
+      <c r="V13">
+        <v>2.8</v>
+      </c>
+      <c r="W13">
+        <v>7.3</v>
+      </c>
+      <c r="X13">
+        <v>10.1</v>
+      </c>
+      <c r="Y13">
+        <v>2.1</v>
+      </c>
+      <c r="Z13">
+        <v>2.5</v>
+      </c>
+      <c r="AA13">
+        <v>0.4</v>
+      </c>
+      <c r="AB13">
+        <v>1.5</v>
+      </c>
+      <c r="AC13">
+        <v>4.2</v>
+      </c>
+      <c r="AD13">
+        <v>11.8</v>
+      </c>
+      <c r="AF13">
+        <v>109</v>
+      </c>
+      <c r="AG13">
+        <v>111</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14">
+        <v>24</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>609</v>
+      </c>
+      <c r="J14">
+        <v>4.3</v>
+      </c>
+      <c r="K14">
+        <v>10.7</v>
+      </c>
+      <c r="L14">
+        <v>0.406</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
+      <c r="N14">
+        <v>5</v>
+      </c>
+      <c r="O14">
+        <v>0.4</v>
+      </c>
+      <c r="P14">
+        <v>2.3</v>
+      </c>
+      <c r="Q14">
+        <v>5.7</v>
+      </c>
+      <c r="R14">
+        <v>0.412</v>
+      </c>
+      <c r="S14">
+        <v>0.9</v>
+      </c>
+      <c r="T14">
+        <v>1.3</v>
+      </c>
+      <c r="U14">
+        <v>0.6879999999999999</v>
+      </c>
+      <c r="V14">
+        <v>1.9</v>
+      </c>
+      <c r="W14">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="X14">
+        <v>10.7</v>
+      </c>
+      <c r="Y14">
+        <v>2.2</v>
+      </c>
+      <c r="Z14">
+        <v>2.6</v>
+      </c>
+      <c r="AA14">
+        <v>0.4</v>
+      </c>
+      <c r="AB14">
+        <v>1.2</v>
+      </c>
+      <c r="AC14">
+        <v>4.4</v>
+      </c>
+      <c r="AD14">
+        <v>11.6</v>
+      </c>
+      <c r="AF14">
+        <v>110</v>
+      </c>
+      <c r="AG14">
+        <v>106</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>251</v>
+      </c>
+      <c r="J15">
+        <v>3.7</v>
+      </c>
+      <c r="K15">
+        <v>10.1</v>
+      </c>
+      <c r="L15">
+        <v>0.367</v>
+      </c>
+      <c r="M15">
+        <v>1.8</v>
+      </c>
+      <c r="N15">
+        <v>5.7</v>
+      </c>
+      <c r="O15">
+        <v>0.321</v>
+      </c>
+      <c r="P15">
+        <v>1.8</v>
+      </c>
+      <c r="Q15">
+        <v>4.3</v>
+      </c>
+      <c r="R15">
+        <v>0.429</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>1.6</v>
+      </c>
+      <c r="U15">
+        <v>0.625</v>
+      </c>
+      <c r="V15">
+        <v>3.1</v>
+      </c>
+      <c r="W15">
+        <v>8.6</v>
+      </c>
+      <c r="X15">
+        <v>11.7</v>
+      </c>
+      <c r="Y15">
+        <v>2.3</v>
+      </c>
+      <c r="Z15">
+        <v>1.2</v>
+      </c>
+      <c r="AA15">
+        <v>0.6</v>
+      </c>
+      <c r="AB15">
+        <v>1.6</v>
+      </c>
+      <c r="AC15">
+        <v>5.5</v>
+      </c>
+      <c r="AD15">
+        <v>10.3</v>
+      </c>
+      <c r="AF15">
+        <v>100</v>
+      </c>
+      <c r="AG15">
+        <v>111</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="I16">
+        <v>-1985</v>
+      </c>
+      <c r="J16">
+        <v>-0.5999999999999996</v>
+      </c>
+      <c r="K16">
+        <v>-0.4000000000000004</v>
+      </c>
+      <c r="L16">
+        <v>-0.04599999999999993</v>
+      </c>
+      <c r="M16">
+        <v>0.3</v>
+      </c>
+      <c r="N16">
+        <v>1.4</v>
+      </c>
+      <c r="O16">
+        <v>-0.03600000000000003</v>
+      </c>
+      <c r="P16">
+        <v>-0.9999999999999998</v>
+      </c>
+      <c r="Q16">
+        <v>-1.9</v>
+      </c>
+      <c r="R16">
+        <v>-0.02200000000000002</v>
+      </c>
+      <c r="S16">
+        <v>-0.6000000000000001</v>
+      </c>
+      <c r="T16">
+        <v>-0.3999999999999999</v>
+      </c>
+      <c r="U16">
+        <v>-0.149</v>
+      </c>
+      <c r="V16">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="W16">
+        <v>0.8999999999999995</v>
+      </c>
+      <c r="X16">
+        <v>1.5</v>
+      </c>
+      <c r="Y16">
+        <v>0.09999999999999964</v>
+      </c>
+      <c r="Z16">
+        <v>-1.3</v>
+      </c>
+      <c r="AA16">
+        <v>0.2</v>
+      </c>
+      <c r="AB16">
+        <v>0.2000000000000002</v>
+      </c>
+      <c r="AC16">
+        <v>1.2</v>
+      </c>
+      <c r="AD16">
+        <v>-1.399999999999999</v>
+      </c>
+      <c r="AF16">
+        <v>-9</v>
+      </c>
+      <c r="AG16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17">
+        <v>82</v>
+      </c>
+      <c r="H17">
+        <v>34</v>
+      </c>
+      <c r="I17">
+        <v>2281</v>
+      </c>
+      <c r="J17">
+        <v>3.7</v>
+      </c>
+      <c r="K17">
+        <v>9.5</v>
+      </c>
+      <c r="L17">
+        <v>0.39</v>
+      </c>
+      <c r="M17">
+        <v>2.5</v>
+      </c>
+      <c r="N17">
+        <v>6.7</v>
+      </c>
+      <c r="O17">
+        <v>0.371</v>
+      </c>
+      <c r="P17">
+        <v>1.2</v>
+      </c>
+      <c r="Q17">
+        <v>2.8</v>
+      </c>
+      <c r="R17">
+        <v>0.435</v>
+      </c>
+      <c r="S17">
+        <v>0.9</v>
+      </c>
+      <c r="T17">
+        <v>1.3</v>
+      </c>
+      <c r="U17">
+        <v>0.7170000000000001</v>
+      </c>
+      <c r="V17">
+        <v>2</v>
+      </c>
+      <c r="W17">
+        <v>7.9</v>
+      </c>
+      <c r="X17">
+        <v>9.9</v>
+      </c>
+      <c r="Y17">
+        <v>1.7</v>
+      </c>
+      <c r="Z17">
+        <v>1.7</v>
+      </c>
+      <c r="AA17">
+        <v>0.6</v>
+      </c>
+      <c r="AB17">
+        <v>1.6</v>
+      </c>
+      <c r="AC17">
+        <v>4.4</v>
+      </c>
+      <c r="AD17">
+        <v>10.8</v>
+      </c>
+      <c r="AF17">
+        <v>107</v>
+      </c>
+      <c r="AG17">
+        <v>106</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18">
+        <v>17</v>
+      </c>
+      <c r="H18">
+        <v>17</v>
+      </c>
+      <c r="I18">
+        <v>569</v>
+      </c>
+      <c r="J18">
+        <v>4.6</v>
+      </c>
+      <c r="K18">
+        <v>9.5</v>
+      </c>
+      <c r="L18">
+        <v>0.481</v>
+      </c>
+      <c r="M18">
+        <v>3.1</v>
+      </c>
+      <c r="N18">
+        <v>6.6</v>
+      </c>
+      <c r="O18">
+        <v>0.467</v>
+      </c>
+      <c r="P18">
+        <v>1.5</v>
+      </c>
+      <c r="Q18">
+        <v>2.9</v>
+      </c>
+      <c r="R18">
+        <v>0.515</v>
+      </c>
+      <c r="S18">
+        <v>1.1</v>
+      </c>
+      <c r="T18">
+        <v>1.6</v>
+      </c>
+      <c r="U18">
+        <v>0.667</v>
+      </c>
+      <c r="V18">
+        <v>2</v>
+      </c>
+      <c r="W18">
+        <v>7.8</v>
+      </c>
+      <c r="X18">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y18">
+        <v>1.9</v>
+      </c>
+      <c r="Z18">
+        <v>1</v>
+      </c>
+      <c r="AA18">
+        <v>1.1</v>
+      </c>
+      <c r="AB18">
+        <v>1.2</v>
+      </c>
+      <c r="AC18">
+        <v>4.1</v>
+      </c>
+      <c r="AD18">
+        <v>13.3</v>
+      </c>
+      <c r="AF18">
+        <v>126</v>
+      </c>
+      <c r="AG18">
+        <v>109</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="I19">
+        <v>-1712</v>
+      </c>
+      <c r="J19">
+        <v>0.8999999999999995</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0.09100000000000003</v>
+      </c>
+      <c r="M19">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="N19">
+        <v>-0.1000000000000005</v>
+      </c>
+      <c r="O19">
+        <v>0.09600000000000003</v>
+      </c>
+      <c r="P19">
+        <v>0.3</v>
+      </c>
+      <c r="Q19">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="R19">
+        <v>0.08000000000000002</v>
+      </c>
+      <c r="S19">
+        <v>0.2000000000000001</v>
+      </c>
+      <c r="T19">
+        <v>0.3</v>
+      </c>
+      <c r="U19">
+        <v>-0.05000000000000004</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>-0.1000000000000005</v>
+      </c>
+      <c r="X19">
+        <v>-0.09999999999999964</v>
+      </c>
+      <c r="Y19">
+        <v>0.2</v>
+      </c>
+      <c r="Z19">
+        <v>-0.7</v>
+      </c>
+      <c r="AA19">
+        <v>0.5000000000000001</v>
+      </c>
+      <c r="AB19">
+        <v>-0.4000000000000001</v>
+      </c>
+      <c r="AC19">
+        <v>-0.3000000000000007</v>
+      </c>
+      <c r="AD19">
+        <v>2.5</v>
+      </c>
+      <c r="AF19">
+        <v>19</v>
+      </c>
+      <c r="AG19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20">
+        <v>82</v>
+      </c>
+      <c r="H20">
+        <v>82</v>
+      </c>
+      <c r="I20">
+        <v>2802</v>
+      </c>
+      <c r="J20">
+        <v>3.6</v>
+      </c>
+      <c r="K20">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="L20">
+        <v>0.396</v>
+      </c>
+      <c r="M20">
+        <v>2.6</v>
+      </c>
+      <c r="N20">
+        <v>6.8</v>
+      </c>
+      <c r="O20">
+        <v>0.377</v>
+      </c>
+      <c r="P20">
+        <v>1.1</v>
+      </c>
+      <c r="Q20">
+        <v>2.4</v>
+      </c>
+      <c r="R20">
+        <v>0.449</v>
+      </c>
+      <c r="S20">
+        <v>0.7</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>0.695</v>
+      </c>
+      <c r="V20">
+        <v>2.1</v>
+      </c>
+      <c r="W20">
+        <v>6.3</v>
+      </c>
+      <c r="X20">
+        <v>8.4</v>
+      </c>
+      <c r="Y20">
+        <v>1.7</v>
+      </c>
+      <c r="Z20">
+        <v>2.3</v>
+      </c>
+      <c r="AA20">
+        <v>0.7</v>
+      </c>
+      <c r="AB20">
+        <v>1.1</v>
+      </c>
+      <c r="AC20">
+        <v>4.4</v>
+      </c>
+      <c r="AD20">
+        <v>10.5</v>
+      </c>
+      <c r="AF20">
+        <v>114</v>
+      </c>
+      <c r="AG20">
+        <v>110</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21">
+        <v>11</v>
+      </c>
+      <c r="H21">
+        <v>11</v>
+      </c>
+      <c r="I21">
+        <v>426</v>
+      </c>
+      <c r="J21">
+        <v>4.6</v>
+      </c>
+      <c r="K21">
+        <v>10.2</v>
+      </c>
+      <c r="L21">
+        <v>0.455</v>
+      </c>
+      <c r="M21">
+        <v>3</v>
+      </c>
+      <c r="N21">
+        <v>6.6</v>
+      </c>
+      <c r="O21">
+        <v>0.456</v>
+      </c>
+      <c r="P21">
+        <v>1.6</v>
+      </c>
+      <c r="Q21">
+        <v>3.6</v>
+      </c>
+      <c r="R21">
+        <v>0.452</v>
+      </c>
+      <c r="S21">
+        <v>2.2</v>
+      </c>
+      <c r="T21">
+        <v>2.7</v>
+      </c>
+      <c r="U21">
+        <v>0.826</v>
+      </c>
+      <c r="V21">
+        <v>2.2</v>
+      </c>
+      <c r="W21">
+        <v>7.3</v>
+      </c>
+      <c r="X21">
+        <v>9.5</v>
+      </c>
+      <c r="Y21">
+        <v>2.2</v>
+      </c>
+      <c r="Z21">
+        <v>2.2</v>
+      </c>
+      <c r="AA21">
+        <v>0.9</v>
+      </c>
+      <c r="AB21">
+        <v>0.9</v>
+      </c>
+      <c r="AC21">
+        <v>4.1</v>
+      </c>
+      <c r="AD21">
+        <v>14.5</v>
+      </c>
+      <c r="AF21">
+        <v>133</v>
+      </c>
+      <c r="AG21">
+        <v>107</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="I22">
+        <v>-2376</v>
+      </c>
+      <c r="J22">
+        <v>0.9999999999999996</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.059</v>
+      </c>
+      <c r="M22">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="N22">
+        <v>-0.2000000000000002</v>
+      </c>
+      <c r="O22">
+        <v>0.07900000000000001</v>
+      </c>
+      <c r="P22">
+        <v>0.5</v>
+      </c>
+      <c r="Q22">
+        <v>1.2</v>
+      </c>
+      <c r="R22">
+        <v>0.003000000000000003</v>
+      </c>
+      <c r="S22">
+        <v>1.5</v>
+      </c>
+      <c r="T22">
+        <v>1.7</v>
+      </c>
+      <c r="U22">
+        <v>0.131</v>
+      </c>
+      <c r="V22">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <v>1.1</v>
+      </c>
+      <c r="Y22">
+        <v>0.5000000000000002</v>
+      </c>
+      <c r="Z22">
+        <v>-0.09999999999999964</v>
+      </c>
+      <c r="AA22">
+        <v>0.2000000000000001</v>
+      </c>
+      <c r="AB22">
+        <v>-0.2000000000000001</v>
+      </c>
+      <c r="AC22">
+        <v>-0.3000000000000007</v>
+      </c>
+      <c r="AD22">
+        <v>4</v>
+      </c>
+      <c r="AF22">
+        <v>19</v>
+      </c>
+      <c r="AG22">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23">
+        <v>72</v>
+      </c>
+      <c r="H23">
+        <v>72</v>
+      </c>
+      <c r="I23">
+        <v>2467</v>
+      </c>
+      <c r="J23">
+        <v>3.3</v>
+      </c>
+      <c r="K23">
+        <v>8</v>
+      </c>
+      <c r="L23">
+        <v>0.415</v>
+      </c>
+      <c r="M23">
+        <v>2</v>
+      </c>
+      <c r="N23">
+        <v>5.6</v>
+      </c>
+      <c r="O23">
+        <v>0.358</v>
+      </c>
+      <c r="P23">
+        <v>1.3</v>
+      </c>
+      <c r="Q23">
+        <v>2.4</v>
+      </c>
+      <c r="R23">
+        <v>0.551</v>
+      </c>
+      <c r="S23">
+        <v>0.7</v>
+      </c>
+      <c r="T23">
+        <v>0.9</v>
+      </c>
+      <c r="U23">
+        <v>0.8129999999999999</v>
+      </c>
+      <c r="V23">
+        <v>2.1</v>
+      </c>
+      <c r="W23">
+        <v>6.8</v>
+      </c>
+      <c r="X23">
+        <v>8.9</v>
+      </c>
+      <c r="Y23">
+        <v>2.2</v>
+      </c>
+      <c r="Z23">
+        <v>1.4</v>
+      </c>
+      <c r="AA23">
+        <v>0.7</v>
+      </c>
+      <c r="AB23">
+        <v>1.4</v>
+      </c>
+      <c r="AC23">
+        <v>4.3</v>
+      </c>
+      <c r="AD23">
+        <v>9.4</v>
+      </c>
+      <c r="AF23">
+        <v>114</v>
+      </c>
+      <c r="AG23">
+        <v>111</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24">
+        <v>12</v>
+      </c>
+      <c r="H24">
+        <v>12</v>
+      </c>
+      <c r="I24">
+        <v>414</v>
+      </c>
+      <c r="J24">
+        <v>4.1</v>
+      </c>
+      <c r="K24">
+        <v>10.3</v>
+      </c>
+      <c r="L24">
+        <v>0.398</v>
+      </c>
+      <c r="M24">
+        <v>2.9</v>
+      </c>
+      <c r="N24">
+        <v>7.9</v>
+      </c>
+      <c r="O24">
+        <v>0.373</v>
+      </c>
+      <c r="P24">
+        <v>1.2</v>
+      </c>
+      <c r="Q24">
+        <v>2.5</v>
+      </c>
+      <c r="R24">
+        <v>0.476</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>2.7</v>
+      </c>
+      <c r="W24">
+        <v>7.4</v>
+      </c>
+      <c r="X24">
+        <v>10.1</v>
+      </c>
+      <c r="Y24">
+        <v>2.1</v>
+      </c>
+      <c r="Z24">
+        <v>1.5</v>
+      </c>
+      <c r="AA24">
+        <v>0.4</v>
+      </c>
+      <c r="AB24">
+        <v>1.4</v>
+      </c>
+      <c r="AC24">
+        <v>5.5</v>
+      </c>
+      <c r="AD24">
+        <v>11.2</v>
+      </c>
+      <c r="AF24">
+        <v>109</v>
+      </c>
+      <c r="AG24">
+        <v>108</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="I25">
+        <v>-2053</v>
+      </c>
+      <c r="J25">
+        <v>0.7999999999999998</v>
+      </c>
+      <c r="K25">
+        <v>2.300000000000001</v>
+      </c>
+      <c r="L25">
+        <v>-0.01700000000000002</v>
+      </c>
+      <c r="M25">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="N25">
+        <v>2.300000000000001</v>
+      </c>
+      <c r="O25">
+        <v>0.01500000000000001</v>
+      </c>
+      <c r="P25">
+        <v>-0.1000000000000001</v>
+      </c>
+      <c r="Q25">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="R25">
+        <v>-0.07500000000000001</v>
+      </c>
+      <c r="S25">
+        <v>-0.7</v>
+      </c>
+      <c r="T25">
+        <v>-0.9</v>
+      </c>
+      <c r="V25">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="W25">
+        <v>0.6000000000000005</v>
+      </c>
+      <c r="X25">
+        <v>1.199999999999999</v>
+      </c>
+      <c r="Y25">
+        <v>-0.1000000000000001</v>
+      </c>
+      <c r="Z25">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="AA25">
+        <v>-0.2999999999999999</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>1.2</v>
+      </c>
+      <c r="AD25">
+        <v>1.799999999999999</v>
+      </c>
+      <c r="AF25">
+        <v>-5</v>
+      </c>
+      <c r="AG25">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26">
+        <v>47</v>
+      </c>
+      <c r="H26">
+        <v>33</v>
+      </c>
+      <c r="I26">
+        <v>1254</v>
+      </c>
+      <c r="J26">
+        <v>2.4</v>
+      </c>
+      <c r="K26">
+        <v>6.2</v>
+      </c>
+      <c r="L26">
+        <v>0.382</v>
+      </c>
+      <c r="M26">
+        <v>1.4</v>
+      </c>
+      <c r="N26">
+        <v>4.2</v>
+      </c>
+      <c r="O26">
+        <v>0.345</v>
+      </c>
+      <c r="P26">
+        <v>0.9</v>
+      </c>
+      <c r="Q26">
+        <v>2.1</v>
+      </c>
+      <c r="R26">
+        <v>0.455</v>
+      </c>
+      <c r="S26">
+        <v>0.7</v>
+      </c>
+      <c r="T26">
+        <v>0.9</v>
+      </c>
+      <c r="U26">
+        <v>0.75</v>
+      </c>
+      <c r="V26">
+        <v>1.8</v>
+      </c>
+      <c r="W26">
+        <v>5.4</v>
+      </c>
+      <c r="X26">
+        <v>7.3</v>
+      </c>
+      <c r="Y26">
+        <v>2</v>
+      </c>
+      <c r="Z26">
+        <v>1.4</v>
+      </c>
+      <c r="AA26">
+        <v>0.8</v>
+      </c>
+      <c r="AB26">
+        <v>1.5</v>
+      </c>
+      <c r="AC26">
+        <v>4.5</v>
+      </c>
+      <c r="AD26">
+        <v>6.9</v>
+      </c>
+      <c r="AF26">
+        <v>104</v>
+      </c>
+      <c r="AG26">
+        <v>115</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27">
+        <v>32</v>
+      </c>
+      <c r="H27">
+        <v>32</v>
+      </c>
+      <c r="I27">
+        <v>959</v>
+      </c>
+      <c r="J27">
+        <v>2.4</v>
+      </c>
+      <c r="K27">
+        <v>6.5</v>
+      </c>
+      <c r="L27">
+        <v>0.366</v>
+      </c>
+      <c r="M27">
+        <v>1.3</v>
+      </c>
+      <c r="N27">
+        <v>4.3</v>
+      </c>
+      <c r="O27">
+        <v>0.314</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <v>2.2</v>
+      </c>
+      <c r="R27">
+        <v>0.467</v>
+      </c>
+      <c r="S27">
+        <v>0.9</v>
+      </c>
+      <c r="T27">
+        <v>1.1</v>
+      </c>
+      <c r="U27">
+        <v>0.7829999999999999</v>
+      </c>
+      <c r="V27">
+        <v>1.6</v>
+      </c>
+      <c r="W27">
+        <v>5.7</v>
+      </c>
+      <c r="X27">
+        <v>7.3</v>
+      </c>
+      <c r="Y27">
+        <v>2.2</v>
+      </c>
+      <c r="Z27">
+        <v>1.4</v>
+      </c>
+      <c r="AA27">
+        <v>0.9</v>
+      </c>
+      <c r="AB27">
+        <v>1.6</v>
+      </c>
+      <c r="AC27">
+        <v>4.5</v>
+      </c>
+      <c r="AD27">
+        <v>7</v>
+      </c>
+      <c r="AF27">
+        <v>99</v>
+      </c>
+      <c r="AG27">
+        <v>115</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" t="s">
+        <v>77</v>
+      </c>
+      <c r="F28" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28">
+        <v>15</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>295</v>
+      </c>
+      <c r="J28">
+        <v>2.4</v>
+      </c>
+      <c r="K28">
+        <v>5.4</v>
+      </c>
+      <c r="L28">
+        <v>0.441</v>
+      </c>
+      <c r="M28">
+        <v>1.8</v>
+      </c>
+      <c r="N28">
+        <v>3.8</v>
+      </c>
+      <c r="O28">
+        <v>0.458</v>
+      </c>
+      <c r="P28">
+        <v>0.6</v>
+      </c>
+      <c r="Q28">
+        <v>1.6</v>
+      </c>
+      <c r="R28">
+        <v>0.4</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0.2</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>2.6</v>
+      </c>
+      <c r="W28">
+        <v>4.6</v>
+      </c>
+      <c r="X28">
+        <v>7.2</v>
+      </c>
+      <c r="Y28">
+        <v>1.4</v>
+      </c>
+      <c r="Z28">
+        <v>1.4</v>
+      </c>
+      <c r="AA28">
+        <v>0.3</v>
+      </c>
+      <c r="AB28">
+        <v>1</v>
+      </c>
+      <c r="AC28">
+        <v>4.6</v>
+      </c>
+      <c r="AD28">
+        <v>6.5</v>
+      </c>
+      <c r="AF28">
+        <v>124</v>
+      </c>
+      <c r="AG28">
+        <v>114</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30">
+        <v>268</v>
+      </c>
+      <c r="H30">
+        <v>220</v>
+      </c>
+      <c r="I30">
+        <v>8509</v>
+      </c>
+      <c r="J30">
+        <v>3.4</v>
+      </c>
+      <c r="K30">
+        <v>8.6</v>
+      </c>
+      <c r="L30">
+        <v>0.397</v>
+      </c>
+      <c r="M30">
+        <v>2.2</v>
+      </c>
+      <c r="N30">
+        <v>6.1</v>
+      </c>
+      <c r="O30">
+        <v>0.365</v>
+      </c>
+      <c r="P30">
+        <v>1.2</v>
+      </c>
+      <c r="Q30">
+        <v>2.5</v>
+      </c>
+      <c r="R30">
+        <v>0.476</v>
+      </c>
+      <c r="S30">
+        <v>0.8</v>
+      </c>
+      <c r="T30">
+        <v>1.1</v>
+      </c>
+      <c r="U30">
+        <v>0.742</v>
+      </c>
+      <c r="V30">
+        <v>2</v>
+      </c>
+      <c r="W30">
+        <v>6.8</v>
+      </c>
+      <c r="X30">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y30">
+        <v>1.9</v>
+      </c>
+      <c r="Z30">
+        <v>1.8</v>
+      </c>
+      <c r="AA30">
+        <v>0.7</v>
+      </c>
+      <c r="AB30">
+        <v>1.4</v>
+      </c>
+      <c r="AC30">
+        <v>4.4</v>
+      </c>
+      <c r="AD30">
+        <v>9.9</v>
+      </c>
+      <c r="AF30">
+        <v>110</v>
+      </c>
+      <c r="AG30">
+        <v>110</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" t="s">
+        <v>77</v>
+      </c>
+      <c r="G31">
+        <v>40</v>
+      </c>
+      <c r="H31">
+        <v>40</v>
+      </c>
+      <c r="I31">
+        <v>1409</v>
+      </c>
+      <c r="J31">
+        <v>4.5</v>
+      </c>
+      <c r="K31">
+        <v>10</v>
+      </c>
+      <c r="L31">
+        <v>0.447</v>
+      </c>
+      <c r="M31">
+        <v>3</v>
+      </c>
+      <c r="N31">
+        <v>7</v>
+      </c>
+      <c r="O31">
+        <v>0.4320000000000001</v>
+      </c>
+      <c r="P31">
+        <v>1.4</v>
+      </c>
+      <c r="Q31">
+        <v>3</v>
+      </c>
+      <c r="R31">
+        <v>0.482</v>
+      </c>
+      <c r="S31">
+        <v>1.1</v>
+      </c>
+      <c r="T31">
+        <v>1.4</v>
+      </c>
+      <c r="U31">
+        <v>0.7559999999999999</v>
+      </c>
+      <c r="V31">
+        <v>2.3</v>
+      </c>
+      <c r="W31">
+        <v>7.5</v>
+      </c>
+      <c r="X31">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y31">
+        <v>2.1</v>
+      </c>
+      <c r="Z31">
+        <v>1.5</v>
+      </c>
+      <c r="AA31">
+        <v>0.8</v>
+      </c>
+      <c r="AB31">
+        <v>1.2</v>
+      </c>
+      <c r="AC31">
+        <v>4.5</v>
+      </c>
+      <c r="AD31">
+        <v>13</v>
+      </c>
+      <c r="AF31">
+        <v>123</v>
+      </c>
+      <c r="AG31">
+        <v>108</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="I32">
+        <v>-7100</v>
+      </c>
+      <c r="J32">
+        <v>1.1</v>
+      </c>
+      <c r="K32">
+        <v>1.4</v>
+      </c>
+      <c r="L32">
+        <v>0.04999999999999999</v>
+      </c>
+      <c r="M32">
+        <v>0.7999999999999998</v>
+      </c>
+      <c r="N32">
+        <v>0.9000000000000004</v>
+      </c>
+      <c r="O32">
+        <v>0.06700000000000006</v>
+      </c>
+      <c r="P32">
+        <v>0.2</v>
+      </c>
+      <c r="Q32">
+        <v>0.5</v>
+      </c>
+      <c r="R32">
+        <v>0.006000000000000005</v>
+      </c>
+      <c r="S32">
+        <v>0.3</v>
+      </c>
+      <c r="T32">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="U32">
+        <v>0.0139999999999999</v>
+      </c>
+      <c r="V32">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="W32">
+        <v>0.7000000000000002</v>
+      </c>
+      <c r="X32">
+        <v>1</v>
+      </c>
+      <c r="Y32">
+        <v>0.2000000000000002</v>
+      </c>
+      <c r="Z32">
+        <v>-0.3</v>
+      </c>
+      <c r="AA32">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="AB32">
+        <v>-0.2</v>
+      </c>
+      <c r="AC32">
+        <v>0.09999999999999964</v>
+      </c>
+      <c r="AD32">
+        <v>3.1</v>
+      </c>
+      <c r="AF32">
+        <v>13</v>
+      </c>
+      <c r="AG32">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" t="s">
+        <v>77</v>
+      </c>
+      <c r="G33">
+        <v>15</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>295</v>
+      </c>
+      <c r="J33">
+        <v>2.4</v>
+      </c>
+      <c r="K33">
+        <v>5.4</v>
+      </c>
+      <c r="L33">
+        <v>0.441</v>
+      </c>
+      <c r="M33">
+        <v>1.8</v>
+      </c>
+      <c r="N33">
+        <v>3.8</v>
+      </c>
+      <c r="O33">
+        <v>0.458</v>
+      </c>
+      <c r="P33">
+        <v>0.6</v>
+      </c>
+      <c r="Q33">
+        <v>1.6</v>
+      </c>
+      <c r="R33">
+        <v>0.4</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0.2</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>2.6</v>
+      </c>
+      <c r="W33">
+        <v>4.6</v>
+      </c>
+      <c r="X33">
+        <v>7.2</v>
+      </c>
+      <c r="Y33">
+        <v>1.4</v>
+      </c>
+      <c r="Z33">
+        <v>1.4</v>
+      </c>
+      <c r="AA33">
+        <v>0.3</v>
+      </c>
+      <c r="AB33">
+        <v>1</v>
+      </c>
+      <c r="AC33">
+        <v>4.6</v>
+      </c>
+      <c r="AD33">
+        <v>6.5</v>
+      </c>
+      <c r="AF33">
+        <v>124</v>
+      </c>
+      <c r="AG33">
+        <v>114</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" t="s">
+        <v>77</v>
+      </c>
+      <c r="G35">
+        <v>377</v>
+      </c>
+      <c r="H35">
+        <v>286</v>
+      </c>
+      <c r="I35">
+        <v>10950</v>
+      </c>
+      <c r="J35">
+        <v>5.1</v>
+      </c>
+      <c r="K35">
+        <v>11.7</v>
+      </c>
+      <c r="L35">
+        <v>0.433</v>
+      </c>
+      <c r="M35">
+        <v>1.3</v>
+      </c>
+      <c r="N35">
+        <v>3.9</v>
+      </c>
+      <c r="O35">
+        <v>0.347</v>
+      </c>
+      <c r="P35">
+        <v>3.7</v>
+      </c>
+      <c r="Q35">
+        <v>7.9</v>
+      </c>
+      <c r="R35">
+        <v>0.475</v>
+      </c>
+      <c r="S35">
+        <v>2.2</v>
+      </c>
+      <c r="T35">
+        <v>2.9</v>
+      </c>
+      <c r="U35">
+        <v>0.757</v>
+      </c>
+      <c r="V35">
+        <v>3</v>
+      </c>
+      <c r="W35">
+        <v>7.1</v>
+      </c>
+      <c r="X35">
+        <v>10.1</v>
+      </c>
+      <c r="Y35">
+        <v>2.8</v>
+      </c>
+      <c r="Z35">
+        <v>2.1</v>
+      </c>
+      <c r="AA35">
+        <v>0.4</v>
+      </c>
+      <c r="AB35">
+        <v>1.9</v>
+      </c>
+      <c r="AC35">
+        <v>4</v>
+      </c>
+      <c r="AD35">
+        <v>13.7</v>
+      </c>
+      <c r="AF35">
+        <v>109</v>
+      </c>
+      <c r="AG35">
+        <v>108</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:34">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:34">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" t="s">
+        <v>67</v>
+      </c>
+      <c r="E37" t="s">
+        <v>77</v>
+      </c>
+      <c r="G37">
+        <v>41</v>
+      </c>
+      <c r="H37">
+        <v>4</v>
+      </c>
+      <c r="I37">
+        <v>692</v>
+      </c>
+      <c r="J37">
+        <v>4.6</v>
+      </c>
+      <c r="K37">
+        <v>11</v>
+      </c>
+      <c r="L37">
+        <v>0.42</v>
+      </c>
+      <c r="M37">
+        <v>1.8</v>
+      </c>
+      <c r="N37">
+        <v>4.4</v>
+      </c>
+      <c r="O37">
+        <v>0.4</v>
+      </c>
+      <c r="P37">
+        <v>2.9</v>
+      </c>
+      <c r="Q37">
+        <v>6.6</v>
+      </c>
+      <c r="R37">
+        <v>0.433</v>
+      </c>
+      <c r="S37">
+        <v>1.4</v>
+      </c>
+      <c r="T37">
+        <v>2.2</v>
+      </c>
+      <c r="U37">
+        <v>0.633</v>
+      </c>
+      <c r="V37">
+        <v>2.5</v>
+      </c>
+      <c r="W37">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="X37">
+        <v>11.2</v>
+      </c>
+      <c r="Y37">
+        <v>2.1</v>
+      </c>
+      <c r="Z37">
+        <v>2.4</v>
+      </c>
+      <c r="AA37">
+        <v>0.4</v>
+      </c>
+      <c r="AB37">
+        <v>1.5</v>
+      </c>
+      <c r="AC37">
+        <v>4.8</v>
+      </c>
+      <c r="AD37">
+        <v>12.4</v>
+      </c>
+      <c r="AF37">
+        <v>109</v>
+      </c>
+      <c r="AG37">
+        <v>106</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:34">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38" t="s">
+        <v>77</v>
+      </c>
+      <c r="G38">
+        <v>10</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>251</v>
+      </c>
+      <c r="J38">
+        <v>3.7</v>
+      </c>
+      <c r="K38">
+        <v>10.1</v>
+      </c>
+      <c r="L38">
+        <v>0.367</v>
+      </c>
+      <c r="M38">
+        <v>1.8</v>
+      </c>
+      <c r="N38">
+        <v>5.7</v>
+      </c>
+      <c r="O38">
+        <v>0.321</v>
+      </c>
+      <c r="P38">
+        <v>1.8</v>
+      </c>
+      <c r="Q38">
+        <v>4.3</v>
+      </c>
+      <c r="R38">
+        <v>0.429</v>
+      </c>
+      <c r="S38">
+        <v>1</v>
+      </c>
+      <c r="T38">
+        <v>1.6</v>
+      </c>
+      <c r="U38">
+        <v>0.625</v>
+      </c>
+      <c r="V38">
+        <v>3.1</v>
+      </c>
+      <c r="W38">
+        <v>8.6</v>
+      </c>
+      <c r="X38">
+        <v>11.7</v>
+      </c>
+      <c r="Y38">
+        <v>2.3</v>
+      </c>
+      <c r="Z38">
+        <v>1.2</v>
+      </c>
+      <c r="AA38">
+        <v>0.6</v>
+      </c>
+      <c r="AB38">
+        <v>1.6</v>
+      </c>
+      <c r="AC38">
+        <v>5.5</v>
+      </c>
+      <c r="AD38">
+        <v>10.3</v>
+      </c>
+      <c r="AF38">
+        <v>100</v>
+      </c>
+      <c r="AG38">
+        <v>111</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:34">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="I39">
+        <v>-441</v>
+      </c>
+      <c r="J39">
+        <v>-0.8999999999999995</v>
+      </c>
+      <c r="K39">
+        <v>-0.9000000000000004</v>
+      </c>
+      <c r="L39">
+        <v>-0.05299999999999994</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>1.3</v>
+      </c>
+      <c r="O39">
+        <v>-0.07900000000000001</v>
+      </c>
+      <c r="P39">
+        <v>-1.1</v>
+      </c>
+      <c r="Q39">
+        <v>-2.3</v>
+      </c>
+      <c r="R39">
+        <v>-0.004000000000000004</v>
+      </c>
+      <c r="S39">
+        <v>-0.3999999999999999</v>
+      </c>
+      <c r="T39">
+        <v>-0.6000000000000001</v>
+      </c>
+      <c r="U39">
+        <v>-0.008000000000000007</v>
+      </c>
+      <c r="V39">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="W39">
+        <v>-0.09999999999999964</v>
+      </c>
+      <c r="X39">
+        <v>0.5</v>
+      </c>
+      <c r="Y39">
+        <v>0.1999999999999997</v>
+      </c>
+      <c r="Z39">
+        <v>-1.2</v>
+      </c>
+      <c r="AA39">
+        <v>0.2</v>
+      </c>
+      <c r="AB39">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="AC39">
+        <v>0.7000000000000002</v>
+      </c>
+      <c r="AD39">
+        <v>-2.1</v>
+      </c>
+      <c r="AF39">
+        <v>-9</v>
+      </c>
+      <c r="AG39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:34">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40" t="s">
+        <v>77</v>
+      </c>
+      <c r="G40">
+        <v>701</v>
+      </c>
+      <c r="H40">
+        <v>511</v>
+      </c>
+      <c r="I40">
+        <v>20446</v>
+      </c>
+      <c r="J40">
+        <v>4.3</v>
+      </c>
+      <c r="K40">
+        <v>10.3</v>
+      </c>
+      <c r="L40">
+        <v>0.42</v>
+      </c>
+      <c r="M40">
+        <v>1.7</v>
+      </c>
+      <c r="N40">
+        <v>4.8</v>
+      </c>
+      <c r="O40">
+        <v>0.36</v>
+      </c>
+      <c r="P40">
+        <v>2.6</v>
+      </c>
+      <c r="Q40">
+        <v>5.4</v>
+      </c>
+      <c r="R40">
+        <v>0.473</v>
+      </c>
+      <c r="S40">
+        <v>1.6</v>
+      </c>
+      <c r="T40">
+        <v>2.1</v>
+      </c>
+      <c r="U40">
+        <v>0.748</v>
+      </c>
+      <c r="V40">
+        <v>2.6</v>
+      </c>
+      <c r="W40">
+        <v>7</v>
+      </c>
+      <c r="X40">
+        <v>9.6</v>
+      </c>
+      <c r="Y40">
+        <v>2.4</v>
+      </c>
+      <c r="Z40">
+        <v>2</v>
+      </c>
+      <c r="AA40">
+        <v>0.5</v>
+      </c>
+      <c r="AB40">
+        <v>1.7</v>
+      </c>
+      <c r="AC40">
+        <v>4.2</v>
+      </c>
+      <c r="AD40">
+        <v>11.9</v>
+      </c>
+      <c r="AF40">
+        <v>110</v>
+      </c>
+      <c r="AG40">
+        <v>109</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:34">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" t="s">
+        <v>77</v>
+      </c>
+      <c r="G41">
+        <v>50</v>
+      </c>
+      <c r="H41">
+        <v>41</v>
+      </c>
+      <c r="I41">
+        <v>1660</v>
+      </c>
+      <c r="J41">
+        <v>4.4</v>
+      </c>
+      <c r="K41">
+        <v>10</v>
+      </c>
+      <c r="L41">
+        <v>0.435</v>
+      </c>
+      <c r="M41">
+        <v>2.9</v>
+      </c>
+      <c r="N41">
+        <v>6.8</v>
+      </c>
+      <c r="O41">
+        <v>0.419</v>
+      </c>
+      <c r="P41">
+        <v>1.5</v>
+      </c>
+      <c r="Q41">
+        <v>3.2</v>
+      </c>
+      <c r="R41">
+        <v>0.472</v>
+      </c>
+      <c r="S41">
+        <v>1.1</v>
+      </c>
+      <c r="T41">
+        <v>1.5</v>
+      </c>
+      <c r="U41">
+        <v>0.735</v>
+      </c>
+      <c r="V41">
+        <v>2.4</v>
+      </c>
+      <c r="W41">
+        <v>7.7</v>
+      </c>
+      <c r="X41">
+        <v>10.1</v>
+      </c>
+      <c r="Y41">
+        <v>2.1</v>
+      </c>
+      <c r="Z41">
+        <v>1.5</v>
+      </c>
+      <c r="AA41">
+        <v>0.8</v>
+      </c>
+      <c r="AB41">
+        <v>1.3</v>
+      </c>
+      <c r="AC41">
+        <v>4.7</v>
+      </c>
+      <c r="AD41">
+        <v>12.6</v>
+      </c>
+      <c r="AF41">
+        <v>119</v>
+      </c>
+      <c r="AG41">
+        <v>109</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:34">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="I42">
+        <v>-18786</v>
+      </c>
+      <c r="J42">
+        <v>0.1000000000000005</v>
+      </c>
+      <c r="K42">
+        <v>-0.3000000000000007</v>
+      </c>
+      <c r="L42">
+        <v>0.01500000000000001</v>
+      </c>
+      <c r="M42">
+        <v>1.2</v>
+      </c>
+      <c r="N42">
+        <v>2</v>
+      </c>
+      <c r="O42">
+        <v>0.059</v>
+      </c>
+      <c r="P42">
+        <v>-1.1</v>
+      </c>
+      <c r="Q42">
+        <v>-2.2</v>
+      </c>
+      <c r="R42">
+        <v>-0.0009999999999999454</v>
+      </c>
+      <c r="S42">
+        <v>-0.5</v>
+      </c>
+      <c r="T42">
+        <v>-0.6000000000000001</v>
+      </c>
+      <c r="U42">
+        <v>-0.01300000000000001</v>
+      </c>
+      <c r="V42">
+        <v>-0.2000000000000002</v>
+      </c>
+      <c r="W42">
+        <v>0.7000000000000002</v>
+      </c>
+      <c r="X42">
+        <v>0.5</v>
+      </c>
+      <c r="Y42">
+        <v>-0.2999999999999998</v>
+      </c>
+      <c r="Z42">
+        <v>-0.5</v>
+      </c>
+      <c r="AA42">
+        <v>0.3</v>
+      </c>
+      <c r="AB42">
+        <v>-0.3999999999999999</v>
+      </c>
+      <c r="AC42">
+        <v>0.5</v>
+      </c>
+      <c r="AD42">
+        <v>0.6999999999999993</v>
+      </c>
+      <c r="AF42">
+        <v>9</v>
+      </c>
+      <c r="AG42">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3997,70 +10282,70 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="AA1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>30</v>

--- a/output/tuckepj01.xlsx
+++ b/output/tuckepj01.xlsx
@@ -852,7 +852,7 @@
         <v>0.8</v>
       </c>
       <c r="V2">
-        <v>0.5710000000000001</v>
+        <v>0.571</v>
       </c>
       <c r="W2">
         <v>0.6</v>
@@ -1065,7 +1065,7 @@
         <v>1.1</v>
       </c>
       <c r="V14">
-        <v>0.7440000000000001</v>
+        <v>0.744</v>
       </c>
       <c r="W14">
         <v>1.7</v>
@@ -1168,7 +1168,7 @@
         <v>2.5</v>
       </c>
       <c r="V16">
-        <v>0.7759999999999999</v>
+        <v>0.776</v>
       </c>
       <c r="W16">
         <v>2</v>
@@ -1241,7 +1241,7 @@
         <v>7.6</v>
       </c>
       <c r="L18">
-        <v>0.4379999999999999</v>
+        <v>0.438</v>
       </c>
       <c r="M18">
         <v>1.1</v>
@@ -1808,9 +1808,6 @@
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="I26">
-        <v>-2.5</v>
-      </c>
       <c r="J26">
         <v>-0.7</v>
       </c>
@@ -1818,7 +1815,7 @@
         <v>-1.1</v>
       </c>
       <c r="L26">
-        <v>-0.04599999999999993</v>
+        <v>-0.04599999999999999</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -1827,7 +1824,7 @@
         <v>0.3999999999999999</v>
       </c>
       <c r="O26">
-        <v>-0.03600000000000003</v>
+        <v>-0.03599999999999998</v>
       </c>
       <c r="P26">
         <v>-0.7000000000000001</v>
@@ -1839,7 +1836,7 @@
         <v>-0.02200000000000002</v>
       </c>
       <c r="S26">
-        <v>-0.02600000000000002</v>
+        <v>-0.02599999999999997</v>
       </c>
       <c r="T26">
         <v>-0.4</v>
@@ -1943,7 +1940,7 @@
         <v>0.7</v>
       </c>
       <c r="V27">
-        <v>0.7170000000000001</v>
+        <v>0.717</v>
       </c>
       <c r="W27">
         <v>1.1</v>
@@ -2078,9 +2075,6 @@
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="I29">
-        <v>5.699999999999999</v>
-      </c>
       <c r="J29">
         <v>1</v>
       </c>
@@ -2088,7 +2082,7 @@
         <v>1</v>
       </c>
       <c r="L29">
-        <v>0.09100000000000003</v>
+        <v>0.09099999999999997</v>
       </c>
       <c r="M29">
         <v>0.7000000000000002</v>
@@ -2118,7 +2112,7 @@
         <v>0.4000000000000001</v>
       </c>
       <c r="V29">
-        <v>-0.05000000000000004</v>
+        <v>-0.04999999999999993</v>
       </c>
       <c r="W29">
         <v>0.2999999999999998</v>
@@ -2348,9 +2342,6 @@
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="I32">
-        <v>4.5</v>
-      </c>
       <c r="J32">
         <v>1.1</v>
       </c>
@@ -2615,9 +2606,6 @@
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="I35">
-        <v>0.2000000000000028</v>
-      </c>
       <c r="J35">
         <v>0.3999999999999999</v>
       </c>
@@ -2625,7 +2613,7 @@
         <v>1.399999999999999</v>
       </c>
       <c r="L35">
-        <v>-0.01700000000000002</v>
+        <v>-0.01699999999999996</v>
       </c>
       <c r="M35">
         <v>0.6000000000000001</v>
@@ -2643,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="R35">
-        <v>-0.07500000000000001</v>
+        <v>-0.07500000000000007</v>
       </c>
       <c r="S35">
         <v>-0.001000000000000001</v>
@@ -2738,7 +2726,7 @@
         <v>0.455</v>
       </c>
       <c r="S36">
-        <v>0.4970000000000001</v>
+        <v>0.497</v>
       </c>
       <c r="T36">
         <v>0.4</v>
@@ -2845,7 +2833,7 @@
         <v>0.7</v>
       </c>
       <c r="V37">
-        <v>0.7829999999999999</v>
+        <v>0.783</v>
       </c>
       <c r="W37">
         <v>1</v>
@@ -3111,7 +3099,7 @@
         <v>5</v>
       </c>
       <c r="O41">
-        <v>0.4320000000000001</v>
+        <v>0.432</v>
       </c>
       <c r="P41">
         <v>1</v>
@@ -3132,7 +3120,7 @@
         <v>1</v>
       </c>
       <c r="V41">
-        <v>0.7559999999999999</v>
+        <v>0.756</v>
       </c>
       <c r="W41">
         <v>1.6</v>
@@ -3169,9 +3157,6 @@
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="I42">
-        <v>3.400000000000002</v>
-      </c>
       <c r="J42">
         <v>0.9000000000000004</v>
       </c>
@@ -3188,7 +3173,7 @@
         <v>1</v>
       </c>
       <c r="O42">
-        <v>0.06700000000000006</v>
+        <v>0.067</v>
       </c>
       <c r="P42">
         <v>0.2</v>
@@ -3209,7 +3194,7 @@
         <v>0.3</v>
       </c>
       <c r="V42">
-        <v>0.0139999999999999</v>
+        <v>0.01400000000000001</v>
       </c>
       <c r="W42">
         <v>0.3</v>
@@ -3621,9 +3606,6 @@
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="I49">
-        <v>8.200000000000003</v>
-      </c>
       <c r="J49">
         <v>0.3</v>
       </c>
@@ -3631,7 +3613,7 @@
         <v>1.2</v>
       </c>
       <c r="L49">
-        <v>-0.05299999999999994</v>
+        <v>-0.05299999999999999</v>
       </c>
       <c r="M49">
         <v>0.3</v>
@@ -3652,7 +3634,7 @@
         <v>-0.004000000000000004</v>
       </c>
       <c r="S49">
-        <v>-0.04100000000000004</v>
+        <v>-0.04099999999999998</v>
       </c>
       <c r="T49">
         <v>0</v>
@@ -3873,9 +3855,6 @@
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="I52">
-        <v>4.000000000000004</v>
-      </c>
       <c r="J52">
         <v>0.2999999999999998</v>
       </c>
@@ -3901,7 +3880,7 @@
         <v>-1.1</v>
       </c>
       <c r="R52">
-        <v>-0.0009999999999999454</v>
+        <v>-0.001000000000000001</v>
       </c>
       <c r="S52">
         <v>0.07299999999999995</v>
@@ -4107,7 +4086,7 @@
         <v>6.1</v>
       </c>
       <c r="U2">
-        <v>0.5710000000000001</v>
+        <v>0.571</v>
       </c>
       <c r="V2">
         <v>4.8</v>
@@ -4207,7 +4186,7 @@
         <v>1.6</v>
       </c>
       <c r="U4">
-        <v>0.7440000000000001</v>
+        <v>0.744</v>
       </c>
       <c r="V4">
         <v>2.5</v>
@@ -4307,7 +4286,7 @@
         <v>2.9</v>
       </c>
       <c r="U6">
-        <v>0.7759999999999999</v>
+        <v>0.776</v>
       </c>
       <c r="V6">
         <v>2.3</v>
@@ -4380,7 +4359,7 @@
         <v>9</v>
       </c>
       <c r="L8">
-        <v>0.4379999999999999</v>
+        <v>0.438</v>
       </c>
       <c r="M8">
         <v>1.3</v>
@@ -4929,9 +4908,6 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="I16">
-        <v>-1985</v>
-      </c>
       <c r="J16">
         <v>-0.6000000000000001</v>
       </c>
@@ -4939,7 +4915,7 @@
         <v>-0.7999999999999998</v>
       </c>
       <c r="L16">
-        <v>-0.04599999999999993</v>
+        <v>-0.04599999999999999</v>
       </c>
       <c r="M16">
         <v>0.2</v>
@@ -4948,7 +4924,7 @@
         <v>0.7999999999999998</v>
       </c>
       <c r="O16">
-        <v>-0.03600000000000003</v>
+        <v>-0.03599999999999998</v>
       </c>
       <c r="P16">
         <v>-0.8</v>
@@ -5058,7 +5034,7 @@
         <v>0.9</v>
       </c>
       <c r="U17">
-        <v>0.7170000000000001</v>
+        <v>0.717</v>
       </c>
       <c r="V17">
         <v>1.5</v>
@@ -5190,9 +5166,6 @@
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="I19">
-        <v>-1712</v>
-      </c>
       <c r="J19">
         <v>0.5999999999999996</v>
       </c>
@@ -5200,7 +5173,7 @@
         <v>-0.2000000000000002</v>
       </c>
       <c r="L19">
-        <v>0.09100000000000003</v>
+        <v>0.09099999999999997</v>
       </c>
       <c r="M19">
         <v>0.4000000000000001</v>
@@ -5227,7 +5200,7 @@
         <v>0.2000000000000001</v>
       </c>
       <c r="U19">
-        <v>-0.05000000000000004</v>
+        <v>-0.04999999999999993</v>
       </c>
       <c r="V19">
         <v>0</v>
@@ -5451,9 +5424,6 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="I22">
-        <v>-2376</v>
-      </c>
       <c r="J22">
         <v>0.6999999999999997</v>
       </c>
@@ -5709,9 +5679,6 @@
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="I25">
-        <v>-2053</v>
-      </c>
       <c r="J25">
         <v>0.3999999999999999</v>
       </c>
@@ -5719,7 +5686,7 @@
         <v>1.5</v>
       </c>
       <c r="L25">
-        <v>-0.01700000000000002</v>
+        <v>-0.01699999999999996</v>
       </c>
       <c r="M25">
         <v>0.6000000000000001</v>
@@ -5737,7 +5704,7 @@
         <v>-0.09999999999999987</v>
       </c>
       <c r="R25">
-        <v>-0.07500000000000001</v>
+        <v>-0.07500000000000007</v>
       </c>
       <c r="S25">
         <v>-0.6</v>
@@ -5930,7 +5897,7 @@
         <v>0.9</v>
       </c>
       <c r="U27">
-        <v>0.7829999999999999</v>
+        <v>0.783</v>
       </c>
       <c r="V27">
         <v>1.2</v>
@@ -6190,7 +6157,7 @@
         <v>5.1</v>
       </c>
       <c r="O31">
-        <v>0.4320000000000001</v>
+        <v>0.432</v>
       </c>
       <c r="P31">
         <v>1</v>
@@ -6208,7 +6175,7 @@
         <v>1</v>
       </c>
       <c r="U31">
-        <v>0.7559999999999999</v>
+        <v>0.756</v>
       </c>
       <c r="V31">
         <v>1.7</v>
@@ -6245,9 +6212,6 @@
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="I32">
-        <v>-7100</v>
-      </c>
       <c r="J32">
         <v>0.6000000000000001</v>
       </c>
@@ -6264,7 +6228,7 @@
         <v>0.5</v>
       </c>
       <c r="O32">
-        <v>0.06700000000000006</v>
+        <v>0.067</v>
       </c>
       <c r="P32">
         <v>0.09999999999999998</v>
@@ -6282,7 +6246,7 @@
         <v>0.2</v>
       </c>
       <c r="U32">
-        <v>0.0139999999999999</v>
+        <v>0.01400000000000001</v>
       </c>
       <c r="V32">
         <v>0.2</v>
@@ -6682,9 +6646,6 @@
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="I39">
-        <v>-441</v>
-      </c>
       <c r="J39">
         <v>-0.6999999999999997</v>
       </c>
@@ -6692,7 +6653,7 @@
         <v>-0.7999999999999998</v>
       </c>
       <c r="L39">
-        <v>-0.05299999999999994</v>
+        <v>-0.05299999999999999</v>
       </c>
       <c r="M39">
         <v>0.1000000000000001</v>
@@ -6925,9 +6886,6 @@
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="I42">
-        <v>-18786</v>
-      </c>
       <c r="J42">
         <v>-0.1000000000000001</v>
       </c>
@@ -6953,7 +6911,7 @@
         <v>-1.7</v>
       </c>
       <c r="R42">
-        <v>-0.0009999999999999454</v>
+        <v>-0.001000000000000001</v>
       </c>
       <c r="S42">
         <v>-0.3</v>
@@ -7163,7 +7121,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="U2">
-        <v>0.5710000000000001</v>
+        <v>0.571</v>
       </c>
       <c r="V2">
         <v>6.9</v>
@@ -7269,7 +7227,7 @@
         <v>2.3</v>
       </c>
       <c r="U4">
-        <v>0.7440000000000001</v>
+        <v>0.744</v>
       </c>
       <c r="V4">
         <v>3.5</v>
@@ -7375,7 +7333,7 @@
         <v>4</v>
       </c>
       <c r="U6">
-        <v>0.7759999999999999</v>
+        <v>0.776</v>
       </c>
       <c r="V6">
         <v>3.2</v>
@@ -7454,7 +7412,7 @@
         <v>12.5</v>
       </c>
       <c r="L8">
-        <v>0.4379999999999999</v>
+        <v>0.438</v>
       </c>
       <c r="M8">
         <v>1.8</v>
@@ -8039,9 +7997,6 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="I16">
-        <v>-1985</v>
-      </c>
       <c r="J16">
         <v>-0.5999999999999996</v>
       </c>
@@ -8049,7 +8004,7 @@
         <v>-0.4000000000000004</v>
       </c>
       <c r="L16">
-        <v>-0.04599999999999993</v>
+        <v>-0.04599999999999999</v>
       </c>
       <c r="M16">
         <v>0.3</v>
@@ -8058,7 +8013,7 @@
         <v>1.4</v>
       </c>
       <c r="O16">
-        <v>-0.03600000000000003</v>
+        <v>-0.03599999999999998</v>
       </c>
       <c r="P16">
         <v>-0.9999999999999998</v>
@@ -8174,7 +8129,7 @@
         <v>1.3</v>
       </c>
       <c r="U17">
-        <v>0.7170000000000001</v>
+        <v>0.717</v>
       </c>
       <c r="V17">
         <v>2</v>
@@ -8318,9 +8273,6 @@
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="I19">
-        <v>-1712</v>
-      </c>
       <c r="J19">
         <v>0.8999999999999995</v>
       </c>
@@ -8328,7 +8280,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.09100000000000003</v>
+        <v>0.09099999999999997</v>
       </c>
       <c r="M19">
         <v>0.6000000000000001</v>
@@ -8355,7 +8307,7 @@
         <v>0.3</v>
       </c>
       <c r="U19">
-        <v>-0.05000000000000004</v>
+        <v>-0.04999999999999993</v>
       </c>
       <c r="V19">
         <v>0</v>
@@ -8597,9 +8549,6 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="I22">
-        <v>-2376</v>
-      </c>
       <c r="J22">
         <v>0.9999999999999996</v>
       </c>
@@ -8873,9 +8822,6 @@
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="I25">
-        <v>-2053</v>
-      </c>
       <c r="J25">
         <v>0.7999999999999998</v>
       </c>
@@ -8883,7 +8829,7 @@
         <v>2.300000000000001</v>
       </c>
       <c r="L25">
-        <v>-0.01700000000000002</v>
+        <v>-0.01699999999999996</v>
       </c>
       <c r="M25">
         <v>0.8999999999999999</v>
@@ -8901,7 +8847,7 @@
         <v>0.1000000000000001</v>
       </c>
       <c r="R25">
-        <v>-0.07500000000000001</v>
+        <v>-0.07500000000000007</v>
       </c>
       <c r="S25">
         <v>-0.7</v>
@@ -9106,7 +9052,7 @@
         <v>1.1</v>
       </c>
       <c r="U27">
-        <v>0.7829999999999999</v>
+        <v>0.783</v>
       </c>
       <c r="V27">
         <v>1.6</v>
@@ -9384,7 +9330,7 @@
         <v>7</v>
       </c>
       <c r="O31">
-        <v>0.4320000000000001</v>
+        <v>0.432</v>
       </c>
       <c r="P31">
         <v>1.4</v>
@@ -9402,7 +9348,7 @@
         <v>1.4</v>
       </c>
       <c r="U31">
-        <v>0.7559999999999999</v>
+        <v>0.756</v>
       </c>
       <c r="V31">
         <v>2.3</v>
@@ -9445,9 +9391,6 @@
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="I32">
-        <v>-7100</v>
-      </c>
       <c r="J32">
         <v>1.1</v>
       </c>
@@ -9464,7 +9407,7 @@
         <v>0.9000000000000004</v>
       </c>
       <c r="O32">
-        <v>0.06700000000000006</v>
+        <v>0.067</v>
       </c>
       <c r="P32">
         <v>0.2</v>
@@ -9482,7 +9425,7 @@
         <v>0.2999999999999998</v>
       </c>
       <c r="U32">
-        <v>0.0139999999999999</v>
+        <v>0.01400000000000001</v>
       </c>
       <c r="V32">
         <v>0.2999999999999998</v>
@@ -9912,9 +9855,6 @@
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="I39">
-        <v>-441</v>
-      </c>
       <c r="J39">
         <v>-0.8999999999999995</v>
       </c>
@@ -9922,7 +9862,7 @@
         <v>-0.9000000000000004</v>
       </c>
       <c r="L39">
-        <v>-0.05299999999999994</v>
+        <v>-0.05299999999999999</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -10173,9 +10113,6 @@
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="I42">
-        <v>-18786</v>
-      </c>
       <c r="J42">
         <v>0.1000000000000005</v>
       </c>
@@ -10201,7 +10138,7 @@
         <v>-2.2</v>
       </c>
       <c r="R42">
-        <v>-0.0009999999999999454</v>
+        <v>-0.001000000000000001</v>
       </c>
       <c r="S42">
         <v>-0.5</v>
@@ -10380,7 +10317,7 @@
         <v>12.8</v>
       </c>
       <c r="J2">
-        <v>0.5329999999999999</v>
+        <v>0.533</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -10516,7 +10453,7 @@
         <v>2.9</v>
       </c>
       <c r="Y4">
-        <v>0.07400000000000001</v>
+        <v>0.074</v>
       </c>
       <c r="AA4">
         <v>-1.3</v>
@@ -11120,7 +11057,7 @@
         <v>0.476</v>
       </c>
       <c r="K15">
-        <v>0.5710000000000001</v>
+        <v>0.571</v>
       </c>
       <c r="L15">
         <v>0.163</v>
@@ -11181,14 +11118,11 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="H16">
-        <v>-1985</v>
-      </c>
       <c r="I16">
         <v>-2.9</v>
       </c>
       <c r="J16">
-        <v>-0.03999999999999998</v>
+        <v>-0.04000000000000004</v>
       </c>
       <c r="K16">
         <v>0.164</v>
@@ -11316,7 +11250,7 @@
         <v>3.9</v>
       </c>
       <c r="Y17">
-        <v>0.08199999999999999</v>
+        <v>0.082</v>
       </c>
       <c r="AA17">
         <v>-1.9</v>
@@ -11363,10 +11297,10 @@
         <v>11.8</v>
       </c>
       <c r="J18">
-        <v>0.6509999999999999</v>
+        <v>0.651</v>
       </c>
       <c r="K18">
-        <v>0.6940000000000001</v>
+        <v>0.694</v>
       </c>
       <c r="L18">
         <v>0.167</v>
@@ -11427,20 +11361,17 @@
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="H19">
-        <v>-1712</v>
-      </c>
       <c r="I19">
         <v>3.5</v>
       </c>
       <c r="J19">
-        <v>0.1139999999999999</v>
+        <v>0.114</v>
       </c>
       <c r="K19">
-        <v>-0.008999999999999897</v>
+        <v>-0.009000000000000008</v>
       </c>
       <c r="L19">
-        <v>0.03099999999999997</v>
+        <v>0.031</v>
       </c>
       <c r="M19">
         <v>-0.1999999999999993</v>
@@ -11476,7 +11407,7 @@
         <v>-2.4</v>
       </c>
       <c r="Y19">
-        <v>0.04300000000000001</v>
+        <v>0.043</v>
       </c>
       <c r="AA19">
         <v>2.6</v>
@@ -11673,9 +11604,6 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="H22">
-        <v>-2376</v>
-      </c>
       <c r="I22">
         <v>5</v>
       </c>
@@ -11722,7 +11650,7 @@
         <v>-3.5</v>
       </c>
       <c r="Y22">
-        <v>0.08099999999999999</v>
+        <v>0.08100000000000002</v>
       </c>
       <c r="AA22">
         <v>3.4</v>
@@ -11766,10 +11694,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="J23">
-        <v>0.5589999999999999</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="K23">
-        <v>0.7020000000000001</v>
+        <v>0.702</v>
       </c>
       <c r="L23">
         <v>0.113</v>
@@ -11858,7 +11786,7 @@
         <v>0.54</v>
       </c>
       <c r="K24">
-        <v>0.7609999999999999</v>
+        <v>0.761</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -11919,17 +11847,14 @@
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="H25">
-        <v>-2053</v>
-      </c>
       <c r="I25">
         <v>0.2999999999999989</v>
       </c>
       <c r="J25">
-        <v>-0.01899999999999991</v>
+        <v>-0.01900000000000002</v>
       </c>
       <c r="K25">
-        <v>0.05899999999999983</v>
+        <v>0.05900000000000005</v>
       </c>
       <c r="L25">
         <v>-0.113</v>
@@ -12054,7 +11979,7 @@
         <v>1</v>
       </c>
       <c r="Y26">
-        <v>0.03700000000000001</v>
+        <v>0.037</v>
       </c>
       <c r="AA26">
         <v>-4.5</v>
@@ -12104,7 +12029,7 @@
         <v>0.5</v>
       </c>
       <c r="K27">
-        <v>0.6559999999999999</v>
+        <v>0.656</v>
       </c>
       <c r="L27">
         <v>0.176</v>
@@ -12278,7 +12203,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="J30">
-        <v>0.5429999999999999</v>
+        <v>0.543</v>
       </c>
       <c r="K30">
         <v>0.711</v>
@@ -12425,20 +12350,17 @@
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="H32">
-        <v>-7100</v>
-      </c>
       <c r="I32">
         <v>3.299999999999999</v>
       </c>
       <c r="J32">
-        <v>0.07100000000000006</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="K32">
         <v>-0.01000000000000001</v>
       </c>
       <c r="L32">
-        <v>0.01900000000000002</v>
+        <v>0.01899999999999999</v>
       </c>
       <c r="M32">
         <v>0.5999999999999996</v>
@@ -12730,7 +12652,7 @@
         <v>1.4</v>
       </c>
       <c r="Y37">
-        <v>0.09699999999999999</v>
+        <v>0.097</v>
       </c>
       <c r="AA37">
         <v>-1.5</v>
@@ -12774,7 +12696,7 @@
         <v>0.476</v>
       </c>
       <c r="K38">
-        <v>0.5710000000000001</v>
+        <v>0.571</v>
       </c>
       <c r="L38">
         <v>0.163</v>
@@ -12835,17 +12757,14 @@
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="H39">
-        <v>-441</v>
-      </c>
       <c r="I39">
         <v>-3.1</v>
       </c>
       <c r="J39">
-        <v>-0.04199999999999998</v>
+        <v>-0.04200000000000004</v>
       </c>
       <c r="K39">
-        <v>0.171</v>
+        <v>0.1709999999999999</v>
       </c>
       <c r="L39">
         <v>-0.03700000000000001</v>
@@ -12884,7 +12803,7 @@
         <v>-1.2</v>
       </c>
       <c r="Y39">
-        <v>-0.05199999999999999</v>
+        <v>-0.052</v>
       </c>
       <c r="AA39">
         <v>-1.1</v>
@@ -12919,7 +12838,7 @@
         <v>10.3</v>
       </c>
       <c r="J40">
-        <v>0.5329999999999999</v>
+        <v>0.533</v>
       </c>
       <c r="K40">
         <v>0.47</v>
@@ -12961,7 +12880,7 @@
         <v>35</v>
       </c>
       <c r="Y40">
-        <v>0.08199999999999999</v>
+        <v>0.082</v>
       </c>
       <c r="AA40">
         <v>-1.6</v>
@@ -13063,14 +12982,11 @@
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="H42">
-        <v>-18786</v>
-      </c>
       <c r="I42">
         <v>0.6999999999999993</v>
       </c>
       <c r="J42">
-        <v>0.06100000000000005</v>
+        <v>0.06099999999999994</v>
       </c>
       <c r="K42">
         <v>0.2120000000000001</v>
@@ -13112,7 +13028,7 @@
         <v>-31.1</v>
       </c>
       <c r="Y42">
-        <v>0.03200000000000001</v>
+        <v>0.032</v>
       </c>
       <c r="AA42">
         <v>1.4</v>

--- a/output/tuckepj01.xlsx
+++ b/output/tuckepj01.xlsx
@@ -25,7 +25,7 @@
     <t>Age</t>
   </si>
   <si>
-    <t>Tm</t>
+    <t>Team</t>
   </si>
   <si>
     <t>Lg</t>
@@ -2690,13 +2690,13 @@
         <v>28</v>
       </c>
       <c r="G36">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H36">
         <v>33</v>
       </c>
       <c r="I36">
-        <v>26.7</v>
+        <v>26.5</v>
       </c>
       <c r="J36">
         <v>1.3</v>
@@ -2705,7 +2705,7 @@
         <v>3.5</v>
       </c>
       <c r="L36">
-        <v>0.382</v>
+        <v>0.383</v>
       </c>
       <c r="M36">
         <v>0.8</v>
@@ -2714,19 +2714,19 @@
         <v>2.3</v>
       </c>
       <c r="O36">
-        <v>0.345</v>
+        <v>0.348</v>
       </c>
       <c r="P36">
         <v>0.5</v>
       </c>
       <c r="Q36">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="R36">
         <v>0.455</v>
       </c>
       <c r="S36">
-        <v>0.497</v>
+        <v>0.5</v>
       </c>
       <c r="T36">
         <v>0.4</v>
@@ -2741,13 +2741,13 @@
         <v>1</v>
       </c>
       <c r="X36">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Y36">
         <v>4.1</v>
       </c>
       <c r="Z36">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="AA36">
         <v>0.8</v>
@@ -2759,7 +2759,7 @@
         <v>0.8</v>
       </c>
       <c r="AD36">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="AE36">
         <v>3.9</v>
@@ -2886,13 +2886,13 @@
         <v>28</v>
       </c>
       <c r="G38">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="J38">
         <v>1</v>
@@ -2901,28 +2901,28 @@
         <v>2.3</v>
       </c>
       <c r="L38">
-        <v>0.441</v>
+        <v>0.444</v>
       </c>
       <c r="M38">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="N38">
         <v>1.6</v>
       </c>
       <c r="O38">
-        <v>0.458</v>
+        <v>0.462</v>
       </c>
       <c r="P38">
         <v>0.3</v>
       </c>
       <c r="Q38">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="R38">
         <v>0.4</v>
       </c>
       <c r="S38">
-        <v>0.603</v>
+        <v>0.611</v>
       </c>
       <c r="T38">
         <v>0</v>
@@ -2940,10 +2940,10 @@
         <v>1.9</v>
       </c>
       <c r="Y38">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Z38">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AA38">
         <v>0.6</v>
@@ -2958,7 +2958,7 @@
         <v>1.9</v>
       </c>
       <c r="AE38">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="AF38" t="s">
         <v>80</v>
@@ -3238,13 +3238,13 @@
         <v>77</v>
       </c>
       <c r="G43">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H43">
         <v>1</v>
       </c>
       <c r="I43">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="J43">
         <v>1</v>
@@ -3253,28 +3253,28 @@
         <v>2.3</v>
       </c>
       <c r="L43">
-        <v>0.441</v>
+        <v>0.444</v>
       </c>
       <c r="M43">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="N43">
         <v>1.6</v>
       </c>
       <c r="O43">
-        <v>0.458</v>
+        <v>0.462</v>
       </c>
       <c r="P43">
         <v>0.3</v>
       </c>
       <c r="Q43">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="R43">
         <v>0.4</v>
       </c>
       <c r="S43">
-        <v>0.603</v>
+        <v>0.611</v>
       </c>
       <c r="T43">
         <v>0</v>
@@ -3292,10 +3292,10 @@
         <v>1.9</v>
       </c>
       <c r="Y43">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Z43">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AA43">
         <v>0.6</v>
@@ -3310,7 +3310,7 @@
         <v>1.9</v>
       </c>
       <c r="AE43">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="AF43" t="s">
         <v>80</v>
@@ -3684,7 +3684,7 @@
         <v>77</v>
       </c>
       <c r="G50">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H50">
         <v>511</v>
@@ -5760,13 +5760,13 @@
         <v>28</v>
       </c>
       <c r="G26">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H26">
         <v>33</v>
       </c>
       <c r="I26">
-        <v>1254</v>
+        <v>1273</v>
       </c>
       <c r="J26">
         <v>1.8</v>
@@ -5775,7 +5775,7 @@
         <v>4.7</v>
       </c>
       <c r="L26">
-        <v>0.382</v>
+        <v>0.383</v>
       </c>
       <c r="M26">
         <v>1.1</v>
@@ -5784,7 +5784,7 @@
         <v>3.2</v>
       </c>
       <c r="O26">
-        <v>0.345</v>
+        <v>0.348</v>
       </c>
       <c r="P26">
         <v>0.7</v>
@@ -5826,7 +5826,7 @@
         <v>1.1</v>
       </c>
       <c r="AC26">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AD26">
         <v>5.2</v>
@@ -5950,13 +5950,13 @@
         <v>28</v>
       </c>
       <c r="G28">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="J28">
         <v>1.8</v>
@@ -5965,22 +5965,22 @@
         <v>4.1</v>
       </c>
       <c r="L28">
-        <v>0.441</v>
+        <v>0.444</v>
       </c>
       <c r="M28">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="N28">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="O28">
-        <v>0.458</v>
+        <v>0.462</v>
       </c>
       <c r="P28">
         <v>0.5</v>
       </c>
       <c r="Q28">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="R28">
         <v>0.4</v>
@@ -5995,28 +5995,28 @@
         <v>0</v>
       </c>
       <c r="V28">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W28">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="X28">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y28">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="Z28">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AA28">
         <v>0.2</v>
       </c>
       <c r="AB28">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AC28">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AD28">
         <v>5</v>
@@ -6290,13 +6290,13 @@
         <v>77</v>
       </c>
       <c r="G33">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="J33">
         <v>1.8</v>
@@ -6305,22 +6305,22 @@
         <v>4.1</v>
       </c>
       <c r="L33">
-        <v>0.441</v>
+        <v>0.444</v>
       </c>
       <c r="M33">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="N33">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="O33">
-        <v>0.458</v>
+        <v>0.462</v>
       </c>
       <c r="P33">
         <v>0.5</v>
       </c>
       <c r="Q33">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="R33">
         <v>0.4</v>
@@ -6335,28 +6335,28 @@
         <v>0</v>
       </c>
       <c r="V33">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W33">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="X33">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y33">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="Z33">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AA33">
         <v>0.2</v>
       </c>
       <c r="AB33">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AC33">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AD33">
         <v>5</v>
@@ -6721,13 +6721,13 @@
         <v>77</v>
       </c>
       <c r="G40">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H40">
         <v>511</v>
       </c>
       <c r="I40">
-        <v>20446</v>
+        <v>20465</v>
       </c>
       <c r="J40">
         <v>3.2</v>
@@ -6775,7 +6775,7 @@
         <v>7</v>
       </c>
       <c r="Y40">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="Z40">
         <v>1.5</v>
@@ -6932,7 +6932,7 @@
         <v>0.2999999999999998</v>
       </c>
       <c r="Y42">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="Z42">
         <v>-0.3999999999999999</v>
@@ -8909,13 +8909,13 @@
         <v>28</v>
       </c>
       <c r="G26">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H26">
         <v>33</v>
       </c>
       <c r="I26">
-        <v>1254</v>
+        <v>1273</v>
       </c>
       <c r="J26">
         <v>2.4</v>
@@ -8924,7 +8924,7 @@
         <v>6.2</v>
       </c>
       <c r="L26">
-        <v>0.382</v>
+        <v>0.383</v>
       </c>
       <c r="M26">
         <v>1.4</v>
@@ -8933,13 +8933,13 @@
         <v>4.2</v>
       </c>
       <c r="O26">
-        <v>0.345</v>
+        <v>0.348</v>
       </c>
       <c r="P26">
         <v>0.9</v>
       </c>
       <c r="Q26">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="R26">
         <v>0.455</v>
@@ -8954,22 +8954,22 @@
         <v>0.75</v>
       </c>
       <c r="V26">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W26">
         <v>5.4</v>
       </c>
       <c r="X26">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="Y26">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Z26">
         <v>1.4</v>
       </c>
       <c r="AA26">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AB26">
         <v>1.5</v>
@@ -9031,7 +9031,7 @@
         <v>1.3</v>
       </c>
       <c r="N27">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="O27">
         <v>0.314</v>
@@ -9111,13 +9111,13 @@
         <v>28</v>
       </c>
       <c r="G28">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="J28">
         <v>2.4</v>
@@ -9126,22 +9126,22 @@
         <v>5.4</v>
       </c>
       <c r="L28">
-        <v>0.441</v>
+        <v>0.444</v>
       </c>
       <c r="M28">
         <v>1.8</v>
       </c>
       <c r="N28">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="O28">
-        <v>0.458</v>
+        <v>0.462</v>
       </c>
       <c r="P28">
         <v>0.6</v>
       </c>
       <c r="Q28">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="R28">
         <v>0.4</v>
@@ -9150,25 +9150,25 @@
         <v>0</v>
       </c>
       <c r="T28">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="U28">
         <v>0</v>
       </c>
       <c r="V28">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="W28">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="X28">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="Y28">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="Z28">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AA28">
         <v>0.3</v>
@@ -9180,10 +9180,10 @@
         <v>4.6</v>
       </c>
       <c r="AD28">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AF28">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG28">
         <v>114</v>
@@ -9475,13 +9475,13 @@
         <v>77</v>
       </c>
       <c r="G33">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="J33">
         <v>2.4</v>
@@ -9490,22 +9490,22 @@
         <v>5.4</v>
       </c>
       <c r="L33">
-        <v>0.441</v>
+        <v>0.444</v>
       </c>
       <c r="M33">
         <v>1.8</v>
       </c>
       <c r="N33">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="O33">
-        <v>0.458</v>
+        <v>0.462</v>
       </c>
       <c r="P33">
         <v>0.6</v>
       </c>
       <c r="Q33">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="R33">
         <v>0.4</v>
@@ -9514,25 +9514,25 @@
         <v>0</v>
       </c>
       <c r="T33">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="U33">
         <v>0</v>
       </c>
       <c r="V33">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="W33">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="X33">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="Y33">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="Z33">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AA33">
         <v>0.3</v>
@@ -9544,10 +9544,10 @@
         <v>4.6</v>
       </c>
       <c r="AD33">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AF33">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG33">
         <v>114</v>
@@ -9936,13 +9936,13 @@
         <v>77</v>
       </c>
       <c r="G40">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H40">
         <v>511</v>
       </c>
       <c r="I40">
-        <v>20446</v>
+        <v>20465</v>
       </c>
       <c r="J40">
         <v>4.3</v>
@@ -11928,34 +11928,34 @@
         <v>28</v>
       </c>
       <c r="G26">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H26">
-        <v>1254</v>
+        <v>1273</v>
       </c>
       <c r="I26">
         <v>5.7</v>
       </c>
       <c r="J26">
-        <v>0.518</v>
+        <v>0.521</v>
       </c>
       <c r="K26">
-        <v>0.667</v>
+        <v>0.671</v>
       </c>
       <c r="L26">
-        <v>0.145</v>
+        <v>0.144</v>
       </c>
       <c r="M26">
         <v>4.1</v>
       </c>
       <c r="N26">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="O26">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="P26">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="Q26">
         <v>1.4</v>
@@ -11964,13 +11964,13 @@
         <v>1.4</v>
       </c>
       <c r="S26">
-        <v>18.2</v>
+        <v>18.4</v>
       </c>
       <c r="T26">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="W26">
         <v>0.9</v>
@@ -11979,7 +11979,7 @@
         <v>1</v>
       </c>
       <c r="Y26">
-        <v>0.037</v>
+        <v>0.036</v>
       </c>
       <c r="AA26">
         <v>-4.5</v>
@@ -12044,7 +12044,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="P27">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="Q27">
         <v>1.4</v>
@@ -12062,13 +12062,13 @@
         <v>-0.2</v>
       </c>
       <c r="W27">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="X27">
         <v>0.5</v>
       </c>
       <c r="Y27">
-        <v>0.024</v>
+        <v>0.023</v>
       </c>
       <c r="AA27">
         <v>-5.1</v>
@@ -12106,49 +12106,49 @@
         <v>28</v>
       </c>
       <c r="G28">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H28">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="I28">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="J28">
-        <v>0.595</v>
+        <v>0.604</v>
       </c>
       <c r="K28">
-        <v>0.706</v>
+        <v>0.722</v>
       </c>
       <c r="L28">
-        <v>0.029</v>
+        <v>0.028</v>
       </c>
       <c r="M28">
         <v>5.9</v>
       </c>
       <c r="N28">
-        <v>10</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="O28">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="P28">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="Q28">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="R28">
         <v>0.6</v>
       </c>
       <c r="S28">
-        <v>14.8</v>
+        <v>16.1</v>
       </c>
       <c r="T28">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="V28">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="W28">
         <v>0.3</v>
@@ -12160,10 +12160,10 @@
         <v>0.078</v>
       </c>
       <c r="AA28">
-        <v>-2.6</v>
+        <v>-2.5</v>
       </c>
       <c r="AB28">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AC28">
         <v>-2.3</v>
@@ -12425,49 +12425,49 @@
         <v>77</v>
       </c>
       <c r="G33">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H33">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="I33">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="J33">
-        <v>0.595</v>
+        <v>0.604</v>
       </c>
       <c r="K33">
-        <v>0.706</v>
+        <v>0.722</v>
       </c>
       <c r="L33">
-        <v>0.029</v>
+        <v>0.028</v>
       </c>
       <c r="M33">
         <v>5.9</v>
       </c>
       <c r="N33">
-        <v>10</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="O33">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="P33">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="Q33">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="R33">
         <v>0.6</v>
       </c>
       <c r="S33">
-        <v>14.8</v>
+        <v>16.1</v>
       </c>
       <c r="T33">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="V33">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="W33">
         <v>0.3</v>
@@ -12479,10 +12479,10 @@
         <v>0.078</v>
       </c>
       <c r="AA33">
-        <v>-2.6</v>
+        <v>-2.5</v>
       </c>
       <c r="AB33">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AC33">
         <v>-2.3</v>
@@ -12829,22 +12829,22 @@
         <v>77</v>
       </c>
       <c r="G40">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H40">
-        <v>20446</v>
+        <v>20465</v>
       </c>
       <c r="I40">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="J40">
         <v>0.533</v>
       </c>
       <c r="K40">
-        <v>0.47</v>
+        <v>0.471</v>
       </c>
       <c r="L40">
-        <v>0.203</v>
+        <v>0.202</v>
       </c>
       <c r="M40">
         <v>5.7</v>
@@ -12865,7 +12865,7 @@
         <v>0.9</v>
       </c>
       <c r="S40">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="T40">
         <v>11.4</v>
@@ -12983,16 +12983,16 @@
         <v>40</v>
       </c>
       <c r="I42">
-        <v>0.6999999999999993</v>
+        <v>0.8000000000000007</v>
       </c>
       <c r="J42">
         <v>0.06099999999999994</v>
       </c>
       <c r="K42">
-        <v>0.2120000000000001</v>
+        <v>0.2110000000000001</v>
       </c>
       <c r="L42">
-        <v>-0.05600000000000002</v>
+        <v>-0.05500000000000002</v>
       </c>
       <c r="M42">
         <v>-0.2999999999999998</v>
@@ -13013,7 +13013,7 @@
         <v>0.6</v>
       </c>
       <c r="S42">
-        <v>-2.300000000000001</v>
+        <v>-2.4</v>
       </c>
       <c r="T42">
         <v>-0.7000000000000011</v>

--- a/output/tuckepj01.xlsx
+++ b/output/tuckepj01.xlsx
@@ -25,7 +25,7 @@
     <t>Age</t>
   </si>
   <si>
-    <t>Team</t>
+    <t>Tm</t>
   </si>
   <si>
     <t>Lg</t>

--- a/output/tuckepj01.xlsx
+++ b/output/tuckepj01.xlsx
@@ -3438,10 +3438,10 @@
         <v>28</v>
       </c>
       <c r="G44">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H44">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I44">
         <v>25.8</v>
@@ -3453,7 +3453,7 @@
         <v>2.9</v>
       </c>
       <c r="L44">
-        <v>0.426</v>
+        <v>0.428</v>
       </c>
       <c r="M44">
         <v>0.7</v>
@@ -3462,7 +3462,7 @@
         <v>1.8</v>
       </c>
       <c r="O44">
-        <v>0.397</v>
+        <v>0.398</v>
       </c>
       <c r="P44">
         <v>0.5</v>
@@ -3471,16 +3471,16 @@
         <v>1.1</v>
       </c>
       <c r="R44">
-        <v>0.473</v>
+        <v>0.474</v>
       </c>
       <c r="S44">
-        <v>0.547</v>
+        <v>0.549</v>
       </c>
       <c r="T44">
         <v>0.3</v>
       </c>
       <c r="U44">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="V44">
         <v>0.826</v>
@@ -3498,7 +3498,7 @@
         <v>0.8</v>
       </c>
       <c r="AA44">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AB44">
         <v>0.2</v>
@@ -4300,10 +4300,10 @@
         <v>83</v>
       </c>
       <c r="G55">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H55">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I55">
         <v>25.8</v>
@@ -4315,7 +4315,7 @@
         <v>2.9</v>
       </c>
       <c r="L55">
-        <v>0.426</v>
+        <v>0.428</v>
       </c>
       <c r="M55">
         <v>0.7</v>
@@ -4324,7 +4324,7 @@
         <v>1.8</v>
       </c>
       <c r="O55">
-        <v>0.397</v>
+        <v>0.398</v>
       </c>
       <c r="P55">
         <v>0.5</v>
@@ -4333,16 +4333,16 @@
         <v>1.1</v>
       </c>
       <c r="R55">
-        <v>0.473</v>
+        <v>0.474</v>
       </c>
       <c r="S55">
-        <v>0.547</v>
+        <v>0.549</v>
       </c>
       <c r="T55">
         <v>0.3</v>
       </c>
       <c r="U55">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="V55">
         <v>0.826</v>
@@ -4360,7 +4360,7 @@
         <v>0.8</v>
       </c>
       <c r="AA55">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AB55">
         <v>0.2</v>
@@ -4746,19 +4746,19 @@
         <v>83</v>
       </c>
       <c r="G62">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="H62">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="I62">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="J62">
         <v>2.5</v>
       </c>
       <c r="K62">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="L62">
         <v>0.425</v>
@@ -4921,7 +4921,7 @@
         <v>0.1000000000000001</v>
       </c>
       <c r="K64">
-        <v>0</v>
+        <v>0.1000000000000005</v>
       </c>
       <c r="L64">
         <v>0.01400000000000001</v>
@@ -7528,22 +7528,22 @@
         <v>28</v>
       </c>
       <c r="G34">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H34">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I34">
-        <v>1679</v>
+        <v>1726</v>
       </c>
       <c r="J34">
         <v>1.7</v>
       </c>
       <c r="K34">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L34">
-        <v>0.426</v>
+        <v>0.428</v>
       </c>
       <c r="M34">
         <v>1</v>
@@ -7552,7 +7552,7 @@
         <v>2.5</v>
       </c>
       <c r="O34">
-        <v>0.397</v>
+        <v>0.398</v>
       </c>
       <c r="P34">
         <v>0.8</v>
@@ -7561,7 +7561,7 @@
         <v>1.6</v>
       </c>
       <c r="R34">
-        <v>0.473</v>
+        <v>0.474</v>
       </c>
       <c r="S34">
         <v>0.4</v>
@@ -7585,19 +7585,19 @@
         <v>1.1</v>
       </c>
       <c r="Z34">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AA34">
         <v>0.3</v>
       </c>
       <c r="AB34">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="AC34">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AD34">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="AE34" t="s">
         <v>86</v>
@@ -8360,22 +8360,22 @@
         <v>83</v>
       </c>
       <c r="G45">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H45">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I45">
-        <v>1679</v>
+        <v>1726</v>
       </c>
       <c r="J45">
         <v>1.7</v>
       </c>
       <c r="K45">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L45">
-        <v>0.426</v>
+        <v>0.428</v>
       </c>
       <c r="M45">
         <v>1</v>
@@ -8384,7 +8384,7 @@
         <v>2.5</v>
       </c>
       <c r="O45">
-        <v>0.397</v>
+        <v>0.398</v>
       </c>
       <c r="P45">
         <v>0.8</v>
@@ -8393,7 +8393,7 @@
         <v>1.6</v>
       </c>
       <c r="R45">
-        <v>0.473</v>
+        <v>0.474</v>
       </c>
       <c r="S45">
         <v>0.4</v>
@@ -8417,19 +8417,19 @@
         <v>1.1</v>
       </c>
       <c r="Z45">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AA45">
         <v>0.3</v>
       </c>
       <c r="AB45">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="AC45">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AD45">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="AE45" t="s">
         <v>86</v>
@@ -8791,13 +8791,13 @@
         <v>83</v>
       </c>
       <c r="G52">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="H52">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="I52">
-        <v>24208</v>
+        <v>24255</v>
       </c>
       <c r="J52">
         <v>3.1</v>
@@ -11733,13 +11733,13 @@
         <v>28</v>
       </c>
       <c r="G34">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H34">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I34">
-        <v>1679</v>
+        <v>1726</v>
       </c>
       <c r="J34">
         <v>2.4</v>
@@ -11748,16 +11748,16 @@
         <v>5.6</v>
       </c>
       <c r="L34">
-        <v>0.426</v>
+        <v>0.428</v>
       </c>
       <c r="M34">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="N34">
         <v>3.4</v>
       </c>
       <c r="O34">
-        <v>0.397</v>
+        <v>0.398</v>
       </c>
       <c r="P34">
         <v>1</v>
@@ -11766,10 +11766,10 @@
         <v>2.2</v>
       </c>
       <c r="R34">
-        <v>0.473</v>
+        <v>0.474</v>
       </c>
       <c r="S34">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="T34">
         <v>0.7</v>
@@ -11790,13 +11790,13 @@
         <v>1.6</v>
       </c>
       <c r="Z34">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AA34">
         <v>0.4</v>
       </c>
       <c r="AB34">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="AC34">
         <v>4.6</v>
@@ -11805,10 +11805,10 @@
         <v>6.7</v>
       </c>
       <c r="AF34">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG34">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AH34" t="s">
         <v>86</v>
@@ -12625,13 +12625,13 @@
         <v>83</v>
       </c>
       <c r="G45">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H45">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I45">
-        <v>1679</v>
+        <v>1726</v>
       </c>
       <c r="J45">
         <v>2.4</v>
@@ -12640,16 +12640,16 @@
         <v>5.6</v>
       </c>
       <c r="L45">
-        <v>0.426</v>
+        <v>0.428</v>
       </c>
       <c r="M45">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="N45">
         <v>3.4</v>
       </c>
       <c r="O45">
-        <v>0.397</v>
+        <v>0.398</v>
       </c>
       <c r="P45">
         <v>1</v>
@@ -12658,10 +12658,10 @@
         <v>2.2</v>
       </c>
       <c r="R45">
-        <v>0.473</v>
+        <v>0.474</v>
       </c>
       <c r="S45">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="T45">
         <v>0.7</v>
@@ -12682,13 +12682,13 @@
         <v>1.6</v>
       </c>
       <c r="Z45">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AA45">
         <v>0.4</v>
       </c>
       <c r="AB45">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="AC45">
         <v>4.6</v>
@@ -12697,10 +12697,10 @@
         <v>6.7</v>
       </c>
       <c r="AF45">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG45">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AH45" t="s">
         <v>86</v>
@@ -13086,13 +13086,13 @@
         <v>83</v>
       </c>
       <c r="G52">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="H52">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="I52">
-        <v>24208</v>
+        <v>24255</v>
       </c>
       <c r="J52">
         <v>4.2</v>
@@ -15742,28 +15742,28 @@
         <v>28</v>
       </c>
       <c r="G34">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H34">
-        <v>1679</v>
+        <v>1726</v>
       </c>
       <c r="I34">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="J34">
-        <v>0.5669999999999999</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="K34">
-        <v>0.611</v>
+        <v>0.608</v>
       </c>
       <c r="L34">
-        <v>0.121</v>
+        <v>0.119</v>
       </c>
       <c r="M34">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="N34">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="O34">
         <v>9.199999999999999</v>
@@ -15772,37 +15772,37 @@
         <v>4</v>
       </c>
       <c r="Q34">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="R34">
         <v>0.8</v>
       </c>
       <c r="S34">
-        <v>16.7</v>
+        <v>16.4</v>
       </c>
       <c r="T34">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="V34">
         <v>0.8</v>
       </c>
       <c r="W34">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="X34">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="Y34">
-        <v>0.064</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AA34">
         <v>-3.2</v>
       </c>
       <c r="AB34">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="AC34">
-        <v>-3.1</v>
+        <v>-2.8</v>
       </c>
       <c r="AD34">
         <v>-0.4</v>
@@ -16523,28 +16523,28 @@
         <v>83</v>
       </c>
       <c r="G45">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H45">
-        <v>1679</v>
+        <v>1726</v>
       </c>
       <c r="I45">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="J45">
-        <v>0.5669999999999999</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="K45">
-        <v>0.611</v>
+        <v>0.608</v>
       </c>
       <c r="L45">
-        <v>0.121</v>
+        <v>0.119</v>
       </c>
       <c r="M45">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="N45">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="O45">
         <v>9.199999999999999</v>
@@ -16553,37 +16553,37 @@
         <v>4</v>
       </c>
       <c r="Q45">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="R45">
         <v>0.8</v>
       </c>
       <c r="S45">
-        <v>16.7</v>
+        <v>16.4</v>
       </c>
       <c r="T45">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="V45">
         <v>0.8</v>
       </c>
       <c r="W45">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="X45">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="Y45">
-        <v>0.064</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AA45">
         <v>-3.2</v>
       </c>
       <c r="AB45">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="AC45">
-        <v>-3.1</v>
+        <v>-2.8</v>
       </c>
       <c r="AD45">
         <v>-0.4</v>
@@ -16927,10 +16927,10 @@
         <v>83</v>
       </c>
       <c r="G52">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="H52">
-        <v>24208</v>
+        <v>24255</v>
       </c>
       <c r="I52">
         <v>10</v>
@@ -16963,7 +16963,7 @@
         <v>0.9</v>
       </c>
       <c r="S52">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="T52">
         <v>11</v>
@@ -16972,10 +16972,10 @@
         <v>18.1</v>
       </c>
       <c r="W52">
-        <v>24.2</v>
+        <v>24.4</v>
       </c>
       <c r="X52">
-        <v>42.2</v>
+        <v>42.5</v>
       </c>
       <c r="Y52">
         <v>0.08400000000000001</v>
@@ -16990,7 +16990,7 @@
         <v>-0.9</v>
       </c>
       <c r="AD52">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AE52" t="s">
         <v>86</v>
@@ -17111,7 +17111,7 @@
         <v>0.2000000000000001</v>
       </c>
       <c r="S54">
-        <v>-2.9</v>
+        <v>-2.800000000000001</v>
       </c>
       <c r="T54">
         <v>-1.1</v>
@@ -17120,10 +17120,10 @@
         <v>-14.9</v>
       </c>
       <c r="W54">
-        <v>-20.5</v>
+        <v>-20.7</v>
       </c>
       <c r="X54">
-        <v>-35.2</v>
+        <v>-35.5</v>
       </c>
       <c r="Y54">
         <v>0.033</v>
@@ -17138,7 +17138,7 @@
         <v>1.7</v>
       </c>
       <c r="AD54">
-        <v>-4.7</v>
+        <v>-4.8</v>
       </c>
     </row>
   </sheetData>

--- a/output/tuckepj01.xlsx
+++ b/output/tuckepj01.xlsx
@@ -3438,10 +3438,10 @@
         <v>28</v>
       </c>
       <c r="G44">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H44">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I44">
         <v>25.8</v>
@@ -3453,7 +3453,7 @@
         <v>2.9</v>
       </c>
       <c r="L44">
-        <v>0.428</v>
+        <v>0.423</v>
       </c>
       <c r="M44">
         <v>0.7</v>
@@ -3462,7 +3462,7 @@
         <v>1.8</v>
       </c>
       <c r="O44">
-        <v>0.398</v>
+        <v>0.387</v>
       </c>
       <c r="P44">
         <v>0.5</v>
@@ -3471,10 +3471,10 @@
         <v>1.1</v>
       </c>
       <c r="R44">
-        <v>0.474</v>
+        <v>0.481</v>
       </c>
       <c r="S44">
-        <v>0.549</v>
+        <v>0.542</v>
       </c>
       <c r="T44">
         <v>0.3</v>
@@ -3510,7 +3510,7 @@
         <v>2.4</v>
       </c>
       <c r="AE44">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AF44" t="s">
         <v>86</v>
@@ -4300,10 +4300,10 @@
         <v>83</v>
       </c>
       <c r="G55">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H55">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I55">
         <v>25.8</v>
@@ -4315,7 +4315,7 @@
         <v>2.9</v>
       </c>
       <c r="L55">
-        <v>0.428</v>
+        <v>0.423</v>
       </c>
       <c r="M55">
         <v>0.7</v>
@@ -4324,7 +4324,7 @@
         <v>1.8</v>
       </c>
       <c r="O55">
-        <v>0.398</v>
+        <v>0.387</v>
       </c>
       <c r="P55">
         <v>0.5</v>
@@ -4333,10 +4333,10 @@
         <v>1.1</v>
       </c>
       <c r="R55">
-        <v>0.474</v>
+        <v>0.481</v>
       </c>
       <c r="S55">
-        <v>0.549</v>
+        <v>0.542</v>
       </c>
       <c r="T55">
         <v>0.3</v>
@@ -4372,7 +4372,7 @@
         <v>2.4</v>
       </c>
       <c r="AE55">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AF55" t="s">
         <v>86</v>
@@ -4746,10 +4746,10 @@
         <v>83</v>
       </c>
       <c r="G62">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="H62">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="I62">
         <v>28.7</v>
@@ -4770,7 +4770,7 @@
         <v>2.8</v>
       </c>
       <c r="O62">
-        <v>0.366</v>
+        <v>0.365</v>
       </c>
       <c r="P62">
         <v>1.5</v>
@@ -4779,13 +4779,13 @@
         <v>3.1</v>
       </c>
       <c r="R62">
-        <v>0.479</v>
+        <v>0.48</v>
       </c>
       <c r="S62">
         <v>0.512</v>
       </c>
       <c r="T62">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="U62">
         <v>1.1</v>
@@ -4933,7 +4933,7 @@
         <v>0.9000000000000004</v>
       </c>
       <c r="O64">
-        <v>0.04099999999999998</v>
+        <v>0.04199999999999998</v>
       </c>
       <c r="P64">
         <v>-0.3999999999999999</v>
@@ -4942,13 +4942,13 @@
         <v>-0.8999999999999999</v>
       </c>
       <c r="R64">
-        <v>0.01400000000000001</v>
+        <v>0.01300000000000001</v>
       </c>
       <c r="S64">
         <v>0.05399999999999994</v>
       </c>
       <c r="T64">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="U64">
         <v>-0.3</v>
@@ -7528,22 +7528,22 @@
         <v>28</v>
       </c>
       <c r="G34">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H34">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I34">
-        <v>1726</v>
+        <v>1779</v>
       </c>
       <c r="J34">
         <v>1.7</v>
       </c>
       <c r="K34">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L34">
-        <v>0.428</v>
+        <v>0.423</v>
       </c>
       <c r="M34">
         <v>1</v>
@@ -7552,16 +7552,16 @@
         <v>2.5</v>
       </c>
       <c r="O34">
-        <v>0.398</v>
+        <v>0.387</v>
       </c>
       <c r="P34">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="Q34">
         <v>1.6</v>
       </c>
       <c r="R34">
-        <v>0.474</v>
+        <v>0.481</v>
       </c>
       <c r="S34">
         <v>0.4</v>
@@ -8360,22 +8360,22 @@
         <v>83</v>
       </c>
       <c r="G45">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H45">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I45">
-        <v>1726</v>
+        <v>1779</v>
       </c>
       <c r="J45">
         <v>1.7</v>
       </c>
       <c r="K45">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L45">
-        <v>0.428</v>
+        <v>0.423</v>
       </c>
       <c r="M45">
         <v>1</v>
@@ -8384,16 +8384,16 @@
         <v>2.5</v>
       </c>
       <c r="O45">
-        <v>0.398</v>
+        <v>0.387</v>
       </c>
       <c r="P45">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="Q45">
         <v>1.6</v>
       </c>
       <c r="R45">
-        <v>0.474</v>
+        <v>0.481</v>
       </c>
       <c r="S45">
         <v>0.4</v>
@@ -8791,13 +8791,13 @@
         <v>83</v>
       </c>
       <c r="G52">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="H52">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="I52">
-        <v>24255</v>
+        <v>24308</v>
       </c>
       <c r="J52">
         <v>3.1</v>
@@ -8815,7 +8815,7 @@
         <v>3.5</v>
       </c>
       <c r="O52">
-        <v>0.366</v>
+        <v>0.365</v>
       </c>
       <c r="P52">
         <v>1.8</v>
@@ -8824,7 +8824,7 @@
         <v>3.8</v>
       </c>
       <c r="R52">
-        <v>0.479</v>
+        <v>0.48</v>
       </c>
       <c r="S52">
         <v>1.1</v>
@@ -8860,7 +8860,7 @@
         <v>3.1</v>
       </c>
       <c r="AD52">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="AE52" t="s">
         <v>86</v>
@@ -8972,7 +8972,7 @@
         <v>0.7999999999999998</v>
       </c>
       <c r="O54">
-        <v>0.04099999999999998</v>
+        <v>0.04199999999999998</v>
       </c>
       <c r="P54">
         <v>-0.5</v>
@@ -8981,7 +8981,7 @@
         <v>-1.2</v>
       </c>
       <c r="R54">
-        <v>0.01400000000000001</v>
+        <v>0.01300000000000001</v>
       </c>
       <c r="S54">
         <v>-0.5000000000000001</v>
@@ -9017,7 +9017,7 @@
         <v>0.5</v>
       </c>
       <c r="AD54">
-        <v>-0.2999999999999989</v>
+        <v>-0.1999999999999993</v>
       </c>
     </row>
   </sheetData>
@@ -11733,13 +11733,13 @@
         <v>28</v>
       </c>
       <c r="G34">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H34">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I34">
-        <v>1726</v>
+        <v>1779</v>
       </c>
       <c r="J34">
         <v>2.4</v>
@@ -11748,31 +11748,31 @@
         <v>5.6</v>
       </c>
       <c r="L34">
-        <v>0.428</v>
+        <v>0.423</v>
       </c>
       <c r="M34">
         <v>1.3</v>
       </c>
       <c r="N34">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O34">
-        <v>0.398</v>
+        <v>0.387</v>
       </c>
       <c r="P34">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R34">
-        <v>0.474</v>
+        <v>0.481</v>
       </c>
       <c r="S34">
         <v>0.5</v>
       </c>
       <c r="T34">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="U34">
         <v>0.826</v>
@@ -11799,16 +11799,16 @@
         <v>1.1</v>
       </c>
       <c r="AC34">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="AD34">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AF34">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AG34">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AH34" t="s">
         <v>86</v>
@@ -12625,13 +12625,13 @@
         <v>83</v>
       </c>
       <c r="G45">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H45">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I45">
-        <v>1726</v>
+        <v>1779</v>
       </c>
       <c r="J45">
         <v>2.4</v>
@@ -12640,31 +12640,31 @@
         <v>5.6</v>
       </c>
       <c r="L45">
-        <v>0.428</v>
+        <v>0.423</v>
       </c>
       <c r="M45">
         <v>1.3</v>
       </c>
       <c r="N45">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O45">
-        <v>0.398</v>
+        <v>0.387</v>
       </c>
       <c r="P45">
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R45">
-        <v>0.474</v>
+        <v>0.481</v>
       </c>
       <c r="S45">
         <v>0.5</v>
       </c>
       <c r="T45">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="U45">
         <v>0.826</v>
@@ -12691,16 +12691,16 @@
         <v>1.1</v>
       </c>
       <c r="AC45">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="AD45">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AF45">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AG45">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AH45" t="s">
         <v>86</v>
@@ -13086,13 +13086,13 @@
         <v>83</v>
       </c>
       <c r="G52">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="H52">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="I52">
-        <v>24255</v>
+        <v>24308</v>
       </c>
       <c r="J52">
         <v>4.2</v>
@@ -13110,7 +13110,7 @@
         <v>4.7</v>
       </c>
       <c r="O52">
-        <v>0.366</v>
+        <v>0.365</v>
       </c>
       <c r="P52">
         <v>2.5</v>
@@ -13119,10 +13119,10 @@
         <v>5.2</v>
       </c>
       <c r="R52">
-        <v>0.479</v>
+        <v>0.48</v>
       </c>
       <c r="S52">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="T52">
         <v>1.9</v>
@@ -13279,7 +13279,7 @@
         <v>1.2</v>
       </c>
       <c r="O54">
-        <v>0.04099999999999998</v>
+        <v>0.04199999999999998</v>
       </c>
       <c r="P54">
         <v>-0.7</v>
@@ -13288,10 +13288,10 @@
         <v>-1.6</v>
       </c>
       <c r="R54">
-        <v>0.01400000000000001</v>
+        <v>0.01300000000000001</v>
       </c>
       <c r="S54">
-        <v>-0.6</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="T54">
         <v>-0.7</v>
@@ -15742,28 +15742,28 @@
         <v>28</v>
       </c>
       <c r="G34">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H34">
-        <v>1726</v>
+        <v>1779</v>
       </c>
       <c r="I34">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="J34">
-        <v>0.5679999999999999</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="K34">
-        <v>0.608</v>
+        <v>0.617</v>
       </c>
       <c r="L34">
-        <v>0.119</v>
+        <v>0.114</v>
       </c>
       <c r="M34">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="N34">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="O34">
         <v>9.199999999999999</v>
@@ -15778,7 +15778,7 @@
         <v>0.8</v>
       </c>
       <c r="S34">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="T34">
         <v>6.3</v>
@@ -15790,19 +15790,19 @@
         <v>1.7</v>
       </c>
       <c r="X34">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Y34">
-        <v>0.07000000000000001</v>
+        <v>0.066</v>
       </c>
       <c r="AA34">
-        <v>-3.2</v>
+        <v>-3.3</v>
       </c>
       <c r="AB34">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AC34">
-        <v>-2.8</v>
+        <v>-3</v>
       </c>
       <c r="AD34">
         <v>-0.4</v>
@@ -16523,28 +16523,28 @@
         <v>83</v>
       </c>
       <c r="G45">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H45">
-        <v>1726</v>
+        <v>1779</v>
       </c>
       <c r="I45">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="J45">
-        <v>0.5679999999999999</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="K45">
-        <v>0.608</v>
+        <v>0.617</v>
       </c>
       <c r="L45">
-        <v>0.119</v>
+        <v>0.114</v>
       </c>
       <c r="M45">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="N45">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="O45">
         <v>9.199999999999999</v>
@@ -16559,7 +16559,7 @@
         <v>0.8</v>
       </c>
       <c r="S45">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="T45">
         <v>6.3</v>
@@ -16571,19 +16571,19 @@
         <v>1.7</v>
       </c>
       <c r="X45">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Y45">
-        <v>0.07000000000000001</v>
+        <v>0.066</v>
       </c>
       <c r="AA45">
-        <v>-3.2</v>
+        <v>-3.3</v>
       </c>
       <c r="AB45">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AC45">
-        <v>-2.8</v>
+        <v>-3</v>
       </c>
       <c r="AD45">
         <v>-0.4</v>
@@ -16927,10 +16927,10 @@
         <v>83</v>
       </c>
       <c r="G52">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="H52">
-        <v>24255</v>
+        <v>24308</v>
       </c>
       <c r="I52">
         <v>10</v>
@@ -16990,7 +16990,7 @@
         <v>-0.9</v>
       </c>
       <c r="AD52">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AE52" t="s">
         <v>86</v>
@@ -17138,7 +17138,7 @@
         <v>1.7</v>
       </c>
       <c r="AD54">
-        <v>-4.8</v>
+        <v>-4.7</v>
       </c>
     </row>
   </sheetData>
